--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CircuitDesign\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Address A</t>
-  </si>
-  <si>
-    <t>Write/Read</t>
-  </si>
-  <si>
-    <t>Address B</t>
-  </si>
-  <si>
-    <t>Address C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>0001</t>
   </si>
@@ -47,9 +32,6 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Hexadecimal</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -68,9 +50,6 @@
     <t>STEP</t>
   </si>
   <si>
-    <t>INSERT</t>
-  </si>
-  <si>
     <t>OUTPUT</t>
   </si>
   <si>
@@ -104,43 +83,46 @@
     <t>001</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1010010000110000111</t>
-  </si>
-  <si>
     <t>000</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>1010001000110100001</t>
-  </si>
-  <si>
-    <t>511A1</t>
-  </si>
-  <si>
-    <t>094a6</t>
-  </si>
-  <si>
-    <t>1010001101010000111</t>
-  </si>
-  <si>
-    <t>51a87</t>
-  </si>
-  <si>
-    <t>010</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Instr</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -156,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +148,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,24 +203,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,343 +512,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="1" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="5" t="str">
+        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;H2&amp;I2&amp;J2&amp;K2&amp;M2&amp;N2&amp;O2&amp;P2</f>
+        <v>0001001001001100001001100</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="T2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="5" t="str">
+        <f t="shared" ref="Q3:Q16" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;H3&amp;I3&amp;J3&amp;K3&amp;M3&amp;N3&amp;O3&amp;P3</f>
+        <v/>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="T3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="T5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="T6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="T7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="T8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="3" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="T9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="6">
-        <v>52187</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f>A4&amp;B4&amp;C4&amp;D4&amp;E4&amp;F4&amp;G4</f>
-        <v>0001001010010100110</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>A5&amp;B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5</f>
-        <v>1000000000000000101</v>
-      </c>
-      <c r="I5" s="6">
-        <v>40005</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f>A7&amp;B7&amp;C7&amp;D7&amp;E7&amp;F7&amp;G7</f>
-        <v>0110010010000000000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>32400</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="19" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>0001</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Len</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -232,6 +235,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,12 +530,13 @@
     <col min="9" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -583,17 +588,20 @@
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -643,18 +651,22 @@
         <v>30</v>
       </c>
       <c r="Q2" s="5" t="str">
-        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;H2&amp;I2&amp;J2&amp;K2&amp;M2&amp;N2&amp;O2&amp;P2</f>
-        <v>0001001001001100001001100</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="T2" s="2" t="s">
+        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2</f>
+        <v>0001001001001001100001000001100</v>
+      </c>
+      <c r="R2" s="20">
+        <f>LEN(Q2)</f>
+        <v>31</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -672,18 +684,22 @@
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="5" t="str">
-        <f t="shared" ref="Q3:Q16" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;H3&amp;I3&amp;J3&amp;K3&amp;M3&amp;N3&amp;O3&amp;P3</f>
-        <v/>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="T3" s="2" t="s">
+        <f t="shared" ref="Q3:Q16" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3</f>
+        <v/>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" ref="R3:R16" si="1">LEN(Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="U3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -704,15 +720,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="2" t="s">
+      <c r="R4" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -733,15 +753,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R5" s="6"/>
-      <c r="T5" s="2" t="s">
+      <c r="R5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="U5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -762,15 +786,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R6" s="6"/>
-      <c r="T6" s="2" t="s">
+      <c r="R6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="U6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -791,15 +819,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R7" s="6"/>
-      <c r="T7" s="2" t="s">
+      <c r="R7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="U7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -820,15 +852,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R8" s="6"/>
-      <c r="T8" s="2" t="s">
+      <c r="R8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="U8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -849,15 +885,19 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R9" s="6"/>
-      <c r="T9" s="2" t="s">
+      <c r="R9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="U9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -878,10 +918,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R10" s="6"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -902,9 +946,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -925,9 +973,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -948,9 +1000,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -971,9 +1027,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -994,9 +1054,13 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1017,13 +1081,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="19" spans="17:21" x14ac:dyDescent="0.25">
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="R16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="19" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ADD 5 REPEATEDLY" sheetId="3" r:id="rId2"/>
+    <sheet name="ADD" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="35">
   <si>
     <t>0001</t>
   </si>
@@ -126,6 +128,9 @@
   </si>
   <si>
     <t>Len</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
 </sst>
 </file>
@@ -519,7 +524,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,28 +608,28 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>30</v>
@@ -633,7 +638,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>20</v>
@@ -642,17 +647,17 @@
         <v>18</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="5" t="str">
         <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2</f>
-        <v>0001001001001001100001000001100</v>
+        <v>1001000001100000000000000001010</v>
       </c>
       <c r="R2" s="20">
         <f>LEN(Q2)</f>
@@ -667,29 +672,61 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="Q3" s="5" t="str">
         <f t="shared" ref="Q3:Q16" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3</f>
-        <v/>
+        <v>0001000001010000101001000001100</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" ref="R3:R16" si="1">LEN(Q3)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S3" s="6"/>
       <c r="U3" s="2" t="s">
@@ -700,29 +737,61 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Q4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0110000000000000001001000001001</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S4" s="7"/>
       <c r="U4" s="2" t="s">
@@ -1098,4 +1167,234 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="5X4" sheetId="4" r:id="rId2"/>
-    <sheet name="ADD 5 REPEATEDLY" sheetId="3" r:id="rId3"/>
-    <sheet name="ADD" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="5X4" sheetId="4" r:id="rId3"/>
+    <sheet name="ADD 5 REPEATEDLY" sheetId="3" r:id="rId4"/>
+    <sheet name="ADD" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="90">
   <si>
     <t>0001</t>
   </si>
@@ -288,9 +289,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>111</t>
   </si>
   <si>
     <t>011</t>
@@ -688,7 +686,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S10"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +801,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>30</v>
@@ -815,30 +813,30 @@
         <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="3" t="str">
-        <f>B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
-        <v>01001000001100010111001000000000</v>
+        <f t="shared" ref="R2:R16" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
-        <v>48317200</v>
+        <v>4830000A</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>59</v>
@@ -847,36 +845,36 @@
         <v>3</v>
       </c>
       <c r="X2" t="str">
-        <f>LEFT(RIGHT(R2,32),4)</f>
+        <f t="shared" ref="X2:X16" si="1">LEFT(RIGHT(R2,32),4)</f>
         <v>0100</v>
       </c>
       <c r="Y2" t="str">
-        <f>LEFT(RIGHT(R2,28),4)</f>
+        <f t="shared" ref="Y2:Y16" si="2">LEFT(RIGHT(R2,28),4)</f>
         <v>1000</v>
       </c>
       <c r="Z2" t="str">
-        <f>LEFT(RIGHT(R2,24),4)</f>
+        <f t="shared" ref="Z2:Z16" si="3">LEFT(RIGHT(R2,24),4)</f>
         <v>0011</v>
       </c>
       <c r="AA2" t="str">
-        <f>LEFT(RIGHT(R2,20),4)</f>
-        <v>0001</v>
+        <f t="shared" ref="AA2:AA16" si="4">LEFT(RIGHT(R2,20),4)</f>
+        <v>0000</v>
       </c>
       <c r="AB2" t="str">
-        <f>LEFT(RIGHT(R2,16),4)</f>
-        <v>0111</v>
+        <f t="shared" ref="AB2:AB16" si="5">LEFT(RIGHT(R2,16),4)</f>
+        <v>0000</v>
       </c>
       <c r="AC2" t="str">
-        <f>LEFT(RIGHT(R2,12),4)</f>
-        <v>0010</v>
+        <f t="shared" ref="AC2:AC16" si="6">LEFT(RIGHT(R2,12),4)</f>
+        <v>0000</v>
       </c>
       <c r="AD2" t="str">
-        <f>LEFT(RIGHT(R2,8),4)</f>
+        <f t="shared" ref="AD2:AD16" si="7">LEFT(RIGHT(R2,8),4)</f>
         <v>0000</v>
       </c>
       <c r="AE2" t="str">
-        <f>LEFT(RIGHT(R2,4),4)</f>
-        <v>0000</v>
+        <f t="shared" ref="AE2:AE16" si="8">LEFT(RIGHT(R2,4),4)</f>
+        <v>1010</v>
       </c>
       <c r="AG2" t="str">
         <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
@@ -892,15 +890,15 @@
       </c>
       <c r="AJ2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
@@ -908,7 +906,7 @@
       </c>
       <c r="AN2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>69</v>
@@ -921,61 +919,61 @@
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>31</v>
+      <c r="I3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="R3" s="3" t="str">
-        <f t="shared" ref="R3:R16" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3</f>
-        <v>01001000000000000001100001011001</v>
+        <f t="shared" si="0"/>
+        <v>00001000001010001100001000001100</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S16" si="1">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>48001859</v>
+        <f t="shared" ref="S3:S16" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
+        <v>0828C20C</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -984,68 +982,68 @@
         <v>4</v>
       </c>
       <c r="X3" t="str">
-        <f>LEFT(RIGHT(R3,32),4)</f>
-        <v>0100</v>
+        <f t="shared" si="1"/>
+        <v>0000</v>
       </c>
       <c r="Y3" t="str">
-        <f>LEFT(RIGHT(R3,28),4)</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="Z3" t="str">
-        <f>LEFT(RIGHT(R3,24),4)</f>
+        <f t="shared" si="3"/>
+        <v>0010</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="6"/>
+        <v>0010</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="7"/>
         <v>0000</v>
       </c>
-      <c r="AA3" t="str">
-        <f>LEFT(RIGHT(R3,20),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AB3" t="str">
-        <f>LEFT(RIGHT(R3,16),4)</f>
-        <v>0001</v>
-      </c>
-      <c r="AC3" t="str">
-        <f>LEFT(RIGHT(R3,12),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="str">
-        <f>LEFT(RIGHT(R3,8),4)</f>
-        <v>0101</v>
-      </c>
       <c r="AE3" t="str">
-        <f>LEFT(RIGHT(R3,4),4)</f>
-        <v>1001</v>
+        <f t="shared" si="8"/>
+        <v>1100</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG16" si="2">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
-        <v>4</v>
+        <f t="shared" ref="AG3:AG16" si="10">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH16" si="3">INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
+        <f t="shared" ref="AH3:AH16" si="11">INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI16" si="4">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <f t="shared" ref="AI3:AI16" si="12">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" ref="AJ3:AJ16" si="13">INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" ref="AK3:AK16" si="14">INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
+        <v>C</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" ref="AL3:AL16" si="15">INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" ref="AM3:AM16" si="16">INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
         <v>0</v>
       </c>
-      <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ16" si="5">INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK16" si="6">INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL16" si="7">INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM16" si="8">INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
-        <v>5</v>
-      </c>
       <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN16" si="9">INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
-        <v>9</v>
+        <f t="shared" ref="AN3:AN16" si="17">INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
+        <v>C</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>0</v>
@@ -1059,7 +1057,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
@@ -1068,10 +1066,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1086,19 +1084,19 @@
         <v>30</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>30</v>
@@ -1108,11 +1106,11 @@
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000001010000000000</v>
+        <v>00001000010010000001001000010100</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>48501400</v>
+        <f t="shared" si="9"/>
+        <v>08481214</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1121,68 +1119,68 @@
         <v>5</v>
       </c>
       <c r="X4" t="str">
-        <f>LEFT(RIGHT(R4,32),4)</f>
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="3"/>
         <v>0100</v>
       </c>
-      <c r="Y4" t="str">
-        <f>LEFT(RIGHT(R4,28),4)</f>
+      <c r="AA4" t="str">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Z4" t="str">
-        <f>LEFT(RIGHT(R4,24),4)</f>
-        <v>0101</v>
-      </c>
-      <c r="AA4" t="str">
-        <f>LEFT(RIGHT(R4,20),4)</f>
-        <v>0000</v>
-      </c>
       <c r="AB4" t="str">
-        <f>LEFT(RIGHT(R4,16),4)</f>
+        <f t="shared" si="5"/>
         <v>0001</v>
       </c>
       <c r="AC4" t="str">
-        <f>LEFT(RIGHT(R4,12),4)</f>
+        <f t="shared" si="6"/>
+        <v>0010</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="7"/>
+        <v>0001</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="8"/>
         <v>0100</v>
       </c>
-      <c r="AD4" t="str">
-        <f>LEFT(RIGHT(R4,8),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AE4" t="str">
-        <f>LEFT(RIGHT(R4,4),4)</f>
-        <v>0000</v>
-      </c>
       <c r="AG4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AH4" t="str">
-        <f t="shared" si="3"/>
+      <c r="AJ4" t="str">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AI4" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ4" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AK4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="17"/>
         <v>4</v>
-      </c>
-      <c r="AM4" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
@@ -1195,61 +1193,61 @@
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00010000010010000000000000010100</v>
+        <v>01001000010100000000000000010010</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>10480014</v>
+        <f t="shared" si="9"/>
+        <v>48500012</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>62</v>
@@ -1258,68 +1256,68 @@
         <v>6</v>
       </c>
       <c r="X5" t="str">
-        <f>LEFT(RIGHT(R5,32),4)</f>
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="3"/>
+        <v>0101</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="4"/>
+        <v>0000</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="6"/>
+        <v>0000</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="7"/>
         <v>0001</v>
       </c>
-      <c r="Y5" t="str">
-        <f>LEFT(RIGHT(R5,28),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Z5" t="str">
-        <f>LEFT(RIGHT(R5,24),4)</f>
-        <v>0100</v>
-      </c>
-      <c r="AA5" t="str">
-        <f>LEFT(RIGHT(R5,20),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="str">
-        <f>LEFT(RIGHT(R5,16),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AC5" t="str">
-        <f>LEFT(RIGHT(R5,12),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AD5" t="str">
-        <f>LEFT(RIGHT(R5,8),4)</f>
-        <v>0001</v>
-      </c>
       <c r="AE5" t="str">
-        <f>LEFT(RIGHT(R5,4),4)</f>
-        <v>0100</v>
+        <f t="shared" si="8"/>
+        <v>0010</v>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AH5" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AK5" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM5" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AN5" t="str">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
@@ -1333,60 +1331,60 @@
         <v>40</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000010010</v>
+        <v>00101000010010000101001000011100</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>48500012</v>
+        <f t="shared" si="9"/>
+        <v>2848521C</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>63</v>
@@ -1395,68 +1393,68 @@
         <v>7</v>
       </c>
       <c r="X6" t="str">
-        <f>LEFT(RIGHT(R6,32),4)</f>
+        <f t="shared" si="1"/>
+        <v>0010</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="3"/>
         <v>0100</v>
       </c>
-      <c r="Y6" t="str">
-        <f>LEFT(RIGHT(R6,28),4)</f>
+      <c r="AA6" t="str">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Z6" t="str">
-        <f>LEFT(RIGHT(R6,24),4)</f>
+      <c r="AB6" t="str">
+        <f t="shared" si="5"/>
         <v>0101</v>
       </c>
-      <c r="AA6" t="str">
-        <f>LEFT(RIGHT(R6,20),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AB6" t="str">
-        <f>LEFT(RIGHT(R6,16),4)</f>
-        <v>0000</v>
-      </c>
       <c r="AC6" t="str">
-        <f>LEFT(RIGHT(R6,12),4)</f>
-        <v>0000</v>
+        <f t="shared" si="6"/>
+        <v>0010</v>
       </c>
       <c r="AD6" t="str">
-        <f>LEFT(RIGHT(R6,8),4)</f>
+        <f t="shared" si="7"/>
         <v>0001</v>
       </c>
       <c r="AE6" t="str">
-        <f>LEFT(RIGHT(R6,4),4)</f>
-        <v>0010</v>
+        <f t="shared" si="8"/>
+        <v>1100</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AI6" t="str">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AH6" t="str">
-        <f t="shared" si="3"/>
+      <c r="AJ6" t="str">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="AI6" t="str">
-        <f t="shared" si="4"/>
+      <c r="AK6" t="str">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="AJ6" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AL6" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>C</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
@@ -1470,28 +1468,28 @@
         <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>30</v>
@@ -1506,24 +1504,24 @@
         <v>20</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000010010000001001000010100</v>
+        <v>00110000001001001000001000011010</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>08481214</v>
+        <f t="shared" si="9"/>
+        <v>3024821A</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>64</v>
@@ -1532,68 +1530,68 @@
         <v>19</v>
       </c>
       <c r="X7" t="str">
-        <f>LEFT(RIGHT(R7,32),4)</f>
+        <f t="shared" si="1"/>
+        <v>0011</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="2"/>
         <v>0000</v>
       </c>
-      <c r="Y7" t="str">
-        <f>LEFT(RIGHT(R7,28),4)</f>
+      <c r="Z7" t="str">
+        <f t="shared" si="3"/>
+        <v>0010</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="Z7" t="str">
-        <f>LEFT(RIGHT(R7,24),4)</f>
-        <v>0100</v>
-      </c>
-      <c r="AA7" t="str">
-        <f>LEFT(RIGHT(R7,20),4)</f>
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="str">
-        <f>LEFT(RIGHT(R7,16),4)</f>
+      <c r="AC7" t="str">
+        <f t="shared" si="6"/>
+        <v>0010</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="7"/>
         <v>0001</v>
       </c>
-      <c r="AC7" t="str">
-        <f>LEFT(RIGHT(R7,12),4)</f>
-        <v>0010</v>
-      </c>
-      <c r="AD7" t="str">
-        <f>LEFT(RIGHT(R7,8),4)</f>
-        <v>0001</v>
-      </c>
       <c r="AE7" t="str">
-        <f>LEFT(RIGHT(R7,4),4)</f>
-        <v>0100</v>
+        <f t="shared" si="8"/>
+        <v>1010</v>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH7" t="str">
-        <f t="shared" si="3"/>
+      <c r="AI7" t="str">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AI7" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AK7" t="str">
-        <f t="shared" si="6"/>
+      <c r="AL7" t="str">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AL7" t="str">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AM7" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AN7" t="str">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>A</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>13</v>
@@ -1607,7 +1605,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>20</v>
@@ -1628,22 +1626,22 @@
         <v>20</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>30</v>
@@ -1656,11 +1654,11 @@
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000000000000001100000010010</v>
+        <v>11000000000000000000000000001010</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>48001812</v>
+        <f t="shared" si="9"/>
+        <v>C000000A</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1669,68 +1667,68 @@
         <v>8</v>
       </c>
       <c r="X8" t="str">
-        <f>LEFT(RIGHT(R8,32),4)</f>
-        <v>0100</v>
+        <f t="shared" si="1"/>
+        <v>1100</v>
       </c>
       <c r="Y8" t="str">
-        <f>LEFT(RIGHT(R8,28),4)</f>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>0000</v>
       </c>
       <c r="Z8" t="str">
-        <f>LEFT(RIGHT(R8,24),4)</f>
+        <f t="shared" si="3"/>
         <v>0000</v>
       </c>
       <c r="AA8" t="str">
-        <f>LEFT(RIGHT(R8,20),4)</f>
+        <f t="shared" si="4"/>
         <v>0000</v>
       </c>
       <c r="AB8" t="str">
-        <f>LEFT(RIGHT(R8,16),4)</f>
-        <v>0001</v>
+        <f t="shared" si="5"/>
+        <v>0000</v>
       </c>
       <c r="AC8" t="str">
-        <f>LEFT(RIGHT(R8,12),4)</f>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>0000</v>
       </c>
       <c r="AD8" t="str">
-        <f>LEFT(RIGHT(R8,8),4)</f>
-        <v>0001</v>
+        <f t="shared" si="7"/>
+        <v>0000</v>
       </c>
       <c r="AE8" t="str">
-        <f>LEFT(RIGHT(R8,4),4)</f>
-        <v>0010</v>
+        <f t="shared" si="8"/>
+        <v>1010</v>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>C</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AI8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>A</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
@@ -1743,61 +1741,29 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000001010000001100</v>
-      </c>
-      <c r="S9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>0828140C</v>
+        <v/>
+      </c>
+      <c r="S9" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1806,68 +1772,68 @@
         <v>9</v>
       </c>
       <c r="X9" t="str">
-        <f>LEFT(RIGHT(R9,32),4)</f>
-        <v>0000</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="Y9" t="str">
-        <f>LEFT(RIGHT(R9,28),4)</f>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="Z9" t="str">
-        <f>LEFT(RIGHT(R9,24),4)</f>
-        <v>0010</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AA9" t="str">
-        <f>LEFT(RIGHT(R9,20),4)</f>
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AB9" t="str">
-        <f>LEFT(RIGHT(R9,16),4)</f>
-        <v>0001</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="AC9" t="str">
-        <f>LEFT(RIGHT(R9,12),4)</f>
-        <v>0100</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="AD9" t="str">
-        <f>LEFT(RIGHT(R9,8),4)</f>
-        <v>0000</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AE9" t="str">
-        <f>LEFT(RIGHT(R9,4),4)</f>
-        <v>1100</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" t="str">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AI9" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AK9" t="str">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL9" t="str">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AM9" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
+        <v/>
+      </c>
+      <c r="AG9" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ9" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL9" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM9" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN9" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1878,63 +1844,31 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11000000000000000000000000001010</v>
-      </c>
-      <c r="S10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>C000000A</v>
+        <v/>
+      </c>
+      <c r="S10" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1943,68 +1877,68 @@
         <v>68</v>
       </c>
       <c r="X10" t="str">
-        <f>LEFT(RIGHT(R10,32),4)</f>
-        <v>1100</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="Y10" t="str">
-        <f>LEFT(RIGHT(R10,28),4)</f>
-        <v>0000</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="Z10" t="str">
-        <f>LEFT(RIGHT(R10,24),4)</f>
-        <v>0000</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AA10" t="str">
-        <f>LEFT(RIGHT(R10,20),4)</f>
-        <v>0000</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="AB10" t="str">
-        <f>LEFT(RIGHT(R10,16),4)</f>
-        <v>0000</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="AC10" t="str">
-        <f>LEFT(RIGHT(R10,12),4)</f>
-        <v>0000</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="AD10" t="str">
-        <f>LEFT(RIGHT(R10,8),4)</f>
-        <v>0000</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="AE10" t="str">
-        <f>LEFT(RIGHT(R10,4),4)</f>
-        <v>1010</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" t="str">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" t="str">
-        <f t="shared" si="9"/>
-        <v>A</v>
+        <v/>
+      </c>
+      <c r="AG10" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM10" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -2036,71 +1970,71 @@
         <v/>
       </c>
       <c r="S11" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="str">
-        <f>LEFT(RIGHT(R11,32),4)</f>
         <v/>
       </c>
       <c r="Y11" t="str">
-        <f>LEFT(RIGHT(R11,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z11" t="str">
-        <f>LEFT(RIGHT(R11,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA11" t="str">
-        <f>LEFT(RIGHT(R11,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB11" t="str">
-        <f>LEFT(RIGHT(R11,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC11" t="str">
-        <f>LEFT(RIGHT(R11,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD11" t="str">
-        <f>LEFT(RIGHT(R11,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE11" t="str">
-        <f>LEFT(RIGHT(R11,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ11" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK11" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL11" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM11" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP11" s="1" t="s">
@@ -2133,71 +2067,71 @@
         <v/>
       </c>
       <c r="S12" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="str">
-        <f>LEFT(RIGHT(R12,32),4)</f>
         <v/>
       </c>
       <c r="Y12" t="str">
-        <f>LEFT(RIGHT(R12,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z12" t="str">
-        <f>LEFT(RIGHT(R12,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA12" t="str">
-        <f>LEFT(RIGHT(R12,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB12" t="str">
-        <f>LEFT(RIGHT(R12,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC12" t="str">
-        <f>LEFT(RIGHT(R12,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD12" t="str">
-        <f>LEFT(RIGHT(R12,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE12" t="str">
-        <f>LEFT(RIGHT(R12,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK12" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM12" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN12" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP12" s="1" t="s">
@@ -2230,71 +2164,71 @@
         <v/>
       </c>
       <c r="S13" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="str">
-        <f>LEFT(RIGHT(R13,32),4)</f>
         <v/>
       </c>
       <c r="Y13" t="str">
-        <f>LEFT(RIGHT(R13,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z13" t="str">
-        <f>LEFT(RIGHT(R13,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA13" t="str">
-        <f>LEFT(RIGHT(R13,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB13" t="str">
-        <f>LEFT(RIGHT(R13,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC13" t="str">
-        <f>LEFT(RIGHT(R13,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD13" t="str">
-        <f>LEFT(RIGHT(R13,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE13" t="str">
-        <f>LEFT(RIGHT(R13,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM13" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN13" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP13" s="1" t="s">
@@ -2327,71 +2261,71 @@
         <v/>
       </c>
       <c r="S14" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="str">
-        <f>LEFT(RIGHT(R14,32),4)</f>
         <v/>
       </c>
       <c r="Y14" t="str">
-        <f>LEFT(RIGHT(R14,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z14" t="str">
-        <f>LEFT(RIGHT(R14,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA14" t="str">
-        <f>LEFT(RIGHT(R14,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB14" t="str">
-        <f>LEFT(RIGHT(R14,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC14" t="str">
-        <f>LEFT(RIGHT(R14,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD14" t="str">
-        <f>LEFT(RIGHT(R14,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE14" t="str">
-        <f>LEFT(RIGHT(R14,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ14" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL14" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN14" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP14" s="1" t="s">
@@ -2424,71 +2358,71 @@
         <v/>
       </c>
       <c r="S15" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" t="str">
-        <f>LEFT(RIGHT(R15,32),4)</f>
         <v/>
       </c>
       <c r="Y15" t="str">
-        <f>LEFT(RIGHT(R15,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z15" t="str">
-        <f>LEFT(RIGHT(R15,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA15" t="str">
-        <f>LEFT(RIGHT(R15,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB15" t="str">
-        <f>LEFT(RIGHT(R15,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC15" t="str">
-        <f>LEFT(RIGHT(R15,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" t="str">
-        <f>LEFT(RIGHT(R15,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE15" t="str">
-        <f>LEFT(RIGHT(R15,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ15" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN15" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP15" s="1" t="s">
@@ -2521,71 +2455,71 @@
         <v/>
       </c>
       <c r="S16" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X16" t="str">
-        <f>LEFT(RIGHT(R16,32),4)</f>
         <v/>
       </c>
       <c r="Y16" t="str">
-        <f>LEFT(RIGHT(R16,28),4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z16" t="str">
-        <f>LEFT(RIGHT(R16,24),4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA16" t="str">
-        <f>LEFT(RIGHT(R16,20),4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB16" t="str">
-        <f>LEFT(RIGHT(R16,16),4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC16" t="str">
-        <f>LEFT(RIGHT(R16,12),4)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" t="str">
-        <f>LEFT(RIGHT(R16,8),4)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AE16" t="str">
-        <f>LEFT(RIGHT(R16,4),4)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">
@@ -2614,10 +2548,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 H2:I16 M2:N16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 J2:L16 O2:Q16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
@@ -2630,6 +2564,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F4 I2:K4 N2:P4">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C4 G2:H4 L2:M4">
+      <formula1>3</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+      <formula1>5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2711,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -2876,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="98">
   <si>
     <t>0001</t>
   </si>
@@ -298,6 +298,30 @@
   </si>
   <si>
     <t>11000</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -686,7 +710,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S2" sqref="S2:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +825,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>30</v>
@@ -813,30 +837,30 @@
         <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="3" t="str">
         <f t="shared" ref="R2:R16" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
-        <v>01001000001100000000000000001010</v>
+        <v>01001000001100101111001000000000</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
-        <v>4830000A</v>
+        <v>4832F200</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>59</v>
@@ -858,15 +882,15 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA16" si="4">LEFT(RIGHT(R2,20),4)</f>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB16" si="5">LEFT(RIGHT(R2,16),4)</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="AC2" t="str">
         <f t="shared" ref="AC2:AC16" si="6">LEFT(RIGHT(R2,12),4)</f>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD2" t="str">
         <f t="shared" ref="AD2:AD16" si="7">LEFT(RIGHT(R2,8),4)</f>
@@ -874,7 +898,7 @@
       </c>
       <c r="AE2" t="str">
         <f t="shared" ref="AE2:AE16" si="8">LEFT(RIGHT(R2,4),4)</f>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AG2" t="str">
         <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
@@ -890,15 +914,15 @@
       </c>
       <c r="AJ2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="AL2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
@@ -906,7 +930,7 @@
       </c>
       <c r="AN2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>69</v>
@@ -920,28 +944,28 @@
         <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>30</v>
@@ -950,13 +974,13 @@
         <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
@@ -969,11 +993,11 @@
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010001100001000001100</v>
+        <v>00010000111001000000000000010100</v>
       </c>
       <c r="S3" s="4" t="str">
         <f t="shared" ref="S3:S16" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>0828C20C</v>
+        <v>10E40014</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -983,67 +1007,67 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1110</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="5"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="AC3" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AD3" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" ref="AG3:AG16" si="10">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="str">
         <f t="shared" ref="AH3:AH16" si="11">INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="str">
         <f t="shared" ref="AI3:AI16" si="12">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
-        <v>2</v>
+        <v>E</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="13">INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK3" t="str">
         <f t="shared" ref="AK3:AK16" si="14">INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ref="AL3:AL16" si="15">INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="str">
         <f t="shared" ref="AM3:AM16" si="16">INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN16" si="17">INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>0</v>
@@ -1057,7 +1081,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
@@ -1066,10 +1090,10 @@
         <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1078,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>30</v>
@@ -1087,7 +1111,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>20</v>
@@ -1096,21 +1120,21 @@
         <v>39</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000010010000001001000010100</v>
+        <v>01001000010100000000000000010010</v>
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>08481214</v>
+        <v>48500012</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1120,7 +1144,7 @@
       </c>
       <c r="X4" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="2"/>
@@ -1128,19 +1152,19 @@
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="7"/>
@@ -1148,11 +1172,11 @@
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH4" t="str">
         <f t="shared" si="11"/>
@@ -1160,19 +1184,19 @@
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="16"/>
@@ -1180,7 +1204,7 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
@@ -1203,10 +1227,10 @@
         <v>39</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>30</v>
@@ -1215,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>30</v>
@@ -1224,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>20</v>
@@ -1233,21 +1257,21 @@
         <v>39</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000010010</v>
+        <v>01001000010010000001001000010100</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>48500012</v>
+        <v>48481214</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>62</v>
@@ -1265,19 +1289,19 @@
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="7"/>
@@ -1285,7 +1309,7 @@
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="10"/>
@@ -1297,19 +1321,19 @@
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="16"/>
@@ -1317,7 +1341,7 @@
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
@@ -1331,60 +1355,60 @@
         <v>40</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00101000010010000101001000011100</v>
+        <v>01001000000000000001100000010010</v>
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>2848521C</v>
+        <v>48001812</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>63</v>
@@ -1394,7 +1418,7 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" si="1"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="2"/>
@@ -1402,19 +1426,19 @@
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0001</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="7"/>
@@ -1422,11 +1446,11 @@
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="11"/>
@@ -1434,19 +1458,19 @@
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" si="16"/>
@@ -1454,7 +1478,7 @@
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="17"/>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
@@ -1468,60 +1492,60 @@
         <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00110000001001001000001000011010</v>
+        <v>01001000010100000000001000001100</v>
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>3024821A</v>
+        <v>4850020C</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>64</v>
@@ -1531,23 +1555,23 @@
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
@@ -1555,31 +1579,31 @@
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="str">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="15"/>
@@ -1587,11 +1611,11 @@
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>13</v>
@@ -1604,61 +1628,61 @@
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11000000000000000000000000001010</v>
+        <v>00001000001010000001010000001100</v>
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>C000000A</v>
+        <v>0828140C</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1668,27 +1692,27 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
@@ -1696,31 +1720,31 @@
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="10"/>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="16"/>
@@ -1728,7 +1752,7 @@
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
@@ -1741,29 +1765,61 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S9" s="4" t="e">
+        <v>00001000010010000001001000010100</v>
+      </c>
+      <c r="S9" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>08481214</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1773,67 +1829,67 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG9" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AG9" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ9" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ9" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK9" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL9" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM9" t="e">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN9" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1846,29 +1902,61 @@
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S10" s="4" t="e">
+        <v>01001000010100000000000000010010</v>
+      </c>
+      <c r="S10" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>48500012</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1878,67 +1966,67 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0101</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG10" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AG10" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH10" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ10" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -1948,94 +2036,128 @@
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S11" s="4" t="e">
+        <v>01001000001100000000000000001010</v>
+      </c>
+      <c r="S11" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>4830000A</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG11" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG11" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH11" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ11" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2045,94 +2167,128 @@
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S12" s="4" t="e">
+        <v>00100000001010000111001000011100</v>
+      </c>
+      <c r="S12" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>2028721C</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0111</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG12" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AG12" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH12" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK12" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL12" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>C</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>71</v>
@@ -2142,94 +2298,128 @@
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S13" s="4" t="e">
+        <v>00110001000001001110001000011010</v>
+      </c>
+      <c r="S13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>3104E21A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1110</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG13" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG13" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH13" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK13" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" t="e">
+        <v>E</v>
+      </c>
+      <c r="AL13" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM13" t="e">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN13" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2239,94 +2429,128 @@
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="A14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S14" s="4" t="e">
+        <v>01001000011100000000000000010010</v>
+      </c>
+      <c r="S14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>48700012</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0111</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG14" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AG14" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH14" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ14" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
@@ -2336,94 +2560,128 @@
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S15" s="4" t="e">
+        <v>01001000001010000001100000000000</v>
+      </c>
+      <c r="S15" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>48281800</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG15" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AG15" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ15" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM15" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>73</v>
@@ -2433,94 +2691,128 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S16" s="4" t="e">
+        <v>11000000011010000001010000000000</v>
+      </c>
+      <c r="S16" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>C0681400</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0110</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG16" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AG16" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH16" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK16" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM16" t="e">
+        <v>4</v>
+      </c>
+      <c r="AM16" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>74</v>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="97">
   <si>
     <t>0001</t>
   </si>
@@ -300,9 +300,6 @@
     <t>11000</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>001010</t>
   </si>
   <si>
@@ -321,7 +318,7 @@
     <t>001111</t>
   </si>
   <si>
-    <t>110</t>
+    <t>10111</t>
   </si>
 </sst>
 </file>
@@ -710,7 +707,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S16"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>20</v>
@@ -825,19 +822,19 @@
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>20</v>
@@ -856,11 +853,11 @@
       </c>
       <c r="R2" s="3" t="str">
         <f t="shared" ref="R2:R16" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
-        <v>01001000001100101111001000000000</v>
+        <v>10111000001100000001100000000000</v>
       </c>
       <c r="S2" s="4" t="str">
         <f>AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
-        <v>4832F200</v>
+        <v>B8301800</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>59</v>
@@ -870,7 +867,7 @@
       </c>
       <c r="X2" t="str">
         <f t="shared" ref="X2:X16" si="1">LEFT(RIGHT(R2,32),4)</f>
-        <v>0100</v>
+        <v>1011</v>
       </c>
       <c r="Y2" t="str">
         <f t="shared" ref="Y2:Y16" si="2">LEFT(RIGHT(R2,28),4)</f>
@@ -882,15 +879,15 @@
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA16" si="4">LEFT(RIGHT(R2,20),4)</f>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB16" si="5">LEFT(RIGHT(R2,16),4)</f>
-        <v>1111</v>
+        <v>0001</v>
       </c>
       <c r="AC2" t="str">
         <f t="shared" ref="AC2:AC16" si="6">LEFT(RIGHT(R2,12),4)</f>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="str">
         <f t="shared" ref="AD2:AD16" si="7">LEFT(RIGHT(R2,8),4)</f>
@@ -902,7 +899,7 @@
       </c>
       <c r="AG2" t="str">
         <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
-        <v>4</v>
+        <v>B</v>
       </c>
       <c r="AH2" t="str">
         <f>INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
@@ -914,15 +911,15 @@
       </c>
       <c r="AJ2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
-        <v>F</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
@@ -950,16 +947,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>20</v>
@@ -980,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
@@ -993,11 +990,11 @@
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00010000111001000000000000010100</v>
+        <v>00010000001010000000000000001100</v>
       </c>
       <c r="S3" s="4" t="str">
         <f t="shared" ref="S3:S16" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>10E40014</v>
+        <v>1028000C</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -1015,11 +1012,11 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>0010</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="5"/>
@@ -1031,11 +1028,11 @@
       </c>
       <c r="AD3" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" ref="AG3:AG16" si="10">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
@@ -1047,11 +1044,11 @@
       </c>
       <c r="AI3" t="str">
         <f t="shared" ref="AI3:AI16" si="12">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
-        <v>E</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" ref="AJ3:AJ16" si="13">INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="str">
         <f t="shared" ref="AK3:AK16" si="14">INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
@@ -1063,11 +1060,11 @@
       </c>
       <c r="AM3" t="str">
         <f t="shared" ref="AM3:AM16" si="16">INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN16" si="17">INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>0</v>
@@ -1087,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>31</v>
@@ -1117,7 +1114,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>30</v>
@@ -1130,11 +1127,11 @@
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000010010</v>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>48500012</v>
+        <v>4830000A</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1152,7 +1149,7 @@
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
@@ -1168,11 +1165,11 @@
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="10"/>
@@ -1184,7 +1181,7 @@
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="13"/>
@@ -1200,11 +1197,11 @@
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
@@ -1218,13 +1215,13 @@
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
@@ -1254,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>31</v>
@@ -1267,11 +1264,11 @@
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010010000001001000010100</v>
+        <v>00001000001010000001001000001100</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>48481214</v>
+        <v>0828120C</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>62</v>
@@ -1281,7 +1278,7 @@
       </c>
       <c r="X5" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="2"/>
@@ -1289,7 +1286,7 @@
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="4"/>
@@ -1305,15 +1302,15 @@
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="11"/>
@@ -1321,7 +1318,7 @@
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="13"/>
@@ -1337,11 +1334,11 @@
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
@@ -1361,10 +1358,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>30</v>
@@ -1376,22 +1373,22 @@
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>30</v>
@@ -1404,11 +1401,11 @@
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000000000000001100000010010</v>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>48001812</v>
+        <v>4830000A</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>63</v>
@@ -1426,7 +1423,7 @@
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="4"/>
@@ -1434,19 +1431,19 @@
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="10"/>
@@ -1458,7 +1455,7 @@
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="13"/>
@@ -1466,19 +1463,19 @@
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
@@ -1492,19 +1489,19 @@
         <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>30</v>
@@ -1513,16 +1510,16 @@
         <v>20</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>20</v>
@@ -1541,11 +1538,11 @@
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000001000001100</v>
+        <v>00001000001010000001010000001100</v>
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>4850020C</v>
+        <v>0828140C</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>64</v>
@@ -1555,7 +1552,7 @@
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="2"/>
@@ -1563,19 +1560,19 @@
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
@@ -1587,7 +1584,7 @@
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="11"/>
@@ -1595,19 +1592,19 @@
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="16"/>
@@ -1629,19 +1626,19 @@
         <v>42</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>30</v>
@@ -1650,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>30</v>
@@ -1668,21 +1665,21 @@
         <v>18</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000001010000001100</v>
+        <v>11000000000000000000000000001010</v>
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>0828140C</v>
+        <v>C000000A</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1692,27 +1689,27 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
@@ -1720,31 +1717,31 @@
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="16"/>
@@ -1752,7 +1749,7 @@
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="17"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
@@ -1765,61 +1762,29 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000010010000001001000010100</v>
-      </c>
-      <c r="S9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S9" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>08481214</v>
+        <v>#N/A</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1829,67 +1794,67 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
-      </c>
-      <c r="AG9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="e">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AJ9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ9" t="e">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="e">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL9" t="e">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM9" t="e">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN9" t="e">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1902,61 +1867,29 @@
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000010010</v>
-      </c>
-      <c r="S10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S10" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>48500012</v>
+        <v>#N/A</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1966,67 +1899,67 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v/>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AG10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="e">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AH10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AJ10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM10" t="e">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" t="e">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -2037,127 +1970,95 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
-      </c>
-      <c r="S11" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S11" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>4830000A</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="e">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AH11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI11" t="e">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AJ11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ11" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL11" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM11" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN11" t="e">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2168,127 +2069,95 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00100000001010000111001000011100</v>
-      </c>
-      <c r="S12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S12" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>2028721C</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v>0111</v>
+        <v/>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="AG12" t="str">
+        <v/>
+      </c>
+      <c r="AG12" t="e">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AH12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" t="e">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="e">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" t="e">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AL12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL12" t="e">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM12" t="e">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" t="e">
         <f t="shared" si="17"/>
-        <v>C</v>
+        <v>#N/A</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>71</v>
@@ -2299,127 +2168,95 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00110001000001001110001000011010</v>
-      </c>
-      <c r="S13" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S13" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>3104E21A</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>1110</v>
+        <v/>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG13" t="str">
+        <v/>
+      </c>
+      <c r="AG13" t="e">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AH13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" t="e">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" t="e">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AK13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" t="e">
         <f t="shared" si="14"/>
-        <v>E</v>
-      </c>
-      <c r="AL13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" t="e">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM13" t="e">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN13" t="e">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2430,127 +2267,95 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000011100000000000000010010</v>
-      </c>
-      <c r="S14" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S14" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>48700012</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
-        <v>0111</v>
+        <v/>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AG14" t="str">
+        <v/>
+      </c>
+      <c r="AG14" t="e">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AH14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" t="e">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AJ14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM14" t="e">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN14" t="e">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
@@ -2561,127 +2366,95 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001010000001100000000000</v>
-      </c>
-      <c r="S15" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S15" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>48281800</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AG15" t="str">
+        <v/>
+      </c>
+      <c r="AG15" t="e">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AH15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" t="e">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="e">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="e">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" t="e">
         <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="AM15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM15" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN15" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>73</v>
@@ -2692,127 +2465,95 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11000000011010000001010000000000</v>
-      </c>
-      <c r="S16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S16" s="4" t="e">
         <f t="shared" si="9"/>
-        <v>C0681400</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v/>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v/>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AG16" t="str">
+        <v/>
+      </c>
+      <c r="AG16" t="e">
         <f t="shared" si="10"/>
-        <v>C</v>
-      </c>
-      <c r="AH16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI16" t="e">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AJ16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" t="e">
         <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK16" t="e">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL16" t="e">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AM16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>74</v>
@@ -2840,10 +2581,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 H2:I16 M2:N16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 J2:L16 O2:Q16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="98">
   <si>
     <t>0001</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>10111</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="S2" sqref="S2:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1629,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>20</v>
@@ -1647,10 +1650,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>30</v>
@@ -1675,11 +1678,11 @@
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11000000000000000000000000001010</v>
+        <v>01001000000000000001100000001010</v>
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>C000000A</v>
+        <v>4800180A</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1689,11 +1692,11 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
@@ -1705,11 +1708,11 @@
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
@@ -1721,11 +1724,11 @@
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="10"/>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="12"/>
@@ -1737,11 +1740,11 @@
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="16"/>
@@ -1762,29 +1765,61 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S9" s="4" t="e">
+        <v>11000000000000000000000000001010</v>
+      </c>
+      <c r="S9" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>C000000A</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1794,67 +1829,67 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG9" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG9" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH9" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1867,29 +1902,61 @@
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="B10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S10" s="4" t="e">
+        <v>00110000111001000000000000000000</v>
+      </c>
+      <c r="S10" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>30E40000</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1899,67 +1966,67 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1110</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG10" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AG10" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" t="e">
+        <v>E</v>
+      </c>
+      <c r="AJ10" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -2581,10 +2648,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 H2:I16 M2:N16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 J2:L16 O2:Q16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="99">
   <si>
     <t>0001</t>
   </si>
@@ -321,17 +321,27 @@
     <t>10111</t>
   </si>
   <si>
-    <t>111</t>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>10001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,6 +437,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,7 +728,7 @@
   <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S10"/>
+      <selection activeCell="S2" sqref="S2:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +962,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
@@ -993,11 +1011,11 @@
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00010000001010000000000000001100</v>
+        <v>01001000001010000000000000001100</v>
       </c>
       <c r="S3" s="4" t="str">
         <f t="shared" ref="S3:S16" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>1028000C</v>
+        <v>4828000C</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -1007,11 +1025,11 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
@@ -1039,11 +1057,11 @@
       </c>
       <c r="AG3" t="str">
         <f t="shared" ref="AG3:AG16" si="10">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="str">
         <f t="shared" ref="AH3:AH16" si="11">INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="str">
         <f t="shared" ref="AI3:AI16" si="12">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
@@ -1087,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>31</v>
@@ -1130,11 +1148,11 @@
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
+        <v>01001000010100000000000000001010</v>
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>4830000A</v>
+        <v>4850000A</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1152,7 +1170,7 @@
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
@@ -1184,7 +1202,7 @@
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="13"/>
@@ -1217,61 +1235,61 @@
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+      <c r="B5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000001001000001100</v>
+        <v>00010000001010000000000000001100</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>0828120C</v>
+        <v>1028000C</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>62</v>
@@ -1281,11 +1299,11 @@
       </c>
       <c r="X5" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
@@ -1297,11 +1315,11 @@
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="7"/>
@@ -1313,11 +1331,11 @@
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="12"/>
@@ -1329,11 +1347,11 @@
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="16"/>
@@ -1354,52 +1372,52 @@
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="3" t="str">
@@ -1491,61 +1509,61 @@
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="C7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000001010000001100</v>
+        <v>00001000001010000001001000001100</v>
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>0828140C</v>
+        <v>0828120C</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>64</v>
@@ -1575,7 +1593,7 @@
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
@@ -1607,7 +1625,7 @@
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="16"/>
@@ -1628,61 +1646,61 @@
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="C8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000000000000001100000001010</v>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>4800180A</v>
+        <v>4830000A</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1700,7 +1718,7 @@
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
@@ -1708,11 +1726,11 @@
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
@@ -1732,7 +1750,7 @@
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="13"/>
@@ -1740,11 +1758,11 @@
       </c>
       <c r="AK8" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="16"/>
@@ -1765,61 +1783,61 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+      <c r="B9" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11000000000000000000000000001010</v>
+        <v>00000000000000000000000000000000</v>
       </c>
       <c r="S9" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>C000000A</v>
+        <v>00000000</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1829,7 +1847,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
@@ -1857,11 +1875,11 @@
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="10"/>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="11"/>
@@ -1889,7 +1907,7 @@
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="17"/>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1902,61 +1920,61 @@
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
+      <c r="B10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00110000111001000000000000000000</v>
+        <v>10001000001010000001010000001100</v>
       </c>
       <c r="S10" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>30E40000</v>
+        <v>8828140C</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1966,27 +1984,27 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>0010</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
@@ -1994,31 +2012,31 @@
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="str">
         <f t="shared" si="12"/>
-        <v>E</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM10" t="str">
         <f t="shared" si="16"/>
@@ -2026,7 +2044,7 @@
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -2039,93 +2057,125 @@
       <c r="A11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S11" s="4" t="e">
+        <v>01001000000000000001100000001010</v>
+      </c>
+      <c r="S11" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>4800180A</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG11" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG11" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH11" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AM11" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2138,93 +2188,125 @@
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="B12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S12" s="4" t="e">
+        <v>00011000010010000001010000010100</v>
+      </c>
+      <c r="S12" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>18481414</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AG12" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ12" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK12" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>71</v>
@@ -2237,93 +2319,125 @@
       <c r="A13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="B13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S13" s="4" t="e">
+        <v>00110001001001001101001000010010</v>
+      </c>
+      <c r="S13" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>3124D212</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1101</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG13" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AG13" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH13" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ13" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK13" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" t="e">
+        <v>D</v>
+      </c>
+      <c r="AL13" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM13" t="e">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN13" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2336,93 +2450,125 @@
       <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="B14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S14" s="4" t="e">
+        <v>11000000000000000000000000001010</v>
+      </c>
+      <c r="S14" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <v>C000000A</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG14" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG14" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH14" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
@@ -2435,22 +2581,22 @@
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
       <c r="R15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2648,10 +2794,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 H2:I16 M2:N16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 J2:L16 O2:Q16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="99">
   <si>
     <t>0001</t>
   </si>
@@ -321,10 +321,10 @@
     <t>10111</t>
   </si>
   <si>
-    <t>00000</t>
-  </si>
-  <si>
     <t>10001</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S14"/>
+      <selection activeCell="S2" sqref="S2:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,35 +1056,35 @@
         <v>1100</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3:AG16" si="10">INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" ref="AH3:AH16" si="11">INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" ref="AI3:AI16" si="12">INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
         <v>2</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" ref="AJ3:AJ16" si="13">INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" ref="AK3:AK16" si="14">INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" ref="AL3:AL16" si="15">INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" ref="AM3:AM16" si="16">INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" ref="AN3:AN16" si="17">INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -1193,35 +1193,35 @@
         <v>1010</v>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X4,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y4,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z4,AP:AP,0))</f>
         <v>5</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE4,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP4" s="1" t="s">
@@ -1330,35 +1330,35 @@
         <v>1100</v>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X5,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AI5" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z5,AP:AP,0))</f>
         <v>2</v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA5,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK5" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL5" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM5" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN5" t="str">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE5,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AP5" s="1" t="s">
@@ -1467,35 +1467,35 @@
         <v>1010</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X6,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y6,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI6" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z6,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE6,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP6" s="1" t="s">
@@ -1604,35 +1604,35 @@
         <v>1100</v>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X7,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AH7" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y7,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI7" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z7,AP:AP,0))</f>
         <v>2</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA7,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK7" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB7,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL7" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC7,AP:AP,0))</f>
         <v>2</v>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD7,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE7,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AP7" s="1" t="s">
@@ -1741,35 +1741,35 @@
         <v>1010</v>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X8,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y8,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI8" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z8,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE8,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP8" s="1" t="s">
@@ -1790,13 +1790,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>30</v>
@@ -1805,13 +1805,13 @@
         <v>20</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>30</v>
@@ -1820,10 +1820,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>30</v>
@@ -1832,12 +1832,12 @@
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00000000000000000000000000000000</v>
+        <f t="shared" ref="R9:R15" si="10">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
+        <v>10001000001010000001010000001100</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>00000000</v>
+        <f t="shared" ref="S9:S15" si="11">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
+        <v>8828140C</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1847,27 +1847,27 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
@@ -1875,39 +1875,39 @@
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(X9,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AH9" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(Y9,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AI9" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(Z9,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AA9,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AK9" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AB9,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AL9" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AC9,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AM9" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD9,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN9" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AE9,AP:AP,0))</f>
+        <v>C</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
@@ -1921,19 +1921,19 @@
         <v>88</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>30</v>
@@ -1945,10 +1945,10 @@
         <v>18</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>30</v>
@@ -1960,21 +1960,21 @@
         <v>18</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>10001000001010000001010000001100</v>
+        <f t="shared" si="10"/>
+        <v>01001000000000000001100000001010</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>8828140C</v>
+        <f t="shared" si="11"/>
+        <v>4800180A</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
@@ -1992,11 +1992,11 @@
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
@@ -2012,39 +2012,39 @@
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X10,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AH10" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y10,AP:AP,0))</f>
         <v>8</v>
       </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="11"/>
+      <c r="AI10" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z10,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA10,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB10,AP:AP,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC10,AP:AP,0))</f>
         <v>8</v>
       </c>
-      <c r="AI10" t="str">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK10" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" t="str">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
       <c r="AM10" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD10,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN10" t="str">
-        <f t="shared" si="17"/>
-        <v>C</v>
+        <f>INDEX(AQ:AQ,MATCH(AE10,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
@@ -2058,13 +2058,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>30</v>
@@ -2073,19 +2073,19 @@
         <v>30</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>30</v>
@@ -2094,28 +2094,28 @@
         <v>20</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>01001000000000000001100000001010</v>
+        <f t="shared" si="10"/>
+        <v>00001000001001000011010000011100</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>4800180A</v>
+        <f t="shared" si="11"/>
+        <v>0824341C</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
@@ -2123,59 +2123,59 @@
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X11,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y11,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AI11" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z11,AP:AP,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA11,AP:AP,0))</f>
         <v>4</v>
       </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI11" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="AK11" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB11,AP:AP,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AL11" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC11,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AM11" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AD11,AP:AP,0))</f>
         <v>1</v>
       </c>
-      <c r="AL11" t="str">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="AM11" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AN11" t="str">
-        <f t="shared" si="17"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE11,AP:AP,0))</f>
+        <v>C</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2189,19 +2189,19 @@
         <v>91</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>30</v>
@@ -2210,13 +2210,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>30</v>
@@ -2225,28 +2225,28 @@
         <v>20</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00011000010010000001010000010100</v>
+        <f t="shared" si="10"/>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>18481414</v>
+        <f t="shared" si="11"/>
+        <v>4800381A</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
@@ -2254,19 +2254,19 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
@@ -2274,39 +2274,39 @@
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X12,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AH12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y12,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AI12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z12,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA12,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB12,AP:AP,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AL12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC12,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AM12" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AD12,AP:AP,0))</f>
         <v>1</v>
       </c>
-      <c r="AH12" t="str">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AI12" t="str">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AJ12" t="str">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AK12" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL12" t="str">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AM12" t="str">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="AN12" t="str">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(AE12,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>71</v>
@@ -2320,13 +2320,13 @@
         <v>92</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>30</v>
@@ -2335,28 +2335,28 @@
         <v>30</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>20</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O13" s="25" t="s">
         <v>30</v>
@@ -2368,36 +2368,36 @@
         <v>30</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>00110001001001001101001000010010</v>
+        <f t="shared" si="10"/>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>3124D212</v>
+        <f t="shared" si="11"/>
+        <v>4800381A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
-        <v>0001</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>1101</v>
+        <v>0011</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
@@ -2405,39 +2405,39 @@
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X13,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AH13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y13,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AI13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z13,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA13,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB13,AP:AP,0))</f>
         <v>3</v>
       </c>
-      <c r="AH13" t="str">
-        <f t="shared" si="11"/>
+      <c r="AL13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC13,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AM13" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AD13,AP:AP,0))</f>
         <v>1</v>
       </c>
-      <c r="AI13" t="str">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AK13" t="str">
-        <f t="shared" si="14"/>
-        <v>D</v>
-      </c>
-      <c r="AL13" t="str">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM13" t="str">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="AN13" t="str">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(AE13,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2450,69 +2450,69 @@
       <c r="A14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="21" t="s">
+      <c r="B14" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>11000000000000000000000000001010</v>
+        <f t="shared" si="10"/>
+        <v>00110001000001001110001000010010</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>C000000A</v>
+        <f t="shared" si="11"/>
+        <v>3104E212</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0011</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
@@ -2520,55 +2520,55 @@
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" si="10"/>
-        <v>C</v>
+        <f>INDEX(AQ:AQ,MATCH(X14,AP:AP,0))</f>
+        <v>3</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(Y14,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AI14" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z14,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AJ14" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AA14,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AK14" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AB14,AP:AP,0))</f>
+        <v>E</v>
       </c>
       <c r="AL14" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AC14,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AM14" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AD14,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AN14" t="str">
-        <f t="shared" si="17"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE14,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
@@ -2581,93 +2581,125 @@
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="B15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="R15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S15" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
+        <f t="shared" si="10"/>
+        <v>11000000000000000011010000001010</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>C000340A</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG15" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>1010</v>
+      </c>
+      <c r="AG15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(X15,AP:AP,0))</f>
+        <v>C</v>
+      </c>
+      <c r="AH15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y15,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z15,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA15,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB15,AP:AP,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AL15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC15,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AM15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AD15,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AE15,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>73</v>
@@ -2680,30 +2712,24 @@
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S16" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2737,35 +2763,35 @@
         <v/>
       </c>
       <c r="AG16" t="e">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AH16" t="e">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Y16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AI16" t="e">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(Z16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AK16" t="e">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f t="shared" si="17"/>
+        <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">
@@ -2783,21 +2809,21 @@
         <v>78</v>
       </c>
     </row>
+    <row r="18" spans="18:43" x14ac:dyDescent="0.25">
+      <c r="V18" s="5"/>
+    </row>
     <row r="19" spans="18:43" x14ac:dyDescent="0.25">
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="18:43" x14ac:dyDescent="0.25">
-      <c r="R20" s="1"/>
+      <c r="R19" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 H2:I16 M2:N16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 M2:N16 H2:I16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 J2:L16 O2:Q16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 O2:Q16 J2:L16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="R2" s="3" t="str">
-        <f t="shared" ref="R2:R16" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
+        <f t="shared" ref="R2:R8" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
         <v>10111000001100000001100000000000</v>
       </c>
       <c r="S2" s="4" t="str">
@@ -919,35 +919,35 @@
         <v>0000</v>
       </c>
       <c r="AG2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
+        <f t="shared" ref="AG2:AG16" si="9">INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
         <v>B</v>
       </c>
       <c r="AH2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
+        <f t="shared" ref="AH2:AH16" si="10">INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
+        <f t="shared" ref="AI2:AI16" si="11">INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AJ2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
+        <f t="shared" ref="AJ2:AJ16" si="12">INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
+        <f t="shared" ref="AK2:AK16" si="13">INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
+        <f t="shared" ref="AL2:AL16" si="14">INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AM2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
+        <f t="shared" ref="AM2:AM16" si="15">INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
+        <f t="shared" ref="AN2:AN16" si="16">INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
@@ -1014,7 +1014,7 @@
         <v>01001000001010000000000000001100</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S16" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
+        <f t="shared" ref="S3:S8" si="17">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
         <v>4828000C</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1056,35 +1056,35 @@
         <v>1100</v>
       </c>
       <c r="AG3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -1151,7 +1151,7 @@
         <v>01001000010100000000000000001010</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4850000A</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -1193,35 +1193,35 @@
         <v>1010</v>
       </c>
       <c r="AG4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X4,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y4,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z4,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AJ4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA4,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB4,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC4,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD4,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE4,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP4" s="1" t="s">
@@ -1288,7 +1288,7 @@
         <v>00010000001010000000000000001100</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1028000C</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1330,35 +1330,35 @@
         <v>1100</v>
       </c>
       <c r="AG5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X5,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y5,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z5,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA5,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB5,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC5,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD5,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE5,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP5" s="1" t="s">
@@ -1425,7 +1425,7 @@
         <v>01001000001100000000000000001010</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4830000A</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1467,35 +1467,35 @@
         <v>1010</v>
       </c>
       <c r="AG6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X6,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y6,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z6,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AJ6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA6,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB6,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC6,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD6,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE6,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP6" s="1" t="s">
@@ -1562,7 +1562,7 @@
         <v>00001000001010000001001000001100</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0828120C</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1604,35 +1604,35 @@
         <v>1100</v>
       </c>
       <c r="AG7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X7,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y7,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z7,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA7,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB7,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC7,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AM7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD7,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE7,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP7" s="1" t="s">
@@ -1699,7 +1699,7 @@
         <v>01001000001100000000000000001010</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4830000A</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1741,35 +1741,35 @@
         <v>1010</v>
       </c>
       <c r="AG8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X8,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y8,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z8,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AJ8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA8,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB8,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC8,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD8,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE8,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP8" s="1" t="s">
@@ -1832,11 +1832,11 @@
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f t="shared" ref="R9:R15" si="10">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
+        <f t="shared" ref="R9:R15" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
         <v>10001000001010000001010000001100</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" ref="S9:S15" si="11">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
+        <f t="shared" ref="S9:S15" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
         <v>8828140C</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -1878,35 +1878,35 @@
         <v>1100</v>
       </c>
       <c r="AG9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X9,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AH9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y9,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z9,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA9,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB9,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC9,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AM9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD9,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE9,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP9" s="1" t="s">
@@ -1969,11 +1969,11 @@
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>01001000000000000001100000001010</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4800180A</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -2015,35 +2015,35 @@
         <v>1010</v>
       </c>
       <c r="AG10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X10,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y10,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z10,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA10,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB10,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC10,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AM10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD10,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE10,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP10" s="1" t="s">
@@ -2064,31 +2064,31 @@
         <v>20</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>20</v>
@@ -2106,12 +2106,12 @@
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>00001000001001000011010000011100</v>
+        <f t="shared" si="18"/>
+        <v>00001000011010000001001000011100</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>0824341C</v>
+        <f t="shared" si="19"/>
+        <v>0868121C</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
@@ -2123,19 +2123,19 @@
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
@@ -2146,35 +2146,35 @@
         <v>1100</v>
       </c>
       <c r="AG11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X11,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y11,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z11,AP:AP,0))</f>
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="AJ11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA11,AP:AP,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB11,AP:AP,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC11,AP:AP,0))</f>
-        <v>4</v>
-      </c>
       <c r="AM11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD11,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE11,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP11" s="1" t="s">
@@ -2195,10 +2195,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>30</v>
@@ -2237,12 +2237,12 @@
         <v>30</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>01001000000000000011100000011010</v>
+        <f t="shared" si="18"/>
+        <v>01001000011100000011100000011010</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>4800381A</v>
+        <f t="shared" si="19"/>
+        <v>4870381A</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
@@ -2277,35 +2277,35 @@
         <v>1010</v>
       </c>
       <c r="AG12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X12,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y12,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z12,AP:AP,0))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="AJ12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA12,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB12,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AL12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC12,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AM12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD12,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE12,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP12" s="1" t="s">
@@ -2320,19 +2320,19 @@
         <v>92</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>30</v>
@@ -2341,13 +2341,13 @@
         <v>20</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>30</v>
@@ -2356,28 +2356,28 @@
         <v>20</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>01001000000000000011100000011010</v>
+        <f t="shared" si="18"/>
+        <v>00011000011010000001010000010100</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>4800381A</v>
+        <f t="shared" si="19"/>
+        <v>18681414</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0001</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
@@ -2385,19 +2385,19 @@
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
@@ -2405,39 +2405,39 @@
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0100</v>
       </c>
       <c r="AG13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X13,AP:AP,0))</f>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AH13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y13,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z13,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA13,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB13,AP:AP,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC13,AP:AP,0))</f>
-        <v>8</v>
-      </c>
       <c r="AM13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD13,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE13,AP:AP,0))</f>
-        <v>A</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2499,11 +2499,11 @@
         <v>30</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>00110001000001001110001000010010</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>3104E212</v>
       </c>
       <c r="X14" t="str">
@@ -2539,35 +2539,35 @@
         <v>0010</v>
       </c>
       <c r="AG14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X14,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AH14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y14,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AI14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z14,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA14,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB14,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>E</v>
       </c>
       <c r="AL14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC14,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AM14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD14,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE14,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AP14" s="1" t="s">
@@ -2630,11 +2630,11 @@
         <v>30</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>11000000000000000011010000001010</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>C000340A</v>
       </c>
       <c r="X15" t="str">
@@ -2670,35 +2670,35 @@
         <v>1010</v>
       </c>
       <c r="AG15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X15,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AH15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y15,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z15,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA15,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB15,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AL15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC15,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AM15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD15,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE15,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP15" s="1" t="s">
@@ -2763,35 +2763,35 @@
         <v/>
       </c>
       <c r="AG16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AH16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(Y16,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="AI16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(Z16,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="AK16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="S2" sqref="S2:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,10 +2210,10 @@
         <v>20</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>30</v>
@@ -2238,11 +2238,11 @@
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>01001000011100000011100000011010</v>
+        <v>01001000011100000000000000011010</v>
       </c>
       <c r="S12" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>4870381A</v>
+        <v>4870001A</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
@@ -2262,11 +2262,11 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="AK12" t="str">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="str">
         <f t="shared" si="15"/>
@@ -2588,13 +2588,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>30</v>
@@ -2603,13 +2603,13 @@
         <v>20</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>30</v>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>11000000000000000011010000001010</v>
+        <v>11000000011010000000000000001010</v>
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>C000340A</v>
+        <v>C068000A</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
@@ -2647,19 +2647,19 @@
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
@@ -2679,19 +2679,19 @@
       </c>
       <c r="AI15" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="str">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="str">
         <f t="shared" si="15"/>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="98">
   <si>
     <t>0001</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>10111</t>
-  </si>
-  <si>
-    <t>10001</t>
   </si>
   <si>
     <t>110</t>
@@ -1784,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>20</v>
@@ -1833,11 +1830,11 @@
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" ref="R9:R15" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
-        <v>10001000001010000001010000001100</v>
+        <v>00001000001010000001010000001100</v>
       </c>
       <c r="S9" s="4" t="str">
         <f t="shared" ref="S9:S15" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
-        <v>8828140C</v>
+        <v>0828140C</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1847,7 +1844,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
@@ -1879,7 +1876,7 @@
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="10"/>
@@ -2472,7 +2469,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>30</v>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -2054,65 +2054,65 @@
       <c r="A11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="21" t="s">
+      <c r="E11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>00001000011010000001001000011100</v>
+        <v>00011000011010000001010000010100</v>
       </c>
       <c r="S11" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0868121C</v>
+        <v>18681414</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="10"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="AL11" t="str">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="str">
         <f t="shared" si="15"/>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2185,65 +2185,65 @@
       <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="25" t="s">
+      <c r="E12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="25" t="s">
+      <c r="O12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>01001000011100000000000000011010</v>
+        <v>00001000011010000001001000011100</v>
       </c>
       <c r="S12" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>4870001A</v>
+        <v>0868121C</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
@@ -2251,19 +2251,19 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0111</v>
+        <v>0110</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
@@ -2271,11 +2271,11 @@
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="10"/>
@@ -2283,19 +2283,19 @@
       </c>
       <c r="AI12" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="str">
         <f t="shared" si="15"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>71</v>
@@ -2317,7 +2317,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>20</v>
@@ -2326,10 +2326,10 @@
         <v>87</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>30</v>
@@ -2338,13 +2338,13 @@
         <v>20</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>30</v>
@@ -2353,28 +2353,28 @@
         <v>20</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>00011000011010000001010000010100</v>
+        <v>01001000011100000000000000011010</v>
       </c>
       <c r="S13" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>18681414</v>
+        <v>4870001A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
@@ -2382,19 +2382,19 @@
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0111</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="10"/>
@@ -2414,19 +2414,19 @@
       </c>
       <c r="AI13" t="str">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="str">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="str">
         <f t="shared" si="15"/>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>72</v>
@@ -2813,14 +2813,14 @@
       <c r="R19" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D16 M2:N16 H2:I16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G16 O2:Q16 J2:L16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="100">
   <si>
     <t>0001</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>010000</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
   <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S15"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,35 +922,35 @@
         <v>0000</v>
       </c>
       <c r="AG2" t="str">
-        <f t="shared" ref="AG2:AG16" si="9">INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
         <v>B</v>
       </c>
       <c r="AH2" t="str">
-        <f t="shared" ref="AH2:AH16" si="10">INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI2" t="str">
-        <f t="shared" ref="AI2:AI16" si="11">INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AJ2" t="str">
-        <f t="shared" ref="AJ2:AJ16" si="12">INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK16" si="13">INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL2" t="str">
-        <f t="shared" ref="AL2:AL16" si="14">INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AM2" t="str">
-        <f t="shared" ref="AM2:AM16" si="15">INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AN16" si="16">INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
+        <f>INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
@@ -959,19 +965,19 @@
         <v>36</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>30</v>
@@ -995,10 +1001,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>30</v>
@@ -1008,11 +1014,11 @@
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001010000000000000001100</v>
+        <v>10111000011100000000000000000000</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S8" si="17">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>4828000C</v>
+        <f t="shared" ref="S3:S8" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
+        <v>B8700000</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -1022,7 +1028,7 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>1011</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="2"/>
@@ -1030,11 +1036,11 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0111</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="5"/>
@@ -1050,39 +1056,39 @@
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
+        <v>B</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI3" t="str">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <v>7</v>
       </c>
       <c r="AJ3" t="str">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AK3" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL3" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM3" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN3" t="str">
-        <f t="shared" si="16"/>
-        <v>C</v>
+        <f>INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>0</v>
@@ -1102,13 +1108,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>30</v>
@@ -1135,21 +1141,21 @@
         <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000001010</v>
+        <v>01001000001010000000000000001100</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>4850000A</v>
+        <f t="shared" si="9"/>
+        <v>4828000C</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>61</v>
@@ -1167,11 +1173,11 @@
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="5"/>
@@ -1187,39 +1193,39 @@
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG4" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X4,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH4" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y4,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f>INDEX(AQ:AQ,MATCH(Z4,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AA4,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AC4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD4,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" si="16"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE4,AP:AP,0))</f>
+        <v>C</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
@@ -1232,61 +1238,61 @@
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="21" t="s">
+      <c r="B5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00010000001010000000000000001100</v>
+        <v>01001000010100000000000000001010</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>1028000C</v>
+        <f t="shared" si="9"/>
+        <v>4850000A</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>62</v>
@@ -1296,19 +1302,19 @@
       </c>
       <c r="X5" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="5"/>
@@ -1324,39 +1330,39 @@
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AG5" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(X5,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AH5" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(Y5,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AI5" t="str">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(Z5,AP:AP,0))</f>
+        <v>5</v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(AA5,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AK5" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL5" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AC5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM5" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD5,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN5" t="str">
-        <f t="shared" si="16"/>
-        <v>C</v>
+        <f>INDEX(AQ:AQ,MATCH(AE5,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
@@ -1370,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>20</v>
@@ -1379,10 +1385,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>30</v>
@@ -1409,21 +1415,21 @@
         <v>18</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
+        <v>00010000001010000000000000001100</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>4830000A</v>
+        <f t="shared" si="9"/>
+        <v>1028000C</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>63</v>
@@ -1433,19 +1439,19 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0001</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="5"/>
@@ -1461,39 +1467,39 @@
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(X6,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AH6" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y6,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z6,AP:AP,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA6,AP:AP,0))</f>
         <v>8</v>
       </c>
-      <c r="AI6" t="str">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="AK6" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AC6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD6,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="16"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE6,AP:AP,0))</f>
+        <v>C</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
@@ -1506,61 +1512,61 @@
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="25" t="s">
+      <c r="B7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000001001000001100</v>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>0828120C</v>
+        <f t="shared" si="9"/>
+        <v>4830000A</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>64</v>
@@ -1570,7 +1576,7 @@
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="2"/>
@@ -1578,19 +1584,19 @@
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
@@ -1598,39 +1604,39 @@
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AG7" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(X7,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AH7" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y7,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI7" t="str">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(Z7,AP:AP,0))</f>
+        <v>3</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(AA7,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AK7" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AB7,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AL7" t="str">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(AC7,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD7,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" si="16"/>
-        <v>C</v>
+        <f>INDEX(AQ:AQ,MATCH(AE7,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>13</v>
@@ -1643,61 +1649,61 @@
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="21" t="s">
+      <c r="B8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
+        <v>00000000000000000000000000000000</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>4830000A</v>
+        <f t="shared" si="9"/>
+        <v>00000000</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -1707,15 +1713,15 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
@@ -1735,39 +1741,39 @@
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AG8" t="str">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(X8,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AH8" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(Y8,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AI8" t="str">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>INDEX(AQ:AQ,MATCH(Z8,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" si="14"/>
+        <f>INDEX(AQ:AQ,MATCH(AC8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD8,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="16"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE8,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
@@ -1780,61 +1786,61 @@
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="21" t="s">
+      <c r="C9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f t="shared" ref="R9:R15" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
-        <v>00001000001010000001010000001100</v>
+        <f t="shared" ref="R9:R12" si="10">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
+        <v>00001000001010000001001000001100</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" ref="S9:S15" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
-        <v>0828140C</v>
+        <f t="shared" ref="S9:S17" si="11">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
+        <v>0828120C</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>66</v>
@@ -1864,7 +1870,7 @@
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
@@ -1875,35 +1881,35 @@
         <v>1100</v>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X9,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AH9" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y9,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI9" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Z9,AP:AP,0))</f>
         <v>2</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA9,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK9" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB9,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL9" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(AC9,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AM9" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD9,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN9" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AE9,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AP9" s="1" t="s">
@@ -1924,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>30</v>
@@ -1939,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>30</v>
@@ -1966,12 +1972,12 @@
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>01001000000000000001100000001010</v>
+        <f t="shared" si="10"/>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>4800180A</v>
+        <f t="shared" si="11"/>
+        <v>4830000A</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>67</v>
@@ -1989,7 +1995,7 @@
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
@@ -1997,11 +2003,11 @@
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
@@ -2012,35 +2018,35 @@
         <v>1010</v>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X10,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH10" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y10,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI10" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(Z10,AP:AP,0))</f>
+        <v>3</v>
       </c>
       <c r="AJ10" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA10,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK10" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AB10,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AL10" t="str">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(AC10,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AM10" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD10,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN10" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AE10,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP10" s="1" t="s">
@@ -2054,125 +2060,125 @@
       <c r="A11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="25" t="s">
+      <c r="B11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>00011000011010000001010000010100</v>
+        <f t="shared" si="10"/>
+        <v>00000000000000000000000000000000</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>18681414</v>
+        <f t="shared" si="11"/>
+        <v>00000000</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(X11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AH11" t="str">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(Y11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AI11" t="str">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f>INDEX(AQ:AQ,MATCH(Z11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AJ11" t="str">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>INDEX(AQ:AQ,MATCH(AA11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AK11" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AB11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AL11" t="str">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(AC11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AM11" t="str">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AD11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AN11" t="str">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f>INDEX(AQ:AQ,MATCH(AE11,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
@@ -2192,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>30</v>
@@ -2213,16 +2219,16 @@
         <v>30</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>31</v>
@@ -2234,12 +2240,12 @@
         <v>30</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>00001000011010000001001000011100</v>
+        <f t="shared" si="10"/>
+        <v>00001000001010000001010000001100</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>0868121C</v>
+        <f t="shared" si="11"/>
+        <v>0828140C</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
@@ -2251,7 +2257,7 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
@@ -2263,46 +2269,46 @@
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
         <v>1100</v>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X12,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AH12" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y12,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI12" t="str">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f>INDEX(AQ:AQ,MATCH(Z12,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AJ12" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA12,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK12" t="str">
-        <f t="shared" si="13"/>
+        <f>INDEX(AQ:AQ,MATCH(AB12,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL12" t="str">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(AC12,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AM12" t="str">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AD12,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AN12" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AE12,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AP12" s="1" t="s">
@@ -2316,61 +2322,61 @@
       <c r="A13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="25" t="s">
+      <c r="C13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>01001000011100000000000000011010</v>
+        <f>B13&amp;C13&amp;D13&amp;E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13&amp;P13&amp;Q13</f>
+        <v>01001000000000000001100000001010</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>4870001A</v>
+        <f t="shared" si="11"/>
+        <v>4800180A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
@@ -2390,50 +2396,50 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
         <v>1010</v>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X13,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH13" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y13,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI13" t="str">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f>INDEX(AQ:AQ,MATCH(Z13,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AJ13" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA13,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK13" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AB13,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AL13" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AC13,AP:AP,0))</f>
+        <v>8</v>
       </c>
       <c r="AM13" t="str">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>INDEX(AQ:AQ,MATCH(AD13,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AN13" t="str">
-        <f t="shared" si="16"/>
+        <f>INDEX(AQ:AQ,MATCH(AE13,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP13" s="1" t="s">
@@ -2448,37 +2454,37 @@
         <v>93</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="25" t="s">
         <v>20</v>
@@ -2487,45 +2493,45 @@
         <v>39</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>00110001000001001110001000010010</v>
+        <f>B14&amp;C14&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14</f>
+        <v>00011000011010000001010000010100</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>3104E212</v>
+        <f t="shared" si="11"/>
+        <v>18681414</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v>0001</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v>1110</v>
+        <v>0001</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
@@ -2533,39 +2539,39 @@
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>INDEX(AQ:AQ,MATCH(X14,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y14,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AI14" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z14,AP:AP,0))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA14,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AK14" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB14,AP:AP,0))</f>
         <v>1</v>
       </c>
-      <c r="AI14" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="str">
-        <f t="shared" si="12"/>
+      <c r="AL14" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC14,AP:AP,0))</f>
         <v>4</v>
       </c>
-      <c r="AK14" t="str">
-        <f t="shared" si="13"/>
-        <v>E</v>
-      </c>
-      <c r="AL14" t="str">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
       <c r="AM14" t="str">
-        <f t="shared" si="15"/>
+        <f>INDEX(AQ:AQ,MATCH(AD14,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AN14" t="str">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f>INDEX(AQ:AQ,MATCH(AE14,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>70</v>
@@ -2578,61 +2584,61 @@
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="21" t="s">
+      <c r="E15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>11000000011010000000000000001010</v>
+        <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
+        <v>11000000011010000001010000010010</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v>C068000A</v>
+        <f t="shared" si="11"/>
+        <v>C0681412</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
@@ -2652,51 +2658,51 @@
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="9"/>
+        <f>INDEX(AQ:AQ,MATCH(X15,AP:AP,0))</f>
         <v>C</v>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" si="10"/>
+        <f>INDEX(AQ:AQ,MATCH(Y15,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AI15" t="str">
-        <f t="shared" si="11"/>
+        <f>INDEX(AQ:AQ,MATCH(Z15,AP:AP,0))</f>
         <v>6</v>
       </c>
       <c r="AJ15" t="str">
-        <f t="shared" si="12"/>
+        <f>INDEX(AQ:AQ,MATCH(AA15,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AK15" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AB15,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AL15" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AC15,AP:AP,0))</f>
+        <v>4</v>
       </c>
       <c r="AM15" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>INDEX(AQ:AQ,MATCH(AD15,AP:AP,0))</f>
+        <v>1</v>
       </c>
       <c r="AN15" t="str">
-        <f t="shared" si="16"/>
-        <v>A</v>
+        <f>INDEX(AQ:AQ,MATCH(AE15,AP:AP,0))</f>
+        <v>2</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>73</v>
@@ -2709,87 +2715,125 @@
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
+      <c r="B16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="3" t="str">
+        <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16</f>
+        <v>00110001011001001110001000000000</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>3164E200</v>
+      </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0110</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1110</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG16" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM16" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>0000</v>
+      </c>
+      <c r="AG16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AH16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Y16,AP:AP,0))</f>
+        <v>1</v>
+      </c>
+      <c r="AI16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(Z16,AP:AP,0))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AK16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
+        <v>E</v>
+      </c>
+      <c r="AL16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AM16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" t="str">
+        <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
+        <v>0</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>74</v>
@@ -2798,7 +2842,66 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="18:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="3" t="str">
+        <f>B17&amp;C17&amp;D17&amp;E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17&amp;P17&amp;Q17</f>
+        <v>11000000011010000000000000001010</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="AP17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2806,21 +2909,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="18:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="18:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="R19" s="1"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
+  <dataValidations count="4">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N16 H2:I16 C2:D16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D17 M2:N17 H2:I17">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q16 J2:L16 E2:G16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G17 O2:Q17 J2:L17">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="99">
   <si>
     <t>0001</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>10111</t>
-  </si>
-  <si>
-    <t>110</t>
   </si>
   <si>
     <t>00000</t>
@@ -728,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="S2" sqref="S2:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>20</v>
@@ -2061,7 +2058,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>20</v>
@@ -2734,10 +2731,10 @@
         <v>31</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>30</v>
@@ -2752,24 +2749,24 @@
         <v>20</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R16" s="3" t="str">
         <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16</f>
-        <v>00110001011001001110001000000000</v>
+        <v>00110001011001010000001000010010</v>
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>3164E200</v>
+        <v>31650212</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
@@ -2785,11 +2782,11 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v>1110</v>
+        <v>0000</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
@@ -2797,11 +2794,11 @@
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
@@ -2817,11 +2814,11 @@
       </c>
       <c r="AJ16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
-        <v>E</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
@@ -2829,11 +2826,11 @@
       </c>
       <c r="AM16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>74</v>
@@ -2843,8 +2840,8 @@
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>99</v>
+      <c r="A17" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>89</v>
@@ -2900,7 +2897,71 @@
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>C068000A</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" ref="X17:X21" si="12">LEFT(RIGHT(R17,32),4)</f>
+        <v>1100</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" ref="Y17:Y21" si="13">LEFT(RIGHT(R17,28),4)</f>
+        <v>0000</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" ref="Z17:Z21" si="14">LEFT(RIGHT(R17,24),4)</f>
+        <v>0110</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" ref="AA17:AA21" si="15">LEFT(RIGHT(R17,20),4)</f>
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" ref="AB17:AB21" si="16">LEFT(RIGHT(R17,16),4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" ref="AC17:AC21" si="17">LEFT(RIGHT(R17,12),4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" ref="AD17:AD21" si="18">LEFT(RIGHT(R17,8),4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" ref="AE17:AE21" si="19">LEFT(RIGHT(R17,4),4)</f>
+        <v>1010</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" ref="AG17:AG21" si="20">INDEX(AQ:AQ,MATCH(X17,AP:AP,0))</f>
+        <v>C</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" ref="AH17:AH21" si="21">INDEX(AQ:AQ,MATCH(Y17,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" ref="AI17:AI21" si="22">INDEX(AQ:AQ,MATCH(Z17,AP:AP,0))</f>
+        <v>6</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" ref="AJ17:AJ21" si="23">INDEX(AQ:AQ,MATCH(AA17,AP:AP,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" ref="AK17:AK21" si="24">INDEX(AQ:AQ,MATCH(AB17,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" ref="AL17:AL21" si="25">INDEX(AQ:AQ,MATCH(AC17,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" ref="AM17:AM21" si="26">INDEX(AQ:AQ,MATCH(AD17,AP:AP,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" ref="AN17:AN21" si="27">INDEX(AQ:AQ,MATCH(AE17,AP:AP,0))</f>
+        <v>A</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>75</v>
@@ -2911,9 +2972,269 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="V18" s="5"/>
+      <c r="X18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AG18" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ18" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM18" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN18" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="R19" s="1"/>
+      <c r="X19" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AG19" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM19" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN19" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X20" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AG20" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM20" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN20" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="X21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AG21" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN21" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2926,7 +3247,7 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G17 O2:Q17 J2:L17">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A16">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
       <formula1>6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="112">
   <si>
     <t>0001</t>
   </si>
@@ -325,6 +325,45 @@
   </si>
   <si>
     <t>010000</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>010011</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>010110</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>011000</t>
+  </si>
+  <si>
+    <t>011001</t>
+  </si>
+  <si>
+    <t>011010</t>
+  </si>
+  <si>
+    <t>011011</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>011101</t>
   </si>
 </sst>
 </file>
@@ -725,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S17"/>
+      <selection activeCell="S2" sqref="S2:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,34 +2621,34 @@
         <v>94</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="J15" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="24" t="s">
         <v>30</v>
@@ -2618,7 +2657,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>30</v>
@@ -2631,35 +2670,35 @@
       </c>
       <c r="R15" s="3" t="str">
         <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
-        <v>11000000011010000001010000010010</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="S15" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>C0681412</v>
+        <v>4800381A</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
@@ -2667,31 +2706,31 @@
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AG15" t="str">
         <f>INDEX(AQ:AQ,MATCH(X15,AP:AP,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX(AQ:AQ,MATCH(Y15,AP:AP,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="str">
         <f>INDEX(AQ:AQ,MATCH(Z15,AP:AP,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA15,AP:AP,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB15,AP:AP,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC15,AP:AP,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD15,AP:AP,0))</f>
@@ -2699,7 +2738,7 @@
       </c>
       <c r="AN15" t="str">
         <f>INDEX(AQ:AQ,MATCH(AE15,AP:AP,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>73</v>
@@ -2713,84 +2752,84 @@
         <v>95</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>20</v>
-      </c>
       <c r="J16" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="25" t="s">
         <v>20</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R16" s="3" t="str">
         <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16</f>
-        <v>00110001011001010000001000010010</v>
+        <v>00001000001001000011010000011100</v>
       </c>
       <c r="S16" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>31650212</v>
+        <v>0824341C</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="2"/>
-        <v>0001</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
@@ -2798,31 +2837,31 @@
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="str">
         <f>INDEX(AQ:AQ,MATCH(Y16,AP:AP,0))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="str">
         <f>INDEX(AQ:AQ,MATCH(Z16,AP:AP,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
@@ -2830,7 +2869,7 @@
       </c>
       <c r="AN16" t="str">
         <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>74</v>
@@ -2843,89 +2882,89 @@
       <c r="A17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="21" t="s">
+      <c r="J17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="25" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="3" t="str">
         <f>B17&amp;C17&amp;D17&amp;E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17&amp;P17&amp;Q17</f>
-        <v>11000000011010000000000000001010</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="S17" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>C068000A</v>
+        <v>4800381A</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" ref="X17:X21" si="12">LEFT(RIGHT(R17,32),4)</f>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" ref="Y17:Y21" si="13">LEFT(RIGHT(R17,28),4)</f>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" ref="Z17:Z21" si="14">LEFT(RIGHT(R17,24),4)</f>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" ref="AA17:AA21" si="15">LEFT(RIGHT(R17,20),4)</f>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" ref="AB17:AB21" si="16">LEFT(RIGHT(R17,16),4)</f>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" ref="AC17:AC21" si="17">LEFT(RIGHT(R17,12),4)</f>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="str">
         <f t="shared" ref="AD17:AD21" si="18">LEFT(RIGHT(R17,8),4)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE17" t="str">
         <f t="shared" ref="AE17:AE21" si="19">LEFT(RIGHT(R17,4),4)</f>
@@ -2933,31 +2972,31 @@
       </c>
       <c r="AG17" t="str">
         <f t="shared" ref="AG17:AG21" si="20">INDEX(AQ:AQ,MATCH(X17,AP:AP,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" ref="AH17:AH21" si="21">INDEX(AQ:AQ,MATCH(Y17,AP:AP,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="str">
         <f t="shared" ref="AI17:AI21" si="22">INDEX(AQ:AQ,MATCH(Z17,AP:AP,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="str">
         <f t="shared" ref="AJ17:AJ21" si="23">INDEX(AQ:AQ,MATCH(AA17,AP:AP,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="str">
         <f t="shared" ref="AK17:AK21" si="24">INDEX(AQ:AQ,MATCH(AB17,AP:AP,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ref="AL17:AL21" si="25">INDEX(AQ:AQ,MATCH(AC17,AP:AP,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM17" t="str">
         <f t="shared" ref="AM17:AM21" si="26">INDEX(AQ:AQ,MATCH(AD17,AP:AP,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="str">
         <f t="shared" ref="AN17:AN21" si="27">INDEX(AQ:AQ,MATCH(AE17,AP:AP,0))</f>
@@ -2971,206 +3010,409 @@
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="3" t="str">
+        <f t="shared" ref="R18:R30" si="28">B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18</f>
+        <v>11000000011010000001010000010010</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <f t="shared" ref="S18:S30" si="29">AG18&amp;AH18&amp;AI18&amp;AJ18&amp;AK18&amp;AL18&amp;AM18&amp;AN18</f>
+        <v>C0681412</v>
+      </c>
       <c r="V18" s="5"/>
       <c r="X18" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0110</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AD18" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE18" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AG18" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AG18" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH18" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH18" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ18" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ18" t="str">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK18" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL18" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="str">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM18" t="e">
+        <v>4</v>
+      </c>
+      <c r="AM18" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN18" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="R19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>00110001011001010011001000010010</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>31653212</v>
+      </c>
       <c r="X19" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0110</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>0101</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0011</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0010</v>
       </c>
       <c r="AD19" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE19" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AG19" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AG19" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH19" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" t="e">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ19" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="str">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK19" t="e">
+        <v>5</v>
+      </c>
+      <c r="AK19" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL19" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="str">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM19" t="e">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN19" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>11000000011010000001010000011010</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>C068141A</v>
+      </c>
       <c r="X20" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1100</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0000</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0110</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>0100</v>
       </c>
       <c r="AD20" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>0001</v>
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AG20" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AG20" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" t="e">
+        <v>C</v>
+      </c>
+      <c r="AH20" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ20" t="str">
         <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="str">
         <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM20" t="e">
+        <v>4</v>
+      </c>
+      <c r="AM20" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="str">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>A</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S21" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
       <c r="X21" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3233,21 +3475,858 @@
       </c>
       <c r="AN21" t="e">
         <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S22" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" ref="X22:X30" si="30">LEFT(RIGHT(R22,32),4)</f>
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" ref="Y22:Y30" si="31">LEFT(RIGHT(R22,28),4)</f>
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" ref="Z22:Z30" si="32">LEFT(RIGHT(R22,24),4)</f>
+        <v/>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" ref="AA22:AA30" si="33">LEFT(RIGHT(R22,20),4)</f>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" ref="AB22:AB30" si="34">LEFT(RIGHT(R22,16),4)</f>
+        <v/>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" ref="AC22:AC30" si="35">LEFT(RIGHT(R22,12),4)</f>
+        <v/>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" ref="AD22:AD30" si="36">LEFT(RIGHT(R22,8),4)</f>
+        <v/>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" ref="AE22:AE30" si="37">LEFT(RIGHT(R22,4),4)</f>
+        <v/>
+      </c>
+      <c r="AG22" t="e">
+        <f t="shared" ref="AG22:AG30" si="38">INDEX(AQ:AQ,MATCH(X22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" t="e">
+        <f t="shared" ref="AH22:AH30" si="39">INDEX(AQ:AQ,MATCH(Y22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="e">
+        <f t="shared" ref="AI22:AI30" si="40">INDEX(AQ:AQ,MATCH(Z22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" t="e">
+        <f t="shared" ref="AJ22:AJ30" si="41">INDEX(AQ:AQ,MATCH(AA22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" t="e">
+        <f t="shared" ref="AK22:AK30" si="42">INDEX(AQ:AQ,MATCH(AB22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" t="e">
+        <f t="shared" ref="AL22:AL30" si="43">INDEX(AQ:AQ,MATCH(AC22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM22" t="e">
+        <f t="shared" ref="AM22:AM30" si="44">INDEX(AQ:AQ,MATCH(AD22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" t="e">
+        <f t="shared" ref="AN22:AN30" si="45">INDEX(AQ:AQ,MATCH(AE22,AP:AP,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S23" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG23" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM23" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN23" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S24" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG24" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM24" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN24" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S25" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG25" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM25" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN25" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S26" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG26" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM26" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN26" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S27" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG27" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM27" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN27" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S28" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG28" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN28" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S29" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE29" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG29" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM29" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN29" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="S30" s="4" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="AG30" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AI30" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM30" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN30" t="e">
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D17 M2:N17 H2:I17">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D30 H2:I30 M2:N30">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G17 O2:Q17 J2:L17">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G30 J2:L30 O2:Q30">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
       <formula1>6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="112">
   <si>
     <t>0001</t>
   </si>
@@ -767,7 +767,7 @@
   <dimension ref="A1:AQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,35 +958,35 @@
         <v>0000</v>
       </c>
       <c r="AG2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
+        <f t="shared" ref="AG2:AG16" si="9">INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
         <v>B</v>
       </c>
       <c r="AH2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
+        <f t="shared" ref="AH2:AH16" si="10">INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
+        <f t="shared" ref="AI2:AI16" si="11">INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AJ2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
+        <f t="shared" ref="AJ2:AJ16" si="12">INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
+        <f t="shared" ref="AK2:AK16" si="13">INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AL2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
+        <f t="shared" ref="AL2:AL16" si="14">INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AM2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
+        <f t="shared" ref="AM2:AM16" si="15">INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AN2" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
+        <f t="shared" ref="AN2:AN16" si="16">INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
@@ -1053,7 +1053,7 @@
         <v>10111000011100000000000000000000</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f t="shared" ref="S3:S8" si="9">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
+        <f t="shared" ref="S3:S8" si="17">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
         <v>B8700000</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -1095,35 +1095,35 @@
         <v>0000</v>
       </c>
       <c r="AG3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X3,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AH3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y3,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z3,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AJ3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA3,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB3,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC3,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD3,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN3" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE3,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP3" s="1" t="s">
@@ -1190,7 +1190,7 @@
         <v>01001000001010000000000000001100</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4828000C</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -1232,35 +1232,35 @@
         <v>1100</v>
       </c>
       <c r="AG4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X4,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y4,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z4,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA4,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB4,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC4,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD4,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN4" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE4,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP4" s="1" t="s">
@@ -1327,7 +1327,7 @@
         <v>01001000010100000000000000001010</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4850000A</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1369,35 +1369,35 @@
         <v>1010</v>
       </c>
       <c r="AG5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X5,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y5,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z5,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AJ5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA5,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB5,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC5,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD5,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN5" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE5,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP5" s="1" t="s">
@@ -1464,7 +1464,7 @@
         <v>00010000001010000000000000001100</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1028000C</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1506,35 +1506,35 @@
         <v>1100</v>
       </c>
       <c r="AG6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X6,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y6,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z6,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA6,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB6,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC6,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD6,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN6" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE6,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP6" s="1" t="s">
@@ -1601,7 +1601,7 @@
         <v>01001000001100000000000000001010</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4830000A</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1643,35 +1643,35 @@
         <v>1010</v>
       </c>
       <c r="AG7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X7,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y7,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z7,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AJ7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA7,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB7,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC7,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD7,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN7" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE7,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP7" s="1" t="s">
@@ -1738,7 +1738,7 @@
         <v>00000000000000000000000000000000</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>00000000</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1780,35 +1780,35 @@
         <v>0000</v>
       </c>
       <c r="AG8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X8,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y8,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z8,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA8,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB8,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC8,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD8,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN8" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE8,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP8" s="1" t="s">
@@ -1871,11 +1871,11 @@
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f t="shared" ref="R9:R12" si="10">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
+        <f t="shared" ref="R9:R12" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
         <v>00001000001010000001001000001100</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" ref="S9:S17" si="11">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
+        <f t="shared" ref="S9:S17" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
         <v>0828120C</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -1917,35 +1917,35 @@
         <v>1100</v>
       </c>
       <c r="AG9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X9,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y9,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z9,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA9,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB9,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC9,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AM9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD9,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN9" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE9,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP9" s="1" t="s">
@@ -2008,11 +2008,11 @@
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>01001000001100000000000000001010</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4830000A</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -2054,35 +2054,35 @@
         <v>1010</v>
       </c>
       <c r="AG10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X10,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y10,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z10,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AJ10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA10,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB10,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC10,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD10,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN10" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE10,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP10" s="1" t="s">
@@ -2145,11 +2145,11 @@
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>00000000000000000000000000000000</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>00000000</v>
       </c>
       <c r="X11" t="str">
@@ -2185,35 +2185,35 @@
         <v>0000</v>
       </c>
       <c r="AG11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X11,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y11,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z11,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA11,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB11,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC11,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD11,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN11" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE11,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AP11" s="1" t="s">
@@ -2276,11 +2276,11 @@
         <v>30</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>00001000001010000001010000001100</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0828140C</v>
       </c>
       <c r="X12" t="str">
@@ -2316,35 +2316,35 @@
         <v>1100</v>
       </c>
       <c r="AG12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X12,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y12,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z12,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA12,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB12,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC12,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AM12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD12,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN12" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE12,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP12" s="1" t="s">
@@ -2411,7 +2411,7 @@
         <v>01001000000000000001100000001010</v>
       </c>
       <c r="S13" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4800180A</v>
       </c>
       <c r="X13" t="str">
@@ -2447,35 +2447,35 @@
         <v>1010</v>
       </c>
       <c r="AG13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X13,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y13,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z13,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA13,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB13,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC13,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AM13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD13,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN13" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE13,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP13" s="1" t="s">
@@ -2542,7 +2542,7 @@
         <v>00011000011010000001010000010100</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18681414</v>
       </c>
       <c r="X14" t="str">
@@ -2578,35 +2578,35 @@
         <v>0100</v>
       </c>
       <c r="AG14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X14,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y14,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z14,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AJ14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA14,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AK14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB14,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC14,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AM14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD14,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN14" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE14,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="AP14" s="1" t="s">
@@ -2673,7 +2673,7 @@
         <v>01001000000000000011100000011010</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4800381A</v>
       </c>
       <c r="X15" t="str">
@@ -2709,35 +2709,35 @@
         <v>1010</v>
       </c>
       <c r="AG15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X15,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AH15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y15,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z15,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA15,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB15,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AL15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC15,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AM15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD15,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN15" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE15,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>A</v>
       </c>
       <c r="AP15" s="1" t="s">
@@ -2804,7 +2804,7 @@
         <v>00001000001001000011010000011100</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0824341C</v>
       </c>
       <c r="X16" t="str">
@@ -2840,35 +2840,35 @@
         <v>1100</v>
       </c>
       <c r="AG16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(X16,AP:AP,0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Y16,AP:AP,0))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AI16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(Z16,AP:AP,0))</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AJ16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AA16,AP:AP,0))</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AK16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AB16,AP:AP,0))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AL16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AC16,AP:AP,0))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AM16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AD16,AP:AP,0))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AN16" t="str">
-        <f>INDEX(AQ:AQ,MATCH(AE16,AP:AP,0))</f>
+        <f t="shared" si="16"/>
         <v>C</v>
       </c>
       <c r="AP16" s="1" t="s">
@@ -2935,71 +2935,71 @@
         <v>01001000000000000011100000011010</v>
       </c>
       <c r="S17" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4800381A</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" ref="X17:X21" si="12">LEFT(RIGHT(R17,32),4)</f>
+        <f t="shared" ref="X17:X21" si="20">LEFT(RIGHT(R17,32),4)</f>
         <v>0100</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" ref="Y17:Y21" si="13">LEFT(RIGHT(R17,28),4)</f>
+        <f t="shared" ref="Y17:Y21" si="21">LEFT(RIGHT(R17,28),4)</f>
         <v>1000</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" ref="Z17:Z21" si="14">LEFT(RIGHT(R17,24),4)</f>
+        <f t="shared" ref="Z17:Z21" si="22">LEFT(RIGHT(R17,24),4)</f>
         <v>0000</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" ref="AA17:AA21" si="15">LEFT(RIGHT(R17,20),4)</f>
+        <f t="shared" ref="AA17:AA21" si="23">LEFT(RIGHT(R17,20),4)</f>
         <v>0000</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" ref="AB17:AB21" si="16">LEFT(RIGHT(R17,16),4)</f>
+        <f t="shared" ref="AB17:AB21" si="24">LEFT(RIGHT(R17,16),4)</f>
         <v>0011</v>
       </c>
       <c r="AC17" t="str">
-        <f t="shared" ref="AC17:AC21" si="17">LEFT(RIGHT(R17,12),4)</f>
+        <f t="shared" ref="AC17:AC21" si="25">LEFT(RIGHT(R17,12),4)</f>
         <v>1000</v>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" ref="AD17:AD21" si="18">LEFT(RIGHT(R17,8),4)</f>
+        <f t="shared" ref="AD17:AD21" si="26">LEFT(RIGHT(R17,8),4)</f>
         <v>0001</v>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" ref="AE17:AE21" si="19">LEFT(RIGHT(R17,4),4)</f>
+        <f t="shared" ref="AE17:AE21" si="27">LEFT(RIGHT(R17,4),4)</f>
         <v>1010</v>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" ref="AG17:AG21" si="20">INDEX(AQ:AQ,MATCH(X17,AP:AP,0))</f>
+        <f t="shared" ref="AG17:AG21" si="28">INDEX(AQ:AQ,MATCH(X17,AP:AP,0))</f>
         <v>4</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" ref="AH17:AH21" si="21">INDEX(AQ:AQ,MATCH(Y17,AP:AP,0))</f>
+        <f t="shared" ref="AH17:AH21" si="29">INDEX(AQ:AQ,MATCH(Y17,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AI17" t="str">
-        <f t="shared" ref="AI17:AI21" si="22">INDEX(AQ:AQ,MATCH(Z17,AP:AP,0))</f>
+        <f t="shared" ref="AI17:AI21" si="30">INDEX(AQ:AQ,MATCH(Z17,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AJ17" t="str">
-        <f t="shared" ref="AJ17:AJ21" si="23">INDEX(AQ:AQ,MATCH(AA17,AP:AP,0))</f>
+        <f t="shared" ref="AJ17:AJ21" si="31">INDEX(AQ:AQ,MATCH(AA17,AP:AP,0))</f>
         <v>0</v>
       </c>
       <c r="AK17" t="str">
-        <f t="shared" ref="AK17:AK21" si="24">INDEX(AQ:AQ,MATCH(AB17,AP:AP,0))</f>
+        <f t="shared" ref="AK17:AK21" si="32">INDEX(AQ:AQ,MATCH(AB17,AP:AP,0))</f>
         <v>3</v>
       </c>
       <c r="AL17" t="str">
-        <f t="shared" ref="AL17:AL21" si="25">INDEX(AQ:AQ,MATCH(AC17,AP:AP,0))</f>
+        <f t="shared" ref="AL17:AL21" si="33">INDEX(AQ:AQ,MATCH(AC17,AP:AP,0))</f>
         <v>8</v>
       </c>
       <c r="AM17" t="str">
-        <f t="shared" ref="AM17:AM21" si="26">INDEX(AQ:AQ,MATCH(AD17,AP:AP,0))</f>
+        <f t="shared" ref="AM17:AM21" si="34">INDEX(AQ:AQ,MATCH(AD17,AP:AP,0))</f>
         <v>1</v>
       </c>
       <c r="AN17" t="str">
-        <f t="shared" ref="AN17:AN21" si="27">INDEX(AQ:AQ,MATCH(AE17,AP:AP,0))</f>
+        <f t="shared" ref="AN17:AN21" si="35">INDEX(AQ:AQ,MATCH(AE17,AP:AP,0))</f>
         <v>A</v>
       </c>
       <c r="AP17" s="1" t="s">
@@ -3014,10 +3014,10 @@
         <v>99</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>87</v>
@@ -3026,25 +3026,25 @@
         <v>30</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J18" s="24" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>20</v>
@@ -3062,76 +3062,76 @@
         <v>30</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f t="shared" ref="R18:R30" si="28">B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18</f>
-        <v>11000000011010000001010000010010</v>
+        <f t="shared" ref="R18:R30" si="36">B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18</f>
+        <v>00110001011001010010001000010010</v>
       </c>
       <c r="S18" s="4" t="str">
-        <f t="shared" ref="S18:S30" si="29">AG18&amp;AH18&amp;AI18&amp;AJ18&amp;AK18&amp;AL18&amp;AM18&amp;AN18</f>
-        <v>C0681412</v>
+        <f t="shared" ref="S18:S30" si="37">AG18&amp;AH18&amp;AI18&amp;AJ18&amp;AK18&amp;AL18&amp;AM18&amp;AN18</f>
+        <v>31652212</v>
       </c>
       <c r="V18" s="5"/>
       <c r="X18" t="str">
-        <f t="shared" si="12"/>
-        <v>1100</v>
+        <f t="shared" si="20"/>
+        <v>0011</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="13"/>
-        <v>0000</v>
+        <f t="shared" si="21"/>
+        <v>0001</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0110</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="15"/>
-        <v>1000</v>
+        <f t="shared" si="23"/>
+        <v>0101</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
+        <v>0010</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="25"/>
+        <v>0010</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="26"/>
         <v>0001</v>
       </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
       <c r="AE18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0010</v>
       </c>
       <c r="AG18" t="str">
-        <f t="shared" si="20"/>
-        <v>C</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AI18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="AJ18" t="str">
-        <f t="shared" si="23"/>
-        <v>8</v>
+        <f t="shared" si="31"/>
+        <v>5</v>
       </c>
       <c r="AK18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="AL18" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AM18" t="str">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
       <c r="AN18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
     </row>
@@ -3139,45 +3139,45 @@
       <c r="A19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="J19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>39</v>
-      </c>
       <c r="O19" s="25" t="s">
         <v>30</v>
       </c>
@@ -3188,201 +3188,169 @@
         <v>30</v>
       </c>
       <c r="R19" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>11000000011010000001010000011010</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>C068141A</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="20"/>
+        <v>1100</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="21"/>
+        <v>0000</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="22"/>
+        <v>0110</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="23"/>
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="24"/>
+        <v>0001</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="25"/>
+        <v>0100</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="26"/>
+        <v>0001</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="27"/>
+        <v>1010</v>
+      </c>
+      <c r="AG19" t="str">
         <f t="shared" si="28"/>
-        <v>00110001011001010011001000010010</v>
-      </c>
-      <c r="S19" s="4" t="str">
+        <v>C</v>
+      </c>
+      <c r="AH19" t="str">
         <f t="shared" si="29"/>
-        <v>31653212</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="12"/>
-        <v>0011</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="13"/>
-        <v>0001</v>
-      </c>
-      <c r="Z19" t="str">
-        <f t="shared" si="14"/>
-        <v>0110</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="15"/>
-        <v>0101</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AC19" t="str">
-        <f t="shared" si="17"/>
-        <v>0010</v>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AE19" t="str">
-        <f t="shared" si="19"/>
-        <v>0010</v>
-      </c>
-      <c r="AG19" t="str">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AH19" t="str">
-        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AI19" t="str">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="AJ19" t="str">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="AK19" t="str">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
       <c r="AL19" t="str">
-        <f t="shared" si="25"/>
-        <v>2</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="AM19" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AN19" t="str">
-        <f t="shared" si="27"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>A</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
       <c r="R20" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S20" s="4" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AG20" t="e">
         <f t="shared" si="28"/>
-        <v>11000000011010000001010000011010</v>
-      </c>
-      <c r="S20" s="4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" t="e">
         <f t="shared" si="29"/>
-        <v>C068141A</v>
-      </c>
-      <c r="X20" t="str">
-        <f t="shared" si="12"/>
-        <v>1100</v>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="13"/>
-        <v>0000</v>
-      </c>
-      <c r="Z20" t="str">
-        <f t="shared" si="14"/>
-        <v>0110</v>
-      </c>
-      <c r="AA20" t="str">
-        <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="16"/>
-        <v>0001</v>
-      </c>
-      <c r="AC20" t="str">
-        <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AD20" t="str">
-        <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AE20" t="str">
-        <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AG20" t="str">
-        <f t="shared" si="20"/>
-        <v>C</v>
-      </c>
-      <c r="AH20" t="str">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" t="str">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="AJ20" t="str">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="AK20" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AL20" t="str">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AM20" t="str">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AN20" t="str">
-        <f t="shared" si="27"/>
-        <v>A</v>
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AM20" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN20" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3406,75 +3374,75 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="S21" s="4" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="AG21" t="e">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="S21" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="e">
         <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
-      <c r="X21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Z21" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="AC21" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AD21" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE21" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AG21" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
       <c r="AI21" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="AJ21" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="AK21" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
       <c r="AL21" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>#N/A</v>
       </c>
       <c r="AM21" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>#N/A</v>
       </c>
       <c r="AN21" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3499,75 +3467,75 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S22" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" ref="X22:X30" si="30">LEFT(RIGHT(R22,32),4)</f>
+        <f t="shared" ref="X22:X30" si="38">LEFT(RIGHT(R22,32),4)</f>
         <v/>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" ref="Y22:Y30" si="31">LEFT(RIGHT(R22,28),4)</f>
+        <f t="shared" ref="Y22:Y30" si="39">LEFT(RIGHT(R22,28),4)</f>
         <v/>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" ref="Z22:Z30" si="32">LEFT(RIGHT(R22,24),4)</f>
+        <f t="shared" ref="Z22:Z30" si="40">LEFT(RIGHT(R22,24),4)</f>
         <v/>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" ref="AA22:AA30" si="33">LEFT(RIGHT(R22,20),4)</f>
+        <f t="shared" ref="AA22:AA30" si="41">LEFT(RIGHT(R22,20),4)</f>
         <v/>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" ref="AB22:AB30" si="34">LEFT(RIGHT(R22,16),4)</f>
+        <f t="shared" ref="AB22:AB30" si="42">LEFT(RIGHT(R22,16),4)</f>
         <v/>
       </c>
       <c r="AC22" t="str">
-        <f t="shared" ref="AC22:AC30" si="35">LEFT(RIGHT(R22,12),4)</f>
+        <f t="shared" ref="AC22:AC30" si="43">LEFT(RIGHT(R22,12),4)</f>
         <v/>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" ref="AD22:AD30" si="36">LEFT(RIGHT(R22,8),4)</f>
+        <f t="shared" ref="AD22:AD30" si="44">LEFT(RIGHT(R22,8),4)</f>
         <v/>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" ref="AE22:AE30" si="37">LEFT(RIGHT(R22,4),4)</f>
+        <f t="shared" ref="AE22:AE30" si="45">LEFT(RIGHT(R22,4),4)</f>
         <v/>
       </c>
       <c r="AG22" t="e">
-        <f t="shared" ref="AG22:AG30" si="38">INDEX(AQ:AQ,MATCH(X22,AP:AP,0))</f>
+        <f t="shared" ref="AG22:AG30" si="46">INDEX(AQ:AQ,MATCH(X22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AH22" t="e">
-        <f t="shared" ref="AH22:AH30" si="39">INDEX(AQ:AQ,MATCH(Y22,AP:AP,0))</f>
+        <f t="shared" ref="AH22:AH30" si="47">INDEX(AQ:AQ,MATCH(Y22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AI22" t="e">
-        <f t="shared" ref="AI22:AI30" si="40">INDEX(AQ:AQ,MATCH(Z22,AP:AP,0))</f>
+        <f t="shared" ref="AI22:AI30" si="48">INDEX(AQ:AQ,MATCH(Z22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AJ22" t="e">
-        <f t="shared" ref="AJ22:AJ30" si="41">INDEX(AQ:AQ,MATCH(AA22,AP:AP,0))</f>
+        <f t="shared" ref="AJ22:AJ30" si="49">INDEX(AQ:AQ,MATCH(AA22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AK22" t="e">
-        <f t="shared" ref="AK22:AK30" si="42">INDEX(AQ:AQ,MATCH(AB22,AP:AP,0))</f>
+        <f t="shared" ref="AK22:AK30" si="50">INDEX(AQ:AQ,MATCH(AB22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AL22" t="e">
-        <f t="shared" ref="AL22:AL30" si="43">INDEX(AQ:AQ,MATCH(AC22,AP:AP,0))</f>
+        <f t="shared" ref="AL22:AL30" si="51">INDEX(AQ:AQ,MATCH(AC22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AM22" t="e">
-        <f t="shared" ref="AM22:AM30" si="44">INDEX(AQ:AQ,MATCH(AD22,AP:AP,0))</f>
+        <f t="shared" ref="AM22:AM30" si="52">INDEX(AQ:AQ,MATCH(AD22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
       <c r="AN22" t="e">
-        <f t="shared" ref="AN22:AN30" si="45">INDEX(AQ:AQ,MATCH(AE22,AP:AP,0))</f>
+        <f t="shared" ref="AN22:AN30" si="53">INDEX(AQ:AQ,MATCH(AE22,AP:AP,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3592,75 +3560,75 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S23" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD23" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE23" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG23" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH23" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI23" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ23" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK23" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL23" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM23" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN23" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3685,75 +3653,75 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S24" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC24" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE24" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG24" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH24" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI24" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ24" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK24" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL24" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM24" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN24" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3778,75 +3746,75 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S25" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC25" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD25" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE25" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG25" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH25" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI25" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ25" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK25" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL25" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM25" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN25" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3871,75 +3839,75 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S26" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE26" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG26" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH26" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI26" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ26" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK26" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL26" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM26" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN26" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -3964,75 +3932,75 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S27" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB27" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC27" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD27" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE27" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG27" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH27" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI27" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ27" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK27" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL27" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM27" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN27" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4057,75 +4025,75 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S28" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB28" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC28" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD28" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE28" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG28" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH28" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI28" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ28" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK28" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL28" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM28" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN28" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4150,75 +4118,75 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S29" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG29" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH29" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI29" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ29" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK29" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL29" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM29" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN29" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4243,75 +4211,75 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="S30" s="4" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Y30" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB30" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AE30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AG30" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="AH30" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
       <c r="AI30" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
       <c r="AJ30" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="AK30" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="AL30" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="AM30" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="AN30" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4320,10 +4288,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D30 H2:I30 M2:N30">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N30 H2:I30 C2:D30">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G30 J2:L30 O2:Q30">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q30 J2:L30 E2:G30">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,13 +3146,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>30</v>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="R19" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>11000000011010000001010000011010</v>
+        <v>11000000000000000001010000011010</v>
       </c>
       <c r="S19" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>C068141A</v>
+        <v>C000141A</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="20"/>
@@ -3205,11 +3205,11 @@
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="22"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="23"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="24"/>
@@ -3237,11 +3237,11 @@
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="str">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="str">
         <f t="shared" si="32"/>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -13,10 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="5X4" sheetId="4" r:id="rId3"/>
-    <sheet name="ADD 5 REPEATEDLY" sheetId="3" r:id="rId4"/>
-    <sheet name="ADD" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
   <si>
     <t>0001</t>
   </si>
@@ -129,9 +125,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>COUNT</t>
   </si>
   <si>
@@ -162,48 +155,6 @@
     <t>001000</t>
   </si>
   <si>
-    <t>1001000001100000000000000001010</t>
-  </si>
-  <si>
-    <t>4830000A</t>
-  </si>
-  <si>
-    <t>0001000001010000101001000001100</t>
-  </si>
-  <si>
-    <t>828520C</t>
-  </si>
-  <si>
-    <t>1001000010100000000000000010010</t>
-  </si>
-  <si>
-    <t>48500012</t>
-  </si>
-  <si>
-    <t>0001000010010000001001000010100</t>
-  </si>
-  <si>
-    <t>8481214</t>
-  </si>
-  <si>
-    <t>0101000010010000100001000011100</t>
-  </si>
-  <si>
-    <t>2848421C</t>
-  </si>
-  <si>
-    <t>0110000001001001000001000011010</t>
-  </si>
-  <si>
-    <t>3024821A</t>
-  </si>
-  <si>
-    <t>11000000000000000000000000001010</t>
-  </si>
-  <si>
-    <t>C000000A</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
@@ -319,9 +270,6 @@
   </si>
   <si>
     <t>10111</t>
-  </si>
-  <si>
-    <t>00000</t>
   </si>
   <si>
     <t>010000</t>
@@ -451,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -465,17 +413,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -766,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,65 +740,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -861,10 +806,10 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>20</v>
@@ -881,19 +826,19 @@
       <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -920,7 +865,7 @@
         <v>B8301800</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
@@ -990,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>30</v>
@@ -998,39 +943,39 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -1050,21 +995,21 @@
       </c>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10111000011100000000000000000000</v>
+        <v>01001000001010000010100000000000</v>
       </c>
       <c r="S3" s="4" t="str">
         <f t="shared" ref="S3:S8" si="17">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>B8700000</v>
+        <v>48282800</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
         <v>4</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>1011</v>
+        <v>0100</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="2"/>
@@ -1072,19 +1017,19 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
-        <v>0111</v>
+        <v>0010</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC3" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="str">
         <f t="shared" si="7"/>
@@ -1096,7 +1041,7 @@
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="9"/>
-        <v>B</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="str">
         <f t="shared" si="10"/>
@@ -1104,19 +1049,19 @@
       </c>
       <c r="AI3" t="str">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM3" t="str">
         <f t="shared" si="15"/>
@@ -1135,49 +1080,49 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>30</v>
@@ -1187,14 +1132,14 @@
       </c>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001010000000000000001100</v>
+        <v>01001000010100000001001000000000</v>
       </c>
       <c r="S4" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>4828000C</v>
+        <v>48501200</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
@@ -1209,19 +1154,19 @@
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="7"/>
@@ -1229,7 +1174,7 @@
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="9"/>
@@ -1241,19 +1186,19 @@
       </c>
       <c r="AI4" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="str">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4" t="str">
         <f t="shared" si="15"/>
@@ -1261,50 +1206,50 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -1314,31 +1259,31 @@
         <v>18</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000001010</v>
+        <v>00001000001010000010010000001100</v>
       </c>
       <c r="S5" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>4850000A</v>
+        <v>0828240C</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
         <v>6</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="2"/>
@@ -1346,19 +1291,19 @@
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="7"/>
@@ -1366,11 +1311,11 @@
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="10"/>
@@ -1378,19 +1323,19 @@
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM5" t="str">
         <f t="shared" si="15"/>
@@ -1398,96 +1343,96 @@
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="21" t="s">
+      <c r="J6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00010000001010000000000000001100</v>
+        <v>01001000001100000000000000001010</v>
       </c>
       <c r="S6" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>1028000C</v>
+        <v>4830000A</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
         <v>7</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0100</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="5"/>
@@ -1503,23 +1448,23 @@
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="str">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="str">
         <f t="shared" si="13"/>
@@ -1535,84 +1480,84 @@
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="J7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="N7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="P7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
+        <v>00001000010010000001001000010100</v>
       </c>
       <c r="S7" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>4830000A</v>
+        <v>08481214</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
         <v>19</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="2"/>
@@ -1620,31 +1565,31 @@
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
+        <v>0100</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="10"/>
@@ -1652,112 +1597,112 @@
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>4</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="25" t="s">
+      <c r="N8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00000000000000000000000000000000</v>
+        <v>01001000010100000000000000010010</v>
       </c>
       <c r="S8" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>00000000</v>
+        <v>48500012</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
         <v>8</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
@@ -1773,23 +1718,23 @@
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="str">
         <f t="shared" si="12"/>
@@ -1805,88 +1750,88 @@
       </c>
       <c r="AM8" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="J9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="L9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="N9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="25" t="s">
+      <c r="P9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" ref="R9:R12" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
-        <v>00001000001010000001001000001100</v>
+        <v>00101000010010000001010000011100</v>
       </c>
       <c r="S9" s="4" t="str">
         <f t="shared" ref="S9:S17" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
-        <v>0828120C</v>
+        <v>2848141C</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
         <v>9</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
@@ -1894,7 +1839,7 @@
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
@@ -1906,11 +1851,11 @@
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
@@ -1918,7 +1863,7 @@
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="10"/>
@@ -1926,7 +1871,7 @@
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="str">
         <f t="shared" si="12"/>
@@ -1938,11 +1883,11 @@
       </c>
       <c r="AL9" t="str">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM9" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="16"/>
@@ -1952,102 +1897,102 @@
         <v>15</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="I10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="M10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="21" t="s">
+      <c r="N10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>01001000001100000000000000001010</v>
+        <v>00110000100001001010001000011010</v>
       </c>
       <c r="S10" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>4830000A</v>
+        <v>3084A21A</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="V10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
@@ -2055,31 +2000,31 @@
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="16"/>
@@ -2089,72 +2034,72 @@
         <v>16</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="E11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="21" t="s">
+      <c r="J11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="21" t="s">
+      <c r="N11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>00000000000000000000000000000000</v>
+        <v>11000000000000000000000000001010</v>
       </c>
       <c r="S11" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>00000000</v>
+        <v>C000000A</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
@@ -2182,11 +2127,11 @@
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="10"/>
@@ -2214,141 +2159,109 @@
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>00001000001010000001010000001100</v>
-      </c>
-      <c r="S12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S12" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>0828140C</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="AG12" t="str">
+        <v/>
+      </c>
+      <c r="AG12" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" t="e">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AJ12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL12" t="e">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM12" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" t="e">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>#N/A</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AQ12" t="s">
         <v>21</v>
@@ -2356,130 +2269,98 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
       <c r="R13" s="3" t="str">
         <f>B13&amp;C13&amp;D13&amp;E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13&amp;P13&amp;Q13</f>
-        <v>01001000000000000001100000001010</v>
-      </c>
-      <c r="S13" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S13" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>4800180A</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG13" t="str">
+        <v/>
+      </c>
+      <c r="AG13" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" t="e">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AM13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM13" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN13" t="e">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AQ13" t="s">
         <v>22</v>
@@ -2487,130 +2368,98 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="R14" s="3" t="str">
         <f>B14&amp;C14&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14</f>
-        <v>00011000011010000001010000010100</v>
-      </c>
-      <c r="S14" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S14" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>18681414</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="3"/>
-        <v>0110</v>
+        <v/>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
-      </c>
-      <c r="AG14" t="str">
+        <v/>
+      </c>
+      <c r="AG14" t="e">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AH14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" t="e">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AJ14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" t="e">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM14" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN14" t="e">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AQ14" t="s">
         <v>23</v>
@@ -2618,668 +2467,508 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
       <c r="R15" s="3" t="str">
         <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15</f>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="S15" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S15" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG15" t="str">
+        <v/>
+      </c>
+      <c r="AG15" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="e">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AL15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" t="e">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AM15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM15" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN15" t="e">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="AQ15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
       <c r="R16" s="3" t="str">
         <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16</f>
-        <v>00001000001001000011010000011100</v>
-      </c>
-      <c r="S16" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S16" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>0824341C</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="5"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="AG16" t="str">
+        <v/>
+      </c>
+      <c r="AG16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI16" t="e">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AJ16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" t="e">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AK16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK16" t="e">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AL16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL16" t="e">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM16" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN16" t="e">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AQ16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
       <c r="R17" s="3" t="str">
         <f>B17&amp;C17&amp;D17&amp;E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17&amp;P17&amp;Q17</f>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="S17" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S17" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" ref="X17:X21" si="20">LEFT(RIGHT(R17,32),4)</f>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y17" t="str">
         <f t="shared" ref="Y17:Y21" si="21">LEFT(RIGHT(R17,28),4)</f>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z17" t="str">
         <f t="shared" ref="Z17:Z21" si="22">LEFT(RIGHT(R17,24),4)</f>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA17" t="str">
         <f t="shared" ref="AA17:AA21" si="23">LEFT(RIGHT(R17,20),4)</f>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB17" t="str">
         <f t="shared" ref="AB17:AB21" si="24">LEFT(RIGHT(R17,16),4)</f>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AC17" t="str">
         <f t="shared" ref="AC17:AC21" si="25">LEFT(RIGHT(R17,12),4)</f>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD17" t="str">
         <f t="shared" ref="AD17:AD21" si="26">LEFT(RIGHT(R17,8),4)</f>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE17" t="str">
         <f t="shared" ref="AE17:AE21" si="27">LEFT(RIGHT(R17,4),4)</f>
-        <v>1010</v>
-      </c>
-      <c r="AG17" t="str">
+        <v/>
+      </c>
+      <c r="AG17" t="e">
         <f t="shared" ref="AG17:AG21" si="28">INDEX(AQ:AQ,MATCH(X17,AP:AP,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" t="e">
         <f t="shared" ref="AH17:AH21" si="29">INDEX(AQ:AQ,MATCH(Y17,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI17" t="e">
         <f t="shared" ref="AI17:AI21" si="30">INDEX(AQ:AQ,MATCH(Z17,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="e">
         <f t="shared" ref="AJ17:AJ21" si="31">INDEX(AQ:AQ,MATCH(AA17,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" t="e">
         <f t="shared" ref="AK17:AK21" si="32">INDEX(AQ:AQ,MATCH(AB17,AP:AP,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" t="e">
         <f t="shared" ref="AL17:AL21" si="33">INDEX(AQ:AQ,MATCH(AC17,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM17" t="e">
         <f t="shared" ref="AM17:AM21" si="34">INDEX(AQ:AQ,MATCH(AD17,AP:AP,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AN17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN17" t="e">
         <f t="shared" ref="AN17:AN21" si="35">INDEX(AQ:AQ,MATCH(AE17,AP:AP,0))</f>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AQ17" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
       <c r="R18" s="3" t="str">
         <f t="shared" ref="R18:R30" si="36">B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18</f>
-        <v>00110001011001010010001000010010</v>
-      </c>
-      <c r="S18" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S18" s="4" t="e">
         <f t="shared" ref="S18:S30" si="37">AG18&amp;AH18&amp;AI18&amp;AJ18&amp;AK18&amp;AL18&amp;AM18&amp;AN18</f>
-        <v>31652212</v>
+        <v>#N/A</v>
       </c>
       <c r="V18" s="5"/>
       <c r="X18" t="str">
         <f t="shared" si="20"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="21"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="22"/>
-        <v>0110</v>
+        <v/>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="23"/>
-        <v>0101</v>
+        <v/>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="24"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="25"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD18" t="str">
         <f t="shared" si="26"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE18" t="str">
         <f t="shared" si="27"/>
-        <v>0010</v>
-      </c>
-      <c r="AG18" t="str">
+        <v/>
+      </c>
+      <c r="AG18" t="e">
         <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AH18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="e">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AI18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="e">
         <f t="shared" si="30"/>
-        <v>6</v>
-      </c>
-      <c r="AJ18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ18" t="e">
         <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="AK18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" t="e">
         <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="AL18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" t="e">
         <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="AM18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM18" t="e">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AN18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN18" t="e">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>30</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>11000000000000000001010000011010</v>
-      </c>
-      <c r="S19" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S19" s="4" t="e">
         <f t="shared" si="37"/>
-        <v>C000141A</v>
+        <v>#N/A</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="20"/>
-        <v>1100</v>
+        <v/>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="21"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="22"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="23"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="24"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="25"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD19" t="str">
         <f t="shared" si="26"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE19" t="str">
         <f t="shared" si="27"/>
-        <v>1010</v>
-      </c>
-      <c r="AG19" t="str">
+        <v/>
+      </c>
+      <c r="AG19" t="e">
         <f t="shared" si="28"/>
-        <v>C</v>
-      </c>
-      <c r="AH19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="e">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="e">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" t="e">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" t="e">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="AL19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" t="e">
         <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="AM19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM19" t="e">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AN19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN19" t="e">
         <f t="shared" si="35"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
       <c r="R20" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3355,24 +3044,24 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
       <c r="R21" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3448,24 +3137,24 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3541,24 +3230,24 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+        <v>88</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3634,24 +3323,24 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3727,24 +3416,24 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3820,24 +3509,24 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -3913,24 +3602,24 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -4006,24 +3695,24 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -4099,24 +3788,24 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
       <c r="R29" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -4192,24 +3881,24 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="3" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -4288,10 +3977,10 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>5</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N30 H2:I30 C2:D30">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D30 H2:I30 M2:N30">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q30 J2:L30 E2:G30">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:G30 J2:L30 O2:Q30">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
@@ -4301,492 +3990,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F4 I2:K4 N2:P4">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C4 G2:H4 L2:M4">
-      <formula1>3</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
-      <formula1>5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HEX TO BIN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
   <si>
     <t>0001</t>
   </si>
@@ -312,6 +313,36 @@
   </si>
   <si>
     <t>011101</t>
+  </si>
+  <si>
+    <t>B8301800</t>
+  </si>
+  <si>
+    <t>48282800</t>
+  </si>
+  <si>
+    <t>48501200</t>
+  </si>
+  <si>
+    <t>0828240C</t>
+  </si>
+  <si>
+    <t>4830000A</t>
+  </si>
+  <si>
+    <t>08481214</t>
+  </si>
+  <si>
+    <t>48500012</t>
+  </si>
+  <si>
+    <t>2848141C</t>
+  </si>
+  <si>
+    <t>3084A21A</t>
+  </si>
+  <si>
+    <t>C000000A</t>
   </si>
 </sst>
 </file>
@@ -711,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
@@ -3990,4 +4021,1403 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="9" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LEFT(RIGHT(A2,8),1)</f>
+        <v>B</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LEFT(RIGHT(A2,7),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(RIGHT(A2,6),1)</f>
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LEFT(RIGHT(A2,5),1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(RIGHT(A2,4),1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>LEFT(RIGHT(A2,3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="H2" t="str">
+        <f>LEFT(RIGHT(A2,2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>LEFT(RIGHT(A2,1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <f>INDEX(U:U,MATCH(B2,V:V,0))</f>
+        <v>1011</v>
+      </c>
+      <c r="L2" t="str">
+        <f>INDEX(U:U,MATCH(C2,V:V,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="M2" t="str">
+        <f>INDEX(U:U,MATCH(D2,V:V,0))</f>
+        <v>0011</v>
+      </c>
+      <c r="N2" t="str">
+        <f>INDEX(U:U,MATCH(E2,V:V,0))</f>
+        <v>0000</v>
+      </c>
+      <c r="O2" t="str">
+        <f>INDEX(U:U,MATCH(F2,V:V,0))</f>
+        <v>0001</v>
+      </c>
+      <c r="P2" t="str">
+        <f>INDEX(U:U,MATCH(G2,V:V,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>INDEX(U:U,MATCH(H2,V:V,0))</f>
+        <v>0000</v>
+      </c>
+      <c r="R2" t="str">
+        <f>INDEX(U:U,MATCH(I2,V:V,0))</f>
+        <v>0000</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B20" si="0">LEFT(RIGHT(A3,8),1)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C20" si="1">LEFT(RIGHT(A3,7),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D20" si="2">LEFT(RIGHT(A3,6),1)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E20" si="3">LEFT(RIGHT(A3,5),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F20" si="4">LEFT(RIGHT(A3,4),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G20" si="5">LEFT(RIGHT(A3,3),1)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H20" si="6">LEFT(RIGHT(A3,2),1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I20" si="7">LEFT(RIGHT(A3,1),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K20" si="8">INDEX(U:U,MATCH(B3,V:V,0))</f>
+        <v>0100</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L20" si="9">INDEX(U:U,MATCH(C3,V:V,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M20" si="10">INDEX(U:U,MATCH(D3,V:V,0))</f>
+        <v>0010</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N20" si="11">INDEX(U:U,MATCH(E3,V:V,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O20" si="12">INDEX(U:U,MATCH(F3,V:V,0))</f>
+        <v>0010</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P20" si="13">INDEX(U:U,MATCH(G3,V:V,0))</f>
+        <v>1000</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q20" si="14">INDEX(U:U,MATCH(H3,V:V,0))</f>
+        <v>0000</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R20" si="15">INDEX(U:U,MATCH(I3,V:V,0))</f>
+        <v>0000</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="8"/>
+        <v>0100</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="10"/>
+        <v>0101</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="11"/>
+        <v>0000</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="12"/>
+        <v>0001</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="13"/>
+        <v>0010</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="14"/>
+        <v>0000</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="15"/>
+        <v>0000</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="8"/>
+        <v>0000</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="10"/>
+        <v>0010</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="12"/>
+        <v>0010</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="13"/>
+        <v>0100</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="14"/>
+        <v>0000</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="15"/>
+        <v>1100</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="8"/>
+        <v>0100</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="10"/>
+        <v>0011</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="11"/>
+        <v>0000</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="12"/>
+        <v>0000</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="13"/>
+        <v>0000</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="14"/>
+        <v>0000</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="8"/>
+        <v>0000</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="10"/>
+        <v>0100</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="12"/>
+        <v>0001</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="13"/>
+        <v>0010</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="14"/>
+        <v>0001</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="15"/>
+        <v>0100</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="8"/>
+        <v>0100</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="10"/>
+        <v>0101</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="11"/>
+        <v>0000</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="12"/>
+        <v>0000</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="13"/>
+        <v>0000</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="14"/>
+        <v>0001</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="15"/>
+        <v>0010</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="7"/>
+        <v>C</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="8"/>
+        <v>0010</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="10"/>
+        <v>0100</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="12"/>
+        <v>0001</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="13"/>
+        <v>0100</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="14"/>
+        <v>0001</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="15"/>
+        <v>1100</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="9"/>
+        <v>0000</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="11"/>
+        <v>0100</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="12"/>
+        <v>1010</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="13"/>
+        <v>0010</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="14"/>
+        <v>0001</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="8"/>
+        <v>1100</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>0000</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="10"/>
+        <v>0000</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="11"/>
+        <v>0000</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="12"/>
+        <v>0000</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="13"/>
+        <v>0000</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="14"/>
+        <v>0000</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="15"/>
+        <v>1010</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q12" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O14" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>0001</t>
   </si>
@@ -81,15 +81,9 @@
     <t>1001</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>COUNT</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>000011</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>000101</t>
   </si>
   <si>
@@ -243,15 +231,9 @@
     <t>9</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>001001</t>
   </si>
   <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>001010</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
     <t>001111</t>
   </si>
   <si>
-    <t>10111</t>
-  </si>
-  <si>
     <t>010000</t>
   </si>
   <si>
@@ -343,6 +322,36 @@
   </si>
   <si>
     <t>C000000A</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>01100</t>
+  </si>
+  <si>
+    <t>01101</t>
+  </si>
+  <si>
+    <t>01110</t>
+  </si>
+  <si>
+    <t>01111</t>
+  </si>
+  <si>
+    <t>BITSHIFT</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>AND OP</t>
+  </si>
+  <si>
+    <t>OR OP</t>
   </si>
 </sst>
 </file>
@@ -742,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,64 +781,64 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -837,1371 +846,1057 @@
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="3" t="str">
         <f t="shared" ref="R2:R8" si="0">B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2</f>
-        <v>10111000001100000001100000000000</v>
-      </c>
-      <c r="S2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="4" t="e">
         <f>AG2&amp;AH2&amp;AI2&amp;AJ2&amp;AK2&amp;AL2&amp;AM2&amp;AN2</f>
-        <v>B8301800</v>
+        <v>#N/A</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
       </c>
       <c r="X2" t="str">
         <f t="shared" ref="X2:X16" si="1">LEFT(RIGHT(R2,32),4)</f>
-        <v>1011</v>
+        <v/>
       </c>
       <c r="Y2" t="str">
         <f t="shared" ref="Y2:Y16" si="2">LEFT(RIGHT(R2,28),4)</f>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z2" t="str">
         <f t="shared" ref="Z2:Z16" si="3">LEFT(RIGHT(R2,24),4)</f>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA16" si="4">LEFT(RIGHT(R2,20),4)</f>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB16" si="5">LEFT(RIGHT(R2,16),4)</f>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC2" t="str">
         <f t="shared" ref="AC2:AC16" si="6">LEFT(RIGHT(R2,12),4)</f>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD2" t="str">
         <f t="shared" ref="AD2:AD16" si="7">LEFT(RIGHT(R2,8),4)</f>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE2" t="str">
         <f t="shared" ref="AE2:AE16" si="8">LEFT(RIGHT(R2,4),4)</f>
-        <v>0000</v>
-      </c>
-      <c r="AG2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="e">
         <f t="shared" ref="AG2:AG16" si="9">INDEX(AQ:AQ,MATCH(X2,AP:AP,0))</f>
-        <v>B</v>
-      </c>
-      <c r="AH2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" t="e">
         <f t="shared" ref="AH2:AH16" si="10">INDEX(AQ:AQ,MATCH(Y2,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI2" t="e">
         <f t="shared" ref="AI2:AI16" si="11">INDEX(AQ:AQ,MATCH(Z2,AP:AP,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ2" t="e">
         <f t="shared" ref="AJ2:AJ16" si="12">INDEX(AQ:AQ,MATCH(AA2,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" t="e">
         <f t="shared" ref="AK2:AK16" si="13">INDEX(AQ:AQ,MATCH(AB2,AP:AP,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL2" t="e">
         <f t="shared" ref="AL2:AL16" si="14">INDEX(AQ:AQ,MATCH(AC2,AP:AP,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AM2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM2" t="e">
         <f t="shared" ref="AM2:AM16" si="15">INDEX(AQ:AQ,MATCH(AD2,AP:AP,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" t="e">
         <f t="shared" ref="AN2:AN16" si="16">INDEX(AQ:AQ,MATCH(AE2,AP:AP,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001010000010100000000000</v>
-      </c>
-      <c r="S3" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S3" s="4" t="e">
         <f t="shared" ref="S3:S8" si="17">AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3&amp;AM3&amp;AN3</f>
-        <v>48282800</v>
+        <v>#N/A</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
         <v>4</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA3" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AC3" t="str">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AD3" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH3" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI3" t="e">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AJ3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ3" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK3" t="e">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AL3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL3" t="e">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AM3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM3" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN3" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000001001000000000</v>
-      </c>
-      <c r="S4" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S4" s="4" t="e">
         <f t="shared" si="17"/>
-        <v>48501200</v>
+        <v>#N/A</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v/>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH4" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI4" t="e">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AJ4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ4" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK4" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL4" t="e">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AM4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM4" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN4" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000001010000010010000001100</v>
-      </c>
-      <c r="S5" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S5" s="4" t="e">
         <f t="shared" si="17"/>
-        <v>0828240C</v>
+        <v>#N/A</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
         <v>6</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="5"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH5" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI5" t="e">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ5" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" t="e">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AL5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL5" t="e">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM5" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN5" t="e">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>#N/A</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000001100000000000000001010</v>
-      </c>
-      <c r="S6" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S6" s="4" t="e">
         <f t="shared" si="17"/>
-        <v>4830000A</v>
+        <v>#N/A</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
         <v>7</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="3"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH6" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" t="e">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ6" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK6" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM6" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN6" t="e">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>00001000010010000001001000010100</v>
-      </c>
-      <c r="S7" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S7" s="4" t="e">
         <f t="shared" si="17"/>
-        <v>08481214</v>
+        <v>#N/A</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="8"/>
-        <v>0100</v>
-      </c>
-      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH7" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" t="e">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ7" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" t="e">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AM7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM7" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN7" t="e">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>01001000010100000000000000010010</v>
-      </c>
-      <c r="S8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S8" s="4" t="e">
         <f t="shared" si="17"/>
-        <v>48500012</v>
+        <v>#N/A</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
         <v>8</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="1"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="3"/>
-        <v>0101</v>
+        <v/>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AG8" t="str">
+        <v/>
+      </c>
+      <c r="AG8" t="e">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AH8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH8" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" t="e">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AJ8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ8" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK8" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL8" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM8" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN8" t="e">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="3" t="str">
         <f t="shared" ref="R9:R12" si="18">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9</f>
-        <v>00101000010010000001010000011100</v>
-      </c>
-      <c r="S9" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S9" s="4" t="e">
         <f t="shared" ref="S9:S17" si="19">AG9&amp;AH9&amp;AI9&amp;AJ9&amp;AK9&amp;AL9&amp;AM9&amp;AN9</f>
-        <v>2848141C</v>
+        <v>#N/A</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
         <v>9</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="3"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="5"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="AG9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="e">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AH9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="e">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AI9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="e">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AJ9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ9" t="e">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AK9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AL9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL9" t="e">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AM9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM9" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN9" t="e">
         <f t="shared" si="16"/>
-        <v>C</v>
+        <v>#N/A</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>30</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
       <c r="R10" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>00110000100001001010001000011010</v>
-      </c>
-      <c r="S10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S10" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>3084A21A</v>
+        <v>#N/A</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
-        <v>0011</v>
+        <v/>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v/>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v/>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="5"/>
-        <v>1010</v>
+        <v/>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v/>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="7"/>
-        <v>0001</v>
+        <v/>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="e">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AH10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AJ10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AK10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AL10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="e">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AM10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM10" t="e">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" t="e">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>11000000000000000000000000001010</v>
-      </c>
-      <c r="S11" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S11" s="4" t="e">
         <f t="shared" si="19"/>
-        <v>C000000A</v>
+        <v>#N/A</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" t="s">
+        <v>105</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v/>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v/>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="8"/>
-        <v>1010</v>
-      </c>
-      <c r="AG11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="e">
         <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="AH11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI11" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ11" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL11" t="e">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AM11" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN11" t="e">
         <f t="shared" si="16"/>
-        <v>A</v>
+        <v>#N/A</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -2227,6 +1922,12 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
+      <c r="U12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" t="s">
+        <v>106</v>
+      </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2292,15 +1993,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AQ12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -2326,6 +2027,12 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2391,15 +2098,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AQ13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -2425,6 +2132,12 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
+      <c r="U14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="s">
+        <v>108</v>
+      </c>
       <c r="X14" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2490,15 +2203,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AQ14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -2524,6 +2237,9 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="X15" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2589,15 +2305,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AQ15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -2623,6 +2339,9 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
+      <c r="U16" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="X16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2688,15 +2407,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AQ16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -2787,15 +2506,15 @@
         <v>#N/A</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AQ17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -2889,7 +2608,7 @@
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -2982,7 +2701,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -3075,7 +2794,7 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -3168,7 +2887,7 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -3261,7 +2980,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -3354,7 +3073,7 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -3447,7 +3166,7 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -3540,7 +3259,7 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -3633,7 +3352,7 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -3726,7 +3445,7 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -3819,7 +3538,7 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -3912,7 +3631,7 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -4027,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
@@ -4039,7 +3758,7 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(RIGHT(A2,8),1)</f>
@@ -4106,15 +3825,15 @@
         <v>0000</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B20" si="0">LEFT(RIGHT(A3,8),1)</f>
@@ -4184,12 +3903,12 @@
         <v>0</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -4259,12 +3978,12 @@
         <v>10</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -4334,12 +4053,12 @@
         <v>11</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -4409,12 +4128,12 @@
         <v>12</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -4484,12 +4203,12 @@
         <v>13</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -4559,12 +4278,12 @@
         <v>14</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -4634,12 +4353,12 @@
         <v>15</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -4709,12 +4428,12 @@
         <v>16</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -4784,7 +4503,7 @@
         <v>17</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -4853,10 +4572,10 @@
         <v>#N/A</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -4925,10 +4644,10 @@
         <v>#N/A</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4997,10 +4716,10 @@
         <v>#N/A</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -5069,10 +4788,10 @@
         <v>#N/A</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -5141,10 +4860,10 @@
         <v>#N/A</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -5213,10 +4932,10 @@
         <v>#N/A</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="HEX TO BIN" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="HEX TO BIN" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
   <si>
     <t>0001</t>
   </si>
@@ -352,6 +354,135 @@
   </si>
   <si>
     <t>OR OP</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>011110</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>NO INSTR</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>UNDEF1</t>
+  </si>
+  <si>
+    <t>UNDEF2</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>A GRT B</t>
+  </si>
+  <si>
+    <t>A SML B</t>
+  </si>
+  <si>
+    <t>A EQL B</t>
+  </si>
+  <si>
+    <t>MEM A</t>
+  </si>
+  <si>
+    <t>MEM B</t>
+  </si>
+  <si>
+    <t>MEM C</t>
+  </si>
+  <si>
+    <t>W/R/P</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -439,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,6 +600,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,6 +3877,1009 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" t="str">
+        <f>INDEX(Sheet2!B:B,MATCH(B2,Sheet2!A:A,0))</f>
+        <v>00000</v>
+      </c>
+      <c r="N2" t="str">
+        <f>INDEX(Sheet2!E:E,MATCH(D2,Sheet2!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="P2" t="str">
+        <f>INDEX(Sheet2!E:E,MATCH(F2,Sheet2!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="R2" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H2,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" t="str">
+        <f>INDEX(Sheet2!B:B,MATCH(B3,Sheet2!A:A,0))</f>
+        <v>00100</v>
+      </c>
+      <c r="N3" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D3,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F3,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R3" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H3,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B4,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N4" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D4,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F4,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R4" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H4,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B5,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D5,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F5,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R5" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H5,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B6,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D6,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" t="str">
+        <f>INDEX(Sheet2!E:E,MATCH(F6,Sheet2!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="R6" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H6,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B7,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D7,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F7,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R7" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H7,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B8,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D8,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F8,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H8,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B9,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D9,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F9,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R9" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H9,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B10,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D10,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F10,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H10,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B11,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D11,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F11,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H11,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B12,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D12,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F12,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H12,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B13,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D13,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F13,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R13" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H13,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B14,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D14,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F14,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R14" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H14,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B15,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D15,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F15,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H15,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B16,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D16,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F16,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H16,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B17,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D17,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F17,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H17,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B18,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D18,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F18,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H18,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B19,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D19,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F19,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H19,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B20,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D20,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F20,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H20,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B21,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D21,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F21,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H21,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B22,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D22,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F22,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H22,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B23,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D23,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F23,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H23,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B24,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D24,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F24,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H24,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B25,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D25,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F25,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H25,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B26,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D26,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F26,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H26,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B27,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D27,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F27,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R27" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H27,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B28,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D28,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F28,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H28,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B29,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D29,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F29,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H29,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B30,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D30,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F30,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H30,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B31,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N31" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D31,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F31,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R31" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H31,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" t="e">
+        <f>INDEX(Sheet2!B:B,MATCH(B32,Sheet2!A:A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(D32,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(F32,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" t="e">
+        <f>INDEX(Sheet2!E:E,MATCH(H32,Sheet2!D:D,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="154">
   <si>
     <t>0001</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>101101</t>
   </si>
 </sst>
 </file>
@@ -884,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +3896,7 @@
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -3915,8 +3921,14 @@
       <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3941,8 +3953,14 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +3985,14 @@
       <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3993,8 +4017,14 @@
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -4014,8 +4044,14 @@
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -4034,8 +4070,14 @@
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4054,77 +4096,137 @@
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,15 +4245,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="36.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -4177,674 +4282,2277 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
       </c>
+      <c r="C2" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="D2" t="s">
         <v>118</v>
       </c>
+      <c r="E2" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
       </c>
       <c r="L2" t="str">
         <f>INDEX(Sheet2!B:B,MATCH(B2,Sheet2!A:A,0))</f>
         <v>00000</v>
       </c>
+      <c r="M2" t="str">
+        <f>IF(ISNUMBER(MATCH(C2,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C2,Sheet2!G:G,0)),C2)</f>
+        <v>000000</v>
+      </c>
       <c r="N2" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(D2,Sheet2!D:D,0))</f>
         <v>000</v>
       </c>
+      <c r="O2" t="str">
+        <f>IF(ISNUMBER(MATCH(E2,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E2,Sheet2!H:H,0)),E2)</f>
+        <v>000000</v>
+      </c>
       <c r="P2" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(F2,Sheet2!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="R2" t="e">
+        <v>000</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(ISNUMBER(MATCH(G2,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G2,Sheet2!I:I,0)),G2)</f>
+        <v>000000</v>
+      </c>
+      <c r="R2" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(H2,Sheet2!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>000</v>
+      </c>
+      <c r="T2" t="str">
+        <f>L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2</f>
+        <v>00000000000000000000000000000000</v>
+      </c>
+      <c r="V2" t="str">
+        <f>MID(T2,1,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="W2" t="str">
+        <f>MID(T2,5,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="X2" t="str">
+        <f>MID(T2,9,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>MID(T2,13,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>MID(T2,17,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>MID(T2,21,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>MID(T2,25,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>MID(T2,29,4)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
       </c>
       <c r="L3" t="str">
         <f>INDEX(Sheet2!B:B,MATCH(B3,Sheet2!A:A,0))</f>
-        <v>00100</v>
-      </c>
-      <c r="N3" t="e">
+        <v>00001</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(ISNUMBER(MATCH(C3,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C3,Sheet2!G:G,0)),C3)</f>
+        <v>010010</v>
+      </c>
+      <c r="N3" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(D3,Sheet2!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
+        <v>001</v>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(ISNUMBER(MATCH(E3,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E3,Sheet2!H:H,0)),E3)</f>
+        <v>101101</v>
+      </c>
+      <c r="P3" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(F3,Sheet2!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R3" t="e">
+        <v>001</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(ISNUMBER(MATCH(G3,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G3,Sheet2!I:I,0)),G3)</f>
+        <v>000001</v>
+      </c>
+      <c r="R3" t="str">
         <f>INDEX(Sheet2!E:E,MATCH(H3,Sheet2!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T32" si="0">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
+        <v>00001010010001101101001000001100</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V32" si="1">MID(T3,1,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W32" si="2">MID(T3,5,4)</f>
+        <v>1010</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X32" si="3">MID(T3,9,4)</f>
+        <v>0100</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y32" si="4">MID(T3,13,4)</f>
+        <v>0110</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z32" si="5">MID(T3,17,4)</f>
+        <v>1101</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA32" si="6">MID(T3,21,4)</f>
+        <v>0010</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB32" si="7">MID(T3,25,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AC32" si="8">MID(T3,29,4)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
+      <c r="C4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="L4" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B4,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M4">
+        <f>IF(ISNUMBER(MATCH(C4,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C4,Sheet2!G:G,0)),C4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D4,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O4">
+        <f>IF(ISNUMBER(MATCH(E4,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E4,Sheet2!H:H,0)),E4)</f>
+        <v>0</v>
+      </c>
       <c r="P4" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F4,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q4">
+        <f>IF(ISNUMBER(MATCH(G4,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G4,Sheet2!I:I,0)),G4)</f>
+        <v>0</v>
+      </c>
       <c r="R4" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H4,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
+      <c r="C5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="L5" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B5,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M5">
+        <f>IF(ISNUMBER(MATCH(C5,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C5,Sheet2!G:G,0)),C5)</f>
+        <v>0</v>
+      </c>
       <c r="N5" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D5,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O5">
+        <f>IF(ISNUMBER(MATCH(E5,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E5,Sheet2!H:H,0)),E5)</f>
+        <v>0</v>
+      </c>
       <c r="P5" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F5,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q5">
+        <f>IF(ISNUMBER(MATCH(G5,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G5,Sheet2!I:I,0)),G5)</f>
+        <v>0</v>
+      </c>
       <c r="R5" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H5,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
+      <c r="C6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="L6" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B6,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M6">
+        <f>IF(ISNUMBER(MATCH(C6,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C6,Sheet2!G:G,0)),C6)</f>
+        <v>0</v>
+      </c>
       <c r="N6" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D6,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P6" t="str">
+      <c r="O6">
+        <f>IF(ISNUMBER(MATCH(E6,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E6,Sheet2!H:H,0)),E6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F6,Sheet2!D:D,0))</f>
-        <v>010</v>
+        <v>#N/A</v>
+      </c>
+      <c r="Q6">
+        <f>IF(ISNUMBER(MATCH(G6,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G6,Sheet2!I:I,0)),G6)</f>
+        <v>0</v>
       </c>
       <c r="R6" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H6,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
+      <c r="C7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="L7" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B7,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M7">
+        <f>IF(ISNUMBER(MATCH(C7,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C7,Sheet2!G:G,0)),C7)</f>
+        <v>0</v>
+      </c>
       <c r="N7" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D7,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O7">
+        <f>IF(ISNUMBER(MATCH(E7,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E7,Sheet2!H:H,0)),E7)</f>
+        <v>0</v>
+      </c>
       <c r="P7" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F7,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q7">
+        <f>IF(ISNUMBER(MATCH(G7,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G7,Sheet2!I:I,0)),G7)</f>
+        <v>0</v>
+      </c>
       <c r="R7" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H7,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC7" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
+      <c r="C8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="L8" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B8,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M8">
+        <f>IF(ISNUMBER(MATCH(C8,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C8,Sheet2!G:G,0)),C8)</f>
+        <v>0</v>
+      </c>
       <c r="N8" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D8,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O8">
+        <f>IF(ISNUMBER(MATCH(E8,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E8,Sheet2!H:H,0)),E8)</f>
+        <v>0</v>
+      </c>
       <c r="P8" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F8,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q8">
+        <f>IF(ISNUMBER(MATCH(G8,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G8,Sheet2!I:I,0)),G8)</f>
+        <v>0</v>
+      </c>
       <c r="R8" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H8,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X8" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
+      <c r="C9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="L9" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B9,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M9">
+        <f>IF(ISNUMBER(MATCH(C9,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C9,Sheet2!G:G,0)),C9)</f>
+        <v>0</v>
+      </c>
       <c r="N9" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D9,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O9">
+        <f>IF(ISNUMBER(MATCH(E9,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E9,Sheet2!H:H,0)),E9)</f>
+        <v>0</v>
+      </c>
       <c r="P9" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F9,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q9">
+        <f>IF(ISNUMBER(MATCH(G9,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G9,Sheet2!I:I,0)),G9)</f>
+        <v>0</v>
+      </c>
       <c r="R9" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H9,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X9" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y9" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z9" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC9" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
+      <c r="C10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="L10" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B10,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M10">
+        <f>IF(ISNUMBER(MATCH(C10,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C10,Sheet2!G:G,0)),C10)</f>
+        <v>0</v>
+      </c>
       <c r="N10" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D10,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O10">
+        <f>IF(ISNUMBER(MATCH(E10,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E10,Sheet2!H:H,0)),E10)</f>
+        <v>0</v>
+      </c>
       <c r="P10" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F10,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q10">
+        <f>IF(ISNUMBER(MATCH(G10,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G10,Sheet2!I:I,0)),G10)</f>
+        <v>0</v>
+      </c>
       <c r="R10" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H10,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC10" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
+      <c r="C11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="L11" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B11,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M11">
+        <f>IF(ISNUMBER(MATCH(C11,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C11,Sheet2!G:G,0)),C11)</f>
+        <v>0</v>
+      </c>
       <c r="N11" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D11,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O11">
+        <f>IF(ISNUMBER(MATCH(E11,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E11,Sheet2!H:H,0)),E11)</f>
+        <v>0</v>
+      </c>
       <c r="P11" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F11,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q11">
+        <f>IF(ISNUMBER(MATCH(G11,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G11,Sheet2!I:I,0)),G11)</f>
+        <v>0</v>
+      </c>
       <c r="R11" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H11,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="L12" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B12,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M12">
+        <f>IF(ISNUMBER(MATCH(C12,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C12,Sheet2!G:G,0)),C12)</f>
+        <v>0</v>
+      </c>
       <c r="N12" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D12,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O12">
+        <f>IF(ISNUMBER(MATCH(E12,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E12,Sheet2!H:H,0)),E12)</f>
+        <v>0</v>
+      </c>
       <c r="P12" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F12,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q12">
+        <f>IF(ISNUMBER(MATCH(G12,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G12,Sheet2!I:I,0)),G12)</f>
+        <v>0</v>
+      </c>
       <c r="R12" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H12,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC12" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
+      <c r="C13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="L13" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B13,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M13">
+        <f>IF(ISNUMBER(MATCH(C13,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C13,Sheet2!G:G,0)),C13)</f>
+        <v>0</v>
+      </c>
       <c r="N13" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D13,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O13">
+        <f>IF(ISNUMBER(MATCH(E13,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E13,Sheet2!H:H,0)),E13)</f>
+        <v>0</v>
+      </c>
       <c r="P13" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F13,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q13">
+        <f>IF(ISNUMBER(MATCH(G13,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G13,Sheet2!I:I,0)),G13)</f>
+        <v>0</v>
+      </c>
       <c r="R13" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H13,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W13" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
+      <c r="C14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="L14" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B14,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M14">
+        <f>IF(ISNUMBER(MATCH(C14,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C14,Sheet2!G:G,0)),C14)</f>
+        <v>0</v>
+      </c>
       <c r="N14" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D14,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O14">
+        <f>IF(ISNUMBER(MATCH(E14,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E14,Sheet2!H:H,0)),E14)</f>
+        <v>0</v>
+      </c>
       <c r="P14" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F14,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q14">
+        <f>IF(ISNUMBER(MATCH(G14,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G14,Sheet2!I:I,0)),G14)</f>
+        <v>0</v>
+      </c>
       <c r="R14" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H14,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
+      <c r="C15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="L15" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B15,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M15">
+        <f>IF(ISNUMBER(MATCH(C15,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C15,Sheet2!G:G,0)),C15)</f>
+        <v>0</v>
+      </c>
       <c r="N15" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D15,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O15">
+        <f>IF(ISNUMBER(MATCH(E15,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E15,Sheet2!H:H,0)),E15)</f>
+        <v>0</v>
+      </c>
       <c r="P15" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F15,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q15">
+        <f>IF(ISNUMBER(MATCH(G15,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G15,Sheet2!I:I,0)),G15)</f>
+        <v>0</v>
+      </c>
       <c r="R15" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H15,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC15" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
+      <c r="C16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="L16" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B16,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M16">
+        <f>IF(ISNUMBER(MATCH(C16,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C16,Sheet2!G:G,0)),C16)</f>
+        <v>0</v>
+      </c>
       <c r="N16" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D16,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O16">
+        <f>IF(ISNUMBER(MATCH(E16,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E16,Sheet2!H:H,0)),E16)</f>
+        <v>0</v>
+      </c>
       <c r="P16" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F16,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q16">
+        <f>IF(ISNUMBER(MATCH(G16,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G16,Sheet2!I:I,0)),G16)</f>
+        <v>0</v>
+      </c>
       <c r="R16" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H16,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W16" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC16" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
+      <c r="C17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="L17" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B17,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M17">
+        <f>IF(ISNUMBER(MATCH(C17,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C17,Sheet2!G:G,0)),C17)</f>
+        <v>0</v>
+      </c>
       <c r="N17" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D17,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O17">
+        <f>IF(ISNUMBER(MATCH(E17,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E17,Sheet2!H:H,0)),E17)</f>
+        <v>0</v>
+      </c>
       <c r="P17" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F17,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q17">
+        <f>IF(ISNUMBER(MATCH(G17,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G17,Sheet2!I:I,0)),G17)</f>
+        <v>0</v>
+      </c>
       <c r="R17" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H17,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC17" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
+      <c r="C18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="L18" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B18,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M18">
+        <f>IF(ISNUMBER(MATCH(C18,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C18,Sheet2!G:G,0)),C18)</f>
+        <v>0</v>
+      </c>
       <c r="N18" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D18,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O18">
+        <f>IF(ISNUMBER(MATCH(E18,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E18,Sheet2!H:H,0)),E18)</f>
+        <v>0</v>
+      </c>
       <c r="P18" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F18,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q18">
+        <f>IF(ISNUMBER(MATCH(G18,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G18,Sheet2!I:I,0)),G18)</f>
+        <v>0</v>
+      </c>
       <c r="R18" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H18,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
+      <c r="C19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="L19" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B19,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M19">
+        <f>IF(ISNUMBER(MATCH(C19,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C19,Sheet2!G:G,0)),C19)</f>
+        <v>0</v>
+      </c>
       <c r="N19" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D19,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O19">
+        <f>IF(ISNUMBER(MATCH(E19,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E19,Sheet2!H:H,0)),E19)</f>
+        <v>0</v>
+      </c>
       <c r="P19" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F19,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q19">
+        <f>IF(ISNUMBER(MATCH(G19,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G19,Sheet2!I:I,0)),G19)</f>
+        <v>0</v>
+      </c>
       <c r="R19" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H19,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
+      <c r="C20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="L20" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B20,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M20">
+        <f>IF(ISNUMBER(MATCH(C20,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C20,Sheet2!G:G,0)),C20)</f>
+        <v>0</v>
+      </c>
       <c r="N20" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D20,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O20">
+        <f>IF(ISNUMBER(MATCH(E20,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E20,Sheet2!H:H,0)),E20)</f>
+        <v>0</v>
+      </c>
       <c r="P20" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F20,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q20">
+        <f>IF(ISNUMBER(MATCH(G20,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G20,Sheet2!I:I,0)),G20)</f>
+        <v>0</v>
+      </c>
       <c r="R20" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H20,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
+      <c r="C21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="L21" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B21,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M21">
+        <f>IF(ISNUMBER(MATCH(C21,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C21,Sheet2!G:G,0)),C21)</f>
+        <v>0</v>
+      </c>
       <c r="N21" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D21,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O21">
+        <f>IF(ISNUMBER(MATCH(E21,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E21,Sheet2!H:H,0)),E21)</f>
+        <v>0</v>
+      </c>
       <c r="P21" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F21,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q21">
+        <f>IF(ISNUMBER(MATCH(G21,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G21,Sheet2!I:I,0)),G21)</f>
+        <v>0</v>
+      </c>
       <c r="R21" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H21,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
+      <c r="C22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="L22" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B22,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M22">
+        <f>IF(ISNUMBER(MATCH(C22,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C22,Sheet2!G:G,0)),C22)</f>
+        <v>0</v>
+      </c>
       <c r="N22" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D22,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O22">
+        <f>IF(ISNUMBER(MATCH(E22,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E22,Sheet2!H:H,0)),E22)</f>
+        <v>0</v>
+      </c>
       <c r="P22" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F22,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q22">
+        <f>IF(ISNUMBER(MATCH(G22,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G22,Sheet2!I:I,0)),G22)</f>
+        <v>0</v>
+      </c>
       <c r="R22" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H22,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
+      <c r="C23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="L23" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B23,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M23">
+        <f>IF(ISNUMBER(MATCH(C23,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C23,Sheet2!G:G,0)),C23)</f>
+        <v>0</v>
+      </c>
       <c r="N23" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D23,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O23">
+        <f>IF(ISNUMBER(MATCH(E23,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E23,Sheet2!H:H,0)),E23)</f>
+        <v>0</v>
+      </c>
       <c r="P23" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F23,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q23">
+        <f>IF(ISNUMBER(MATCH(G23,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G23,Sheet2!I:I,0)),G23)</f>
+        <v>0</v>
+      </c>
       <c r="R23" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H23,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
+      <c r="C24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="L24" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B24,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M24">
+        <f>IF(ISNUMBER(MATCH(C24,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C24,Sheet2!G:G,0)),C24)</f>
+        <v>0</v>
+      </c>
       <c r="N24" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D24,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O24">
+        <f>IF(ISNUMBER(MATCH(E24,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E24,Sheet2!H:H,0)),E24)</f>
+        <v>0</v>
+      </c>
       <c r="P24" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F24,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q24">
+        <f>IF(ISNUMBER(MATCH(G24,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G24,Sheet2!I:I,0)),G24)</f>
+        <v>0</v>
+      </c>
       <c r="R24" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H24,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
+      <c r="C25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="L25" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B25,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M25">
+        <f>IF(ISNUMBER(MATCH(C25,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C25,Sheet2!G:G,0)),C25)</f>
+        <v>0</v>
+      </c>
       <c r="N25" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D25,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O25">
+        <f>IF(ISNUMBER(MATCH(E25,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E25,Sheet2!H:H,0)),E25)</f>
+        <v>0</v>
+      </c>
       <c r="P25" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F25,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q25">
+        <f>IF(ISNUMBER(MATCH(G25,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G25,Sheet2!I:I,0)),G25)</f>
+        <v>0</v>
+      </c>
       <c r="R25" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H25,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
+      <c r="C26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="L26" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B26,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M26">
+        <f>IF(ISNUMBER(MATCH(C26,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C26,Sheet2!G:G,0)),C26)</f>
+        <v>0</v>
+      </c>
       <c r="N26" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D26,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O26">
+        <f>IF(ISNUMBER(MATCH(E26,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E26,Sheet2!H:H,0)),E26)</f>
+        <v>0</v>
+      </c>
       <c r="P26" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F26,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q26">
+        <f>IF(ISNUMBER(MATCH(G26,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G26,Sheet2!I:I,0)),G26)</f>
+        <v>0</v>
+      </c>
       <c r="R26" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H26,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
+      <c r="C27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="L27" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B27,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M27">
+        <f>IF(ISNUMBER(MATCH(C27,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C27,Sheet2!G:G,0)),C27)</f>
+        <v>0</v>
+      </c>
       <c r="N27" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D27,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O27">
+        <f>IF(ISNUMBER(MATCH(E27,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E27,Sheet2!H:H,0)),E27)</f>
+        <v>0</v>
+      </c>
       <c r="P27" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F27,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q27">
+        <f>IF(ISNUMBER(MATCH(G27,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G27,Sheet2!I:I,0)),G27)</f>
+        <v>0</v>
+      </c>
       <c r="R27" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H27,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
+      <c r="C28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="L28" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B28,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M28">
+        <f>IF(ISNUMBER(MATCH(C28,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C28,Sheet2!G:G,0)),C28)</f>
+        <v>0</v>
+      </c>
       <c r="N28" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D28,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O28">
+        <f>IF(ISNUMBER(MATCH(E28,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E28,Sheet2!H:H,0)),E28)</f>
+        <v>0</v>
+      </c>
       <c r="P28" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F28,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q28">
+        <f>IF(ISNUMBER(MATCH(G28,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G28,Sheet2!I:I,0)),G28)</f>
+        <v>0</v>
+      </c>
       <c r="R28" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H28,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
+      <c r="C29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="L29" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B29,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M29">
+        <f>IF(ISNUMBER(MATCH(C29,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C29,Sheet2!G:G,0)),C29)</f>
+        <v>0</v>
+      </c>
       <c r="N29" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D29,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O29">
+        <f>IF(ISNUMBER(MATCH(E29,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E29,Sheet2!H:H,0)),E29)</f>
+        <v>0</v>
+      </c>
       <c r="P29" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F29,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q29">
+        <f>IF(ISNUMBER(MATCH(G29,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G29,Sheet2!I:I,0)),G29)</f>
+        <v>0</v>
+      </c>
       <c r="R29" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H29,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
+      <c r="C30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="L30" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B30,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M30">
+        <f>IF(ISNUMBER(MATCH(C30,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C30,Sheet2!G:G,0)),C30)</f>
+        <v>0</v>
+      </c>
       <c r="N30" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D30,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O30">
+        <f>IF(ISNUMBER(MATCH(E30,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E30,Sheet2!H:H,0)),E30)</f>
+        <v>0</v>
+      </c>
       <c r="P30" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F30,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q30">
+        <f>IF(ISNUMBER(MATCH(G30,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G30,Sheet2!I:I,0)),G30)</f>
+        <v>0</v>
+      </c>
       <c r="R30" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H30,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="C31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="L31" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B31,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M31">
+        <f>IF(ISNUMBER(MATCH(C31,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C31,Sheet2!G:G,0)),C31)</f>
+        <v>0</v>
+      </c>
       <c r="N31" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D31,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O31">
+        <f>IF(ISNUMBER(MATCH(E31,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E31,Sheet2!H:H,0)),E31)</f>
+        <v>0</v>
+      </c>
       <c r="P31" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F31,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q31">
+        <f>IF(ISNUMBER(MATCH(G31,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G31,Sheet2!I:I,0)),G31)</f>
+        <v>0</v>
+      </c>
       <c r="R31" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H31,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB31" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC31" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="C32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="L32" t="e">
         <f>INDEX(Sheet2!B:B,MATCH(B32,Sheet2!A:A,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="M32">
+        <f>IF(ISNUMBER(MATCH(C32,Sheet2!G:G,0)),INDEX(Sheet2!J:J,MATCH(C32,Sheet2!G:G,0)),C32)</f>
+        <v>0</v>
+      </c>
       <c r="N32" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(D32,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="O32">
+        <f>IF(ISNUMBER(MATCH(E32,Sheet2!H:H,0)),INDEX(Sheet2!J:J,MATCH(E32,Sheet2!H:H,0)),E32)</f>
+        <v>0</v>
+      </c>
       <c r="P32" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(F32,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="Q32">
+        <f>IF(ISNUMBER(MATCH(G32,Sheet2!I:I,0)),INDEX(Sheet2!J:J,MATCH(G32,Sheet2!I:I,0)),G32)</f>
+        <v>0</v>
+      </c>
       <c r="R32" t="e">
         <f>INDEX(Sheet2!E:E,MATCH(H32,Sheet2!D:D,0))</f>
         <v>#N/A</v>
       </c>
+      <c r="T32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB32" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC32" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="160">
   <si>
     <t>0001</t>
   </si>
@@ -492,6 +492,21 @@
   </si>
   <si>
     <t>BIN</t>
+  </si>
+  <si>
+    <t>HALT INPUT</t>
+  </si>
+  <si>
+    <t>10111</t>
+  </si>
+  <si>
+    <t>HALT OUTPUT</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -925,12 +940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="27"/>
     <col min="4" max="4" width="9.140625" style="29"/>
     <col min="5" max="5" width="9.140625" style="31"/>
@@ -938,7 +954,7 @@
     <col min="7" max="7" width="9.140625" style="32"/>
     <col min="8" max="8" width="9.140625" style="29"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="47.7109375" customWidth="1"/>
+    <col min="10" max="10" width="70.7109375" customWidth="1"/>
     <col min="20" max="20" width="36.42578125" customWidth="1"/>
     <col min="40" max="40" width="12" customWidth="1"/>
   </cols>
@@ -980,19 +996,19 @@
         <v>118</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>118</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>118</v>
@@ -1106,232 +1122,260 @@
       <c r="A3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25" t="e">
+      <c r="B3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="25" t="str">
         <f t="shared" ref="I3:I32" si="0">AN3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="e">
+        <v>B8301800</v>
+      </c>
+      <c r="L3" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M3">
+        <v>10111</v>
+      </c>
+      <c r="M3" t="str">
         <f>IF(ISNUMBER(MATCH(C3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C3,'HEX GEN BACKEND'!G:G,0)),C3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="O3" t="str">
         <f>IF(ISNUMBER(MATCH(E3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E3,'HEX GEN BACKEND'!H:H,0)),E3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="str">
         <f>IF(ISNUMBER(MATCH(G3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G3,'HEX GEN BACKEND'!I:I,0)),G3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
+        <v>000</v>
+      </c>
+      <c r="T3" t="str">
         <f t="shared" ref="T3:T32" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V3" t="e">
+        <v>10111000001100000001100000000000</v>
+      </c>
+      <c r="V3" t="str">
         <f t="shared" ref="V3:V32" si="2">MID(T3,1,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W3" t="e">
+        <v>1011</v>
+      </c>
+      <c r="W3" t="str">
         <f t="shared" ref="W3:W32" si="3">MID(T3,5,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X3" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X3" t="str">
         <f t="shared" ref="X3:X32" si="4">MID(T3,9,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" t="e">
+        <v>0011</v>
+      </c>
+      <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y32" si="5">MID(T3,13,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z3" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z3" t="str">
         <f t="shared" ref="Z3:Z32" si="6">MID(T3,17,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA3" t="str">
         <f t="shared" ref="AA3:AA32" si="7">MID(T3,21,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB3" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="str">
         <f t="shared" ref="AB3:AB32" si="8">MID(T3,25,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC3" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC3" t="str">
         <f t="shared" ref="AC3:AC32" si="9">MID(T3,29,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE3" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF3" t="e">
+        <v>B</v>
+      </c>
+      <c r="AF3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG3" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH3" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ3" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK3" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN3" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN32" si="10">AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3</f>
-        <v>#N/A</v>
+        <v>B8301800</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="25" t="e">
+      <c r="B4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" t="e">
+        <v>6024140C</v>
+      </c>
+      <c r="L4" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M4">
+        <v>01100</v>
+      </c>
+      <c r="M4" t="str">
         <f>IF(ISNUMBER(MATCH(C4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C4,'HEX GEN BACKEND'!G:G,0)),C4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O4">
+        <v>001</v>
+      </c>
+      <c r="O4" t="str">
         <f>IF(ISNUMBER(MATCH(E4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E4,'HEX GEN BACKEND'!H:H,0)),E4)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4">
+        <v>010</v>
+      </c>
+      <c r="Q4" t="str">
         <f>IF(ISNUMBER(MATCH(G4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G4,'HEX GEN BACKEND'!I:I,0)),G4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
+        <v>100</v>
+      </c>
+      <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V4" t="e">
+        <v>01100000001001000001010000001100</v>
+      </c>
+      <c r="V4" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W4" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X4" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X4" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y4" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z4" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA4" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB4" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB4" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC4" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC4" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE4" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF4" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG4" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH4" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ4" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK4" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL4" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN4" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>6024140C</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -4590,7 +4634,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'HEX GEN BACKEND'!$A$1:$A$17</xm:f>
+            <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B32</xm:sqref>
         </x14:dataValidation>
@@ -4620,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,6 +4891,18 @@
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
       </c>
@@ -4972,6 +5028,22 @@
       </c>
       <c r="B17" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="159">
   <si>
     <t>0001</t>
   </si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>011110</t>
-  </si>
-  <si>
-    <t>011111</t>
   </si>
   <si>
     <t>NO INSTR</t>
@@ -602,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,13 +638,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -658,6 +653,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,80 +937,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="27"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="9.140625" style="31"/>
-    <col min="6" max="6" width="9.140625" style="29"/>
-    <col min="7" max="7" width="9.140625" style="32"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
+    <col min="3" max="4" width="9.140625" style="29"/>
+    <col min="5" max="6" width="9.140625" style="31"/>
+    <col min="7" max="8" width="9.140625" style="27"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="70.7109375" customWidth="1"/>
+    <col min="10" max="10" width="115.28515625" customWidth="1"/>
     <col min="20" max="20" width="36.42578125" customWidth="1"/>
     <col min="40" max="40" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>122</v>
+      <c r="B1" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>153</v>
+      <c r="I1" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>31</v>
+      <c r="A2" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>118</v>
+        <v>158</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="I2" s="25" t="str">
         <f>AN2</f>
@@ -1120,36 +1116,36 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>118</v>
+        <v>158</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="I3" s="25" t="str">
         <f t="shared" ref="I3:I32" si="0">AN3</f>
-        <v>B8301800</v>
+        <v>58300000</v>
       </c>
       <c r="L3" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>10111</v>
+        <v>01011</v>
       </c>
       <c r="M3" t="str">
         <f>IF(ISNUMBER(MATCH(C3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C3,'HEX GEN BACKEND'!G:G,0)),C3)</f>
@@ -1161,11 +1157,11 @@
       </c>
       <c r="O3" t="str">
         <f>IF(ISNUMBER(MATCH(E3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E3,'HEX GEN BACKEND'!H:H,0)),E3)</f>
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="P3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="Q3" t="str">
         <f>IF(ISNUMBER(MATCH(G3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G3,'HEX GEN BACKEND'!I:I,0)),G3)</f>
@@ -1177,11 +1173,11 @@
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T32" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
-        <v>10111000001100000001100000000000</v>
+        <v>01011000001100000000000000000000</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V32" si="2">MID(T3,1,4)</f>
-        <v>1011</v>
+        <v>0101</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W32" si="3">MID(T3,5,4)</f>
@@ -1197,11 +1193,11 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" ref="Z3:Z32" si="6">MID(T3,17,4)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" ref="AA3:AA32" si="7">MID(T3,21,4)</f>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" ref="AB3:AB32" si="8">MID(T3,25,4)</f>
@@ -1213,7 +1209,7 @@
       </c>
       <c r="AE3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1229,11 +1225,11 @@
       </c>
       <c r="AI3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1245,41 +1241,41 @@
       </c>
       <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN32" si="10">AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3</f>
-        <v>B8301800</v>
+        <v>58300000</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>113</v>
       </c>
       <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6024140C</v>
+        <v>0828920C</v>
       </c>
       <c r="L4" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>00001</v>
       </c>
       <c r="M4" t="str">
         <f>IF(ISNUMBER(MATCH(C4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C4,'HEX GEN BACKEND'!G:G,0)),C4)</f>
@@ -1287,15 +1283,15 @@
       </c>
       <c r="N4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ISNUMBER(MATCH(E4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E4,'HEX GEN BACKEND'!H:H,0)),E4)</f>
-        <v>000001</v>
+        <v>001001</v>
       </c>
       <c r="P4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="Q4" t="str">
         <f>IF(ISNUMBER(MATCH(G4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G4,'HEX GEN BACKEND'!I:I,0)),G4)</f>
@@ -1307,15 +1303,15 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>01100000001001000001010000001100</v>
+        <v>00001000001010001001001000001100</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="4"/>
@@ -1323,15 +1319,15 @@
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>1001</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="8"/>
@@ -1343,11 +1339,11 @@
       </c>
       <c r="AE4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1355,15 +1351,15 @@
       </c>
       <c r="AH4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1375,2224 +1371,2490 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>6024140C</v>
+        <v>0828920C</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="25" t="e">
+        <v>34</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
+        <v>0828B214</v>
+      </c>
+      <c r="L5" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M5">
+        <v>00001</v>
+      </c>
+      <c r="M5" t="str">
         <f>IF(ISNUMBER(MATCH(C5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C5,'HEX GEN BACKEND'!G:G,0)),C5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O5">
+        <v>010</v>
+      </c>
+      <c r="O5" t="str">
         <f>IF(ISNUMBER(MATCH(E5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E5,'HEX GEN BACKEND'!H:H,0)),E5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" t="e">
+        <v>001011</v>
+      </c>
+      <c r="P5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q5">
+        <v>001</v>
+      </c>
+      <c r="Q5" t="str">
         <f>IF(ISNUMBER(MATCH(G5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G5,'HEX GEN BACKEND'!I:I,0)),G5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" t="e">
+        <v>000010</v>
+      </c>
+      <c r="R5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
+        <v>100</v>
+      </c>
+      <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
+        <v>00001000001010001011001000010100</v>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
+        <v>0000</v>
+      </c>
+      <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X5" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X5" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y5" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z5" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" t="e">
+        <v>1011</v>
+      </c>
+      <c r="AA5" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB5" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB5" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC5" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC5" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE5" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF5" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG5" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH5" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI5" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ5" t="e">
+        <v>B</v>
+      </c>
+      <c r="AJ5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK5" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL5" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN5" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN5" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0828B214</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="25" t="e">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" t="e">
+        <v>4830000A</v>
+      </c>
+      <c r="L6" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M6">
+        <v>01001</v>
+      </c>
+      <c r="M6" t="str">
         <f>IF(ISNUMBER(MATCH(C6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C6,'HEX GEN BACKEND'!G:G,0)),C6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="str">
         <f>IF(ISNUMBER(MATCH(E6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E6,'HEX GEN BACKEND'!H:H,0)),E6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6">
+        <v>000</v>
+      </c>
+      <c r="Q6" t="str">
         <f>IF(ISNUMBER(MATCH(G6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G6,'HEX GEN BACKEND'!I:I,0)),G6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
+        <v>010</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="e">
+        <v>01001000001100000000000000001010</v>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X6" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0011</v>
+      </c>
+      <c r="Y6" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA6" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB6" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC6" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN6" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4830000A</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="25" t="e">
+        <v>35</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="e">
+        <v>48001812</v>
+      </c>
+      <c r="L7" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M7">
+        <v>01001</v>
+      </c>
+      <c r="M7" t="str">
         <f>IF(ISNUMBER(MATCH(C7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C7,'HEX GEN BACKEND'!G:G,0)),C7)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O7">
+        <v>000</v>
+      </c>
+      <c r="O7" t="str">
         <f>IF(ISNUMBER(MATCH(E7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E7,'HEX GEN BACKEND'!H:H,0)),E7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="str">
         <f>IF(ISNUMBER(MATCH(G7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G7,'HEX GEN BACKEND'!I:I,0)),G7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" t="e">
+        <v>000010</v>
+      </c>
+      <c r="R7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" t="e">
+        <v>010</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V7" t="e">
+        <v>01001000000000000001100000010010</v>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X7" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z7" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA7" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC7" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AE7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK7" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN7" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48001812</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="25" t="e">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" t="e">
+        <v>4804000C</v>
+      </c>
+      <c r="L8" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8">
+        <v>01001</v>
+      </c>
+      <c r="M8" t="str">
         <f>IF(ISNUMBER(MATCH(C8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C8,'HEX GEN BACKEND'!G:G,0)),C8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8">
+        <v>001</v>
+      </c>
+      <c r="O8" t="str">
         <f>IF(ISNUMBER(MATCH(E8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E8,'HEX GEN BACKEND'!H:H,0)),E8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8">
+        <v>000</v>
+      </c>
+      <c r="Q8" t="str">
         <f>IF(ISNUMBER(MATCH(G8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G8,'HEX GEN BACKEND'!I:I,0)),G8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T8" t="e">
+        <v>100</v>
+      </c>
+      <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="e">
+        <v>01001000000001000000000000001100</v>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X8" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y8" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z8" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA8" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB8" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB8" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC8" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC8" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE8" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF8" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG8" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL8" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN8" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN8" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4804000C</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="25" t="e">
+        <v>37</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
+        <v>48040014</v>
+      </c>
+      <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9">
+        <v>01001</v>
+      </c>
+      <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9">
+        <v>001</v>
+      </c>
+      <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9">
+        <v>000</v>
+      </c>
+      <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" t="e">
+        <v>000010</v>
+      </c>
+      <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T9" t="e">
+        <v>100</v>
+      </c>
+      <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V9" t="e">
+        <v>01001000000001000000000000010100</v>
+      </c>
+      <c r="V9" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W9" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X9" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA9" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB9" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC9" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE9" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF9" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG9" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK9" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL9" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN9" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48040014</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="25" t="e">
+        <v>38</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" t="e">
+        <v>C0281400</v>
+      </c>
+      <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10">
+        <v>11000</v>
+      </c>
+      <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10">
+        <v>010</v>
+      </c>
+      <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10">
+        <v>010</v>
+      </c>
+      <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" t="e">
+        <v>000</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
+        <v>11000000001010000001010000000000</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
+        <v>1100</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X10" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA10" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB10" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC10" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF10" t="e">
+        <v>C</v>
+      </c>
+      <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C0281400</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="25" t="e">
+        <v>68</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
+        <v>B8502800</v>
+      </c>
+      <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11">
+        <v>10111</v>
+      </c>
+      <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="e">
+        <v>000</v>
+      </c>
+      <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
+        <v>10111000010100000010100000000000</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
+        <v>1011</v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA11" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB11" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF11" t="e">
+        <v>B</v>
+      </c>
+      <c r="AF11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>B8502800</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="25" t="e">
+        <v>69</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e">
+        <v>6024241C</v>
+      </c>
+      <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12">
+        <v>01100</v>
+      </c>
+      <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12">
+        <v>001</v>
+      </c>
+      <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12">
+        <v>010</v>
+      </c>
+      <c r="Q12" t="str">
         <f>IF(ISNUMBER(MATCH(G12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G12,'HEX GEN BACKEND'!I:I,0)),G12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" t="e">
+        <v>100</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
+        <v>01100000001001000010010000011100</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA12" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB12" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC12" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE12" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF12" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG12" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>6024241C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="25" t="e">
+        <v>70</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="e">
+        <v>60442424</v>
+      </c>
+      <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13">
+        <v>01100</v>
+      </c>
+      <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13">
+        <v>001</v>
+      </c>
+      <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13">
+        <v>010</v>
+      </c>
+      <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" t="e">
+        <v>000100</v>
+      </c>
+      <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" t="e">
+        <v>100</v>
+      </c>
+      <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" t="e">
+        <v>01100000010001000010010000100100</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>60442424</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="25" t="e">
+        <v>71</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
+        <v>6084242C</v>
+      </c>
+      <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14">
+        <v>01100</v>
+      </c>
+      <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" t="e">
+        <v>000100</v>
+      </c>
+      <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14">
+        <v>001</v>
+      </c>
+      <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14">
+        <v>010</v>
+      </c>
+      <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" t="e">
+        <v>000101</v>
+      </c>
+      <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" t="e">
+        <v>100</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="e">
+        <v>01100000100001000010010000101100</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W14" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB14" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>6084242C</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="25" t="e">
+        <v>72</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" t="e">
+        <v>61042434</v>
+      </c>
+      <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15">
+        <v>01100</v>
+      </c>
+      <c r="M15" t="str">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" t="e">
+        <v>001000</v>
+      </c>
+      <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15">
+        <v>001</v>
+      </c>
+      <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15">
+        <v>010</v>
+      </c>
+      <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" t="e">
+        <v>100</v>
+      </c>
+      <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V15" t="e">
+        <v>01100001000001000010010000110100</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W15" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" t="e">
+        <v>0001</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB15" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC15" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE15" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF15" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG15" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>61042434</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="25" t="e">
+        <v>73</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" t="e">
+        <v>4800381A</v>
+      </c>
+      <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16">
+        <v>01001</v>
+      </c>
+      <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16">
+        <v>000</v>
+      </c>
+      <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T16" t="e">
+        <v>010</v>
+      </c>
+      <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V16" t="e">
+        <v>01001000000000000011100000011010</v>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W16" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X16" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z16" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB16" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC16" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC16" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE16" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF16" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG16" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="25" t="e">
+        <v>74</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="e">
+        <v>48004822</v>
+      </c>
+      <c r="L17" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M17">
+        <v>01001</v>
+      </c>
+      <c r="M17" t="str">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17">
+        <v>000</v>
+      </c>
+      <c r="O17" t="str">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" t="e">
+        <v>000100</v>
+      </c>
+      <c r="P17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="Q17" t="str">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" t="e">
+        <v>000100</v>
+      </c>
+      <c r="R17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" t="e">
+        <v>010</v>
+      </c>
+      <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V17" t="e">
+        <v>01001000000000000100100000100010</v>
+      </c>
+      <c r="V17" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W17" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W17" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X17" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z17" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC17" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE17" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AE17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF17" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG17" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH17" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK17" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN17" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48004822</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="25" t="e">
+        <v>75</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
+        <v>4800582A</v>
+      </c>
+      <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18">
+        <v>01001</v>
+      </c>
+      <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18">
+        <v>000</v>
+      </c>
+      <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" t="e">
+        <v>000101</v>
+      </c>
+      <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" t="e">
+        <v>000101</v>
+      </c>
+      <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" t="e">
+        <v>010</v>
+      </c>
+      <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V18" t="e">
+        <v>01001000000000000101100000101010</v>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X18" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB18" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC18" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE18" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF18" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG18" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ18" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK18" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL18" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN18" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800582A</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="25" t="e">
+        <v>76</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="e">
+        <v>48006832</v>
+      </c>
+      <c r="L19" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19">
+        <v>01001</v>
+      </c>
+      <c r="M19" t="str">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19">
+        <v>000</v>
+      </c>
+      <c r="O19" t="str">
         <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" t="e">
+        <v>000110</v>
+      </c>
+      <c r="P19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="str">
         <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" t="e">
+        <v>010</v>
+      </c>
+      <c r="T19" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V19" t="e">
+        <v>01001000000000000110100000110010</v>
+      </c>
+      <c r="V19" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z19" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AA19" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC19" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AE19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF19" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG19" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ19" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK19" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL19" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN19" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48006832</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="25" t="e">
+        <v>77</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="e">
+        <v>5048341C</v>
+      </c>
+      <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20">
+        <v>01010</v>
+      </c>
+      <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20">
+        <v>010</v>
+      </c>
+      <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20">
+        <v>010</v>
+      </c>
+      <c r="Q20" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" t="e">
+        <v>100</v>
+      </c>
+      <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="e">
+        <v>01010000010010000011010000011100</v>
+      </c>
+      <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" t="e">
+        <v>0101</v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA20" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB20" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC20" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF20" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG20" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN20" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>5048341C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="25" t="e">
+        <v>78</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="e">
+        <v>50484424</v>
+      </c>
+      <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21">
+        <v>01010</v>
+      </c>
+      <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21">
+        <v>010</v>
+      </c>
+      <c r="O21" t="str">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" t="e">
+        <v>000100</v>
+      </c>
+      <c r="P21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21">
+        <v>010</v>
+      </c>
+      <c r="Q21" t="str">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" t="e">
+        <v>000100</v>
+      </c>
+      <c r="R21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" t="e">
+        <v>100</v>
+      </c>
+      <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V21" t="e">
+        <v>01010000010010000100010000100100</v>
+      </c>
+      <c r="V21" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" t="e">
+        <v>0101</v>
+      </c>
+      <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB21" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF21" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG21" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL21" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN21" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>50484424</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="25" t="e">
+        <v>79</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
+        <v>5048542C</v>
+      </c>
+      <c r="L22" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22">
+        <v>01010</v>
+      </c>
+      <c r="M22" t="str">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22">
+        <v>010</v>
+      </c>
+      <c r="O22" t="str">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" t="e">
+        <v>000101</v>
+      </c>
+      <c r="P22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22">
+        <v>010</v>
+      </c>
+      <c r="Q22" t="str">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" t="e">
+        <v>000101</v>
+      </c>
+      <c r="R22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
+        <v>100</v>
+      </c>
+      <c r="T22" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="e">
+        <v>01010000010010000101010000101100</v>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
+        <v>0101</v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X22" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA22" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB22" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC22" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN22" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>5048542C</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="25" t="e">
+        <v>80</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
+        <v>50486434</v>
+      </c>
+      <c r="L23" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23">
+        <v>01010</v>
+      </c>
+      <c r="M23" t="str">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23">
+        <v>010</v>
+      </c>
+      <c r="O23" t="str">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" t="e">
+        <v>000110</v>
+      </c>
+      <c r="P23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23">
+        <v>010</v>
+      </c>
+      <c r="Q23" t="str">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
+        <v>100</v>
+      </c>
+      <c r="T23" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="e">
+        <v>01010000010010000110010000110100</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
+        <v>0101</v>
+      </c>
+      <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
+        <v>0110</v>
+      </c>
+      <c r="AA23" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB23" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC23" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN23" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>50486434</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="28"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3700,15 +3962,15 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="33"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="28"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="28"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3816,15 +4078,15 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="25"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="28"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="28"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -3932,15 +4194,15 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="33"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="28"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="28"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4048,15 +4310,15 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="28"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="28"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4164,15 +4426,15 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="25"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="28"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="28"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4280,15 +4542,15 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="25"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="28"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4395,16 +4657,16 @@
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>116</v>
+      <c r="A31" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="28"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4512,15 +4774,15 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="28"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="28"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
@@ -4625,13 +4887,16 @@
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
@@ -4642,19 +4907,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D32</xm:sqref>
+          <xm:sqref>H2:H32 F2:F32 D2:D32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4679,25 +4932,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D1" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -4723,13 +4976,13 @@
         <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
@@ -4755,13 +5008,13 @@
         <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
@@ -4775,7 +5028,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -4787,13 +5040,13 @@
         <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -4807,20 +5060,20 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="23"/>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>35</v>
@@ -4834,19 +5087,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
@@ -4866,13 +5119,13 @@
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
@@ -4892,16 +5145,16 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>15</v>
@@ -4996,7 +5249,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>103</v>
@@ -5010,7 +5263,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>104</v>
@@ -5032,18 +5285,18 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5069,22 +5322,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="41" t="str">
+      <c r="B2" s="39" t="str">
         <f>M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2</f>
         <v>10111000001100000001100000000000</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" t="str">
         <f>LEFT(RIGHT(A2,8),1)</f>
         <v>B</v>
@@ -5160,11 +5413,11 @@
       <c r="A3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="39" t="str">
         <f t="shared" ref="B3:B20" si="0">M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
         <v>01001000001010000010100000000000</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="38"/>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D20" si="1">LEFT(RIGHT(A3,8),1)</f>
         <v>4</v>
@@ -5240,11 +5493,11 @@
       <c r="A4" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="41" t="str">
+      <c r="B4" s="39" t="str">
         <f t="shared" si="0"/>
         <v>01001000010100000001001000000000</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="38"/>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5320,11 +5573,11 @@
       <c r="A5" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="41" t="str">
+      <c r="B5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>00001000001010000010010000001100</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="38"/>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5400,11 +5653,11 @@
       <c r="A6" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="41" t="str">
+      <c r="B6" s="39" t="str">
         <f t="shared" si="0"/>
         <v>01001000001100000000000000001010</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="38"/>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5480,11 +5733,11 @@
       <c r="A7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="41" t="str">
+      <c r="B7" s="39" t="str">
         <f t="shared" si="0"/>
         <v>00001000010010000001001000010100</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="38"/>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5560,11 +5813,11 @@
       <c r="A8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="41" t="str">
+      <c r="B8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>01001000010100000000000000010010</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="38"/>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5640,11 +5893,11 @@
       <c r="A9" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="41" t="str">
+      <c r="B9" s="39" t="str">
         <f t="shared" si="0"/>
         <v>00101000010010000001010000011100</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="38"/>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5720,11 +5973,11 @@
       <c r="A10" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="39" t="str">
         <f t="shared" si="0"/>
         <v>00110000100001001010001000011010</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="38"/>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5800,11 +6053,11 @@
       <c r="A11" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="41" t="str">
+      <c r="B11" s="39" t="str">
         <f t="shared" si="0"/>
         <v>11000000000000000000000000001010</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="38"/>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
@@ -5878,11 +6131,11 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="41" t="e">
+      <c r="B12" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="38"/>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5956,11 +6209,11 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="41" t="e">
+      <c r="B13" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="38"/>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6034,11 +6287,11 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="41" t="e">
+      <c r="B14" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="38"/>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6112,11 +6365,11 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="41" t="e">
+      <c r="B15" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="38"/>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6190,11 +6443,11 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="41" t="e">
+      <c r="B16" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="38"/>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6268,11 +6521,11 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="41" t="e">
+      <c r="B17" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="38"/>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6346,11 +6599,11 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="41" t="e">
+      <c r="B18" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="38"/>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6418,11 +6671,11 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="41" t="e">
+      <c r="B19" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="38"/>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6490,11 +6743,11 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="41" t="e">
+      <c r="B20" s="39" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="38"/>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="161">
   <si>
     <t>0001</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>HALT ADD</t>
+  </si>
+  <si>
+    <t>10001</t>
   </si>
 </sst>
 </file>
@@ -940,7 +946,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,19 +1125,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>158</v>
@@ -1141,15 +1147,15 @@
       </c>
       <c r="I3" s="25" t="str">
         <f t="shared" ref="I3:I32" si="0">AN3</f>
-        <v>58300000</v>
+        <v>B8502800</v>
       </c>
       <c r="L3" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B3,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01011</v>
+        <v>10111</v>
       </c>
       <c r="M3" t="str">
         <f>IF(ISNUMBER(MATCH(C3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C3,'HEX GEN BACKEND'!G:G,0)),C3)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="N3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D3,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1157,11 +1163,11 @@
       </c>
       <c r="O3" t="str">
         <f>IF(ISNUMBER(MATCH(E3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E3,'HEX GEN BACKEND'!H:H,0)),E3)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="P3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F3,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="str">
         <f>IF(ISNUMBER(MATCH(G3,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G3,'HEX GEN BACKEND'!I:I,0)),G3)</f>
@@ -1173,11 +1179,11 @@
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T32" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
-        <v>01011000001100000000000000000000</v>
+        <v>10111000010100000010100000000000</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V32" si="2">MID(T3,1,4)</f>
-        <v>0101</v>
+        <v>1011</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W32" si="3">MID(T3,5,4)</f>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X32" si="4">MID(T3,9,4)</f>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y32" si="5">MID(T3,13,4)</f>
@@ -1193,11 +1199,11 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" ref="Z3:Z32" si="6">MID(T3,17,4)</f>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" ref="AA3:AA32" si="7">MID(T3,21,4)</f>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" ref="AB3:AB32" si="8">MID(T3,25,4)</f>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="AE3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>B</v>
       </c>
       <c r="AF3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1217,7 +1223,7 @@
       </c>
       <c r="AG3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1225,11 +1231,11 @@
       </c>
       <c r="AI3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1241,7 +1247,7 @@
       </c>
       <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN32" si="10">AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3</f>
-        <v>58300000</v>
+        <v>B8502800</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1249,33 +1255,33 @@
         <v>32</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>115</v>
-      </c>
       <c r="G4" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>113</v>
       </c>
       <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0828920C</v>
+        <v>6024241C</v>
       </c>
       <c r="L4" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01100</v>
       </c>
       <c r="M4" t="str">
         <f>IF(ISNUMBER(MATCH(C4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C4,'HEX GEN BACKEND'!G:G,0)),C4)</f>
@@ -1283,19 +1289,19 @@
       </c>
       <c r="N4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ISNUMBER(MATCH(E4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E4,'HEX GEN BACKEND'!H:H,0)),E4)</f>
-        <v>001001</v>
+        <v>000010</v>
       </c>
       <c r="P4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="Q4" t="str">
         <f>IF(ISNUMBER(MATCH(G4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G4,'HEX GEN BACKEND'!I:I,0)),G4)</f>
-        <v>000001</v>
+        <v>000011</v>
       </c>
       <c r="R4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H4,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1303,15 +1309,15 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>00001000001010001001001000001100</v>
+        <v>01100000001001000010010000011100</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="4"/>
@@ -1319,19 +1325,19 @@
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="6"/>
-        <v>1001</v>
+        <v>0010</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="9"/>
@@ -1339,11 +1345,11 @@
       </c>
       <c r="AE4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1351,19 +1357,19 @@
       </c>
       <c r="AH4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>0828920C</v>
+        <v>6024241C</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1379,53 +1385,53 @@
         <v>34</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>115</v>
-      </c>
       <c r="G5" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0828B214</v>
+        <v>60442424</v>
       </c>
       <c r="L5" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01100</v>
       </c>
       <c r="M5" t="str">
         <f>IF(ISNUMBER(MATCH(C5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C5,'HEX GEN BACKEND'!G:G,0)),C5)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="N5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ISNUMBER(MATCH(E5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E5,'HEX GEN BACKEND'!H:H,0)),E5)</f>
-        <v>001011</v>
+        <v>000010</v>
       </c>
       <c r="P5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(ISNUMBER(MATCH(G5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G5,'HEX GEN BACKEND'!I:I,0)),G5)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="R5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H5,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1433,35 +1439,35 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>00001000001010001011001000010100</v>
+        <v>01100000010001000010010000100100</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="6"/>
-        <v>1011</v>
+        <v>0010</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="9"/>
@@ -1469,31 +1475,31 @@
       </c>
       <c r="AE5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>2</v>
       </c>
       <c r="AJ5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1501,7 +1507,7 @@
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="10"/>
-        <v>0828B214</v>
+        <v>60442424</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1509,129 +1515,129 @@
         <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4830000A</v>
+        <v>6084242C</v>
       </c>
       <c r="L6" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01100</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISNUMBER(MATCH(C6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C6,'HEX GEN BACKEND'!G:G,0)),C6)</f>
-        <v>000001</v>
+        <v>000100</v>
       </c>
       <c r="N6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ISNUMBER(MATCH(E6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E6,'HEX GEN BACKEND'!H:H,0)),E6)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="P6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q6" t="str">
         <f>IF(ISNUMBER(MATCH(G6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G6,'HEX GEN BACKEND'!I:I,0)),G6)</f>
-        <v>000001</v>
+        <v>000101</v>
       </c>
       <c r="R6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>01001000001100000000000000001010</v>
+        <v>01100000100001000010010000101100</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>0011</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>4830000A</v>
+        <v>6084242C</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1639,69 +1645,69 @@
         <v>35</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48001812</v>
+        <v>61042434</v>
       </c>
       <c r="L7" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01100</v>
       </c>
       <c r="M7" t="str">
         <f>IF(ISNUMBER(MATCH(C7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C7,'HEX GEN BACKEND'!G:G,0)),C7)</f>
-        <v>000000</v>
+        <v>001000</v>
       </c>
       <c r="N7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O7" t="str">
         <f>IF(ISNUMBER(MATCH(E7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E7,'HEX GEN BACKEND'!H:H,0)),E7)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="P7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q7" t="str">
         <f>IF(ISNUMBER(MATCH(G7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G7,'HEX GEN BACKEND'!I:I,0)),G7)</f>
-        <v>000010</v>
+        <v>000110</v>
       </c>
       <c r="R7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000001100000010010</v>
+        <v>01100001000001000010010000110100</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0001</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
@@ -1709,31 +1715,31 @@
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AE7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1741,27 +1747,27 @@
       </c>
       <c r="AH7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>48001812</v>
+        <v>61042434</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -1775,23 +1781,23 @@
         <v>158</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4804000C</v>
+        <v>4800381A</v>
       </c>
       <c r="L8" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B8,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1803,27 +1809,27 @@
       </c>
       <c r="N8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O8" t="str">
         <f>IF(ISNUMBER(MATCH(E8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E8,'HEX GEN BACKEND'!H:H,0)),E8)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="P8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="str">
         <f>IF(ISNUMBER(MATCH(G8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G8,'HEX GEN BACKEND'!I:I,0)),G8)</f>
-        <v>000001</v>
+        <v>000011</v>
       </c>
       <c r="R8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000001000000000000001100</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="2"/>
@@ -1839,23 +1845,23 @@
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1871,27 +1877,27 @@
       </c>
       <c r="AH8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="10"/>
-        <v>4804000C</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -1905,23 +1911,23 @@
         <v>158</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48040014</v>
+        <v>48004822</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1933,27 +1939,27 @@
       </c>
       <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="P9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000001000000000000010100</v>
+        <v>01001000000000000100100000100010</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
@@ -1969,23 +1975,23 @@
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2001,27 +2007,27 @@
       </c>
       <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>48040014</v>
+        <v>48004822</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -2029,129 +2035,129 @@
         <v>38</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>117</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>C0281400</v>
+        <v>4800582A</v>
       </c>
       <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>01001</v>
       </c>
       <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000001</v>
+        <v>000101</v>
       </c>
       <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>000000</v>
+        <v>000101</v>
       </c>
       <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>11000000001010000001010000000000</v>
+        <v>01001000000000000101100000101010</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0101</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>C0281400</v>
+        <v>4800582A</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2159,45 +2165,45 @@
         <v>68</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>B8502800</v>
+        <v>48006832</v>
       </c>
       <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>10111</v>
+        <v>01001</v>
       </c>
       <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>000010</v>
+        <v>000110</v>
       </c>
       <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2205,19 +2211,19 @@
       </c>
       <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>000000</v>
+        <v>000110</v>
       </c>
       <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>10111000010100000010100000000000</v>
+        <v>01001000000000000110100000110010</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="2"/>
-        <v>1011</v>
+        <v>0100</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="3"/>
@@ -2225,7 +2231,7 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="5"/>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
@@ -2241,15 +2247,15 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>B</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2257,7 +2263,7 @@
       </c>
       <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2265,7 +2271,7 @@
       </c>
       <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2273,15 +2279,15 @@
       </c>
       <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>B8502800</v>
+        <v>48006832</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2289,16 +2295,16 @@
         <v>69</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>114</v>
@@ -2311,23 +2317,23 @@
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6024241C</v>
+        <v>5048341C</v>
       </c>
       <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01010</v>
       </c>
       <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="N12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000010</v>
+        <v>000011</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2343,11 +2349,11 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>01100000001001000010010000011100</v>
+        <v>01010000010010000011010000011100</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
@@ -2355,15 +2361,15 @@
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
@@ -2379,7 +2385,7 @@
       </c>
       <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2387,15 +2393,15 @@
       </c>
       <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2411,7 +2417,7 @@
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>6024241C</v>
+        <v>5048341C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2419,16 +2425,16 @@
         <v>70</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>114</v>
@@ -2441,11 +2447,11 @@
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>60442424</v>
+        <v>50484424</v>
       </c>
       <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01010</v>
       </c>
       <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2473,11 +2479,11 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>01100000010001000010010000100100</v>
+        <v>01010000010010000100010000100100</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="3"/>
@@ -2489,11 +2495,11 @@
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
@@ -2509,7 +2515,7 @@
       </c>
       <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2521,11 +2527,11 @@
       </c>
       <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2541,7 +2547,7 @@
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>60442424</v>
+        <v>50484424</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2549,16 +2555,16 @@
         <v>71</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>114</v>
@@ -2571,23 +2577,23 @@
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6084242C</v>
+        <v>5048542C</v>
       </c>
       <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01010</v>
       </c>
       <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000100</v>
+        <v>000010</v>
       </c>
       <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000010</v>
+        <v>000101</v>
       </c>
       <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>01100000100001000010010000101100</v>
+        <v>01010000010010000101010000101100</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
@@ -2615,15 +2621,15 @@
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
@@ -2639,7 +2645,7 @@
       </c>
       <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2647,15 +2653,15 @@
       </c>
       <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2671,7 +2677,7 @@
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>6084242C</v>
+        <v>5048542C</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2679,16 +2685,16 @@
         <v>72</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>114</v>
@@ -2701,23 +2707,23 @@
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>61042434</v>
+        <v>50486434</v>
       </c>
       <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01010</v>
       </c>
       <c r="M15" t="str">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>001000</v>
+        <v>000010</v>
       </c>
       <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>000010</v>
+        <v>000110</v>
       </c>
       <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2733,27 +2739,27 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>01100001000001000010010000110100</v>
+        <v>01010000010010000110010000110100</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="3"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="7"/>
@@ -2769,23 +2775,23 @@
       </c>
       <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2801,7 +2807,7 @@
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>61042434</v>
+        <v>50486434</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -3329,13 +3335,13 @@
         <v>77</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>138</v>
@@ -3351,19 +3357,19 @@
       </c>
       <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>5048341C</v>
+        <v>0804341C</v>
       </c>
       <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>00001</v>
       </c>
       <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
@@ -3383,23 +3389,23 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>01010000010010000011010000011100</v>
+        <v>00001000000001000011010000011100</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
@@ -3419,19 +3425,19 @@
       </c>
       <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3451,7 +3457,7 @@
       </c>
       <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>5048341C</v>
+        <v>0804341C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -3459,33 +3465,33 @@
         <v>78</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50484424</v>
+        <v>4850001A</v>
       </c>
       <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01001</v>
       </c>
       <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
@@ -3493,95 +3499,95 @@
       </c>
       <c r="N21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="O21" t="str">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="P21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>000100</v>
+        <v>000011</v>
       </c>
       <c r="R21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>01010000010010000100010000100100</v>
+        <v>01001000010100000000000000011010</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>50484424</v>
+        <v>4850001A</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -3589,7 +3595,7 @@
         <v>79</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>130</v>
@@ -3598,24 +3604,24 @@
         <v>114</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>114</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>113</v>
       </c>
       <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>5048542C</v>
+        <v>0848441C</v>
       </c>
       <c r="L22" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>00001</v>
       </c>
       <c r="M22" t="str">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
@@ -3627,7 +3633,7 @@
       </c>
       <c r="O22" t="str">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>000101</v>
+        <v>000100</v>
       </c>
       <c r="P22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3635,7 +3641,7 @@
       </c>
       <c r="Q22" t="str">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>000101</v>
+        <v>000011</v>
       </c>
       <c r="R22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3643,15 +3649,15 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="1"/>
-        <v>01010000010010000101010000101100</v>
+        <v>00001000010010000100010000011100</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="4"/>
@@ -3663,7 +3669,7 @@
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="6"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="7"/>
@@ -3671,7 +3677,7 @@
       </c>
       <c r="AB22" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="9"/>
@@ -3679,11 +3685,11 @@
       </c>
       <c r="AE22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3695,7 +3701,7 @@
       </c>
       <c r="AI22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3703,7 +3709,7 @@
       </c>
       <c r="AK22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3711,7 +3717,7 @@
       </c>
       <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>5048542C</v>
+        <v>0848441C</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -3719,33 +3725,33 @@
         <v>80</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="I23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50486434</v>
+        <v>4850001A</v>
       </c>
       <c r="L23" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01001</v>
       </c>
       <c r="M23" t="str">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
@@ -3753,559 +3759,615 @@
       </c>
       <c r="N23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="O23" t="str">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
-        <v>000110</v>
+        <v>000000</v>
       </c>
       <c r="P23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q23" t="str">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="1"/>
-        <v>01010000010010000110010000110100</v>
+        <v>01001000010100000000000000011010</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" si="6"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB23" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC23" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>50486434</v>
+        <v>4850001A</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="25" t="e">
+      <c r="B24" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
+        <v>0848541C</v>
+      </c>
+      <c r="L24" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24">
+        <v>00001</v>
+      </c>
+      <c r="M24" t="str">
         <f>IF(ISNUMBER(MATCH(C24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C24,'HEX GEN BACKEND'!G:G,0)),C24)</f>
+        <v>000010</v>
+      </c>
+      <c r="N24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
+        <v>000101</v>
+      </c>
+      <c r="P24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
+        <v>000011</v>
+      </c>
+      <c r="R24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000010010000101010000011100</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="6"/>
+        <v>0101</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="7"/>
+        <v>0100</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="8"/>
+        <v>0001</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="9"/>
+        <v>1100</v>
+      </c>
+      <c r="AE24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24">
-        <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24">
-        <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" t="e">
+      <c r="AF24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN24" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0848541C</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="25" t="e">
+      <c r="B25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
+        <v>4850001A</v>
+      </c>
+      <c r="L25" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25">
+        <v>01001</v>
+      </c>
+      <c r="M25" t="str">
         <f>IF(ISNUMBER(MATCH(C25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C25,'HEX GEN BACKEND'!G:G,0)),C25)</f>
+        <v>000010</v>
+      </c>
+      <c r="N25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
+        <v>000000</v>
+      </c>
+      <c r="P25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
+        <v>000011</v>
+      </c>
+      <c r="R25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="1"/>
+        <v>01001000010100000000000000011010</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="4"/>
+        <v>0101</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="6"/>
+        <v>0000</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="7"/>
+        <v>0000</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="8"/>
+        <v>0001</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AG25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>5</v>
+      </c>
+      <c r="AH25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25">
-        <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
+      <c r="AI25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25">
-        <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
+      <c r="AJ25" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="R25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ25" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK25" t="e">
+      <c r="AK25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL25" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN25" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN25" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4850001A</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="25" t="e">
+      <c r="B26" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
+        <v>0848641C</v>
+      </c>
+      <c r="L26" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26">
+        <v>00001</v>
+      </c>
+      <c r="M26" t="str">
         <f>IF(ISNUMBER(MATCH(C26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C26,'HEX GEN BACKEND'!G:G,0)),C26)</f>
+        <v>000010</v>
+      </c>
+      <c r="N26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
+        <v>000110</v>
+      </c>
+      <c r="P26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
+        <v>000011</v>
+      </c>
+      <c r="R26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000010010000110010000011100</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="6"/>
+        <v>0110</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="7"/>
+        <v>0100</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="8"/>
+        <v>0001</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="9"/>
+        <v>1100</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26">
-        <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26">
-        <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF26" t="e">
+      <c r="AF26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" t="e">
+        <v>6</v>
+      </c>
+      <c r="AJ26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN26" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN26" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0848641C</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="25" t="e">
+      <c r="B27" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
+        <v>C000001A</v>
+      </c>
+      <c r="L27" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27">
+        <v>11000</v>
+      </c>
+      <c r="M27" t="str">
         <f>IF(ISNUMBER(MATCH(C27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C27,'HEX GEN BACKEND'!G:G,0)),C27)</f>
+        <v>000000</v>
+      </c>
+      <c r="N27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
+        <v>000000</v>
+      </c>
+      <c r="P27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
+        <v>000011</v>
+      </c>
+      <c r="R27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="1"/>
+        <v>11000000000000000000000000011010</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="4"/>
+        <v>0000</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="6"/>
+        <v>0000</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="7"/>
+        <v>0000</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="8"/>
+        <v>0001</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+      <c r="AE27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>C</v>
+      </c>
+      <c r="AF27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27">
-        <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
+      <c r="AG27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27">
-        <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
+      <c r="AH27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="R27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V27" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB27" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" t="e">
+      <c r="AI27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN27" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN27" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C000001A</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -4917,10 +4979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,6 +5359,14 @@
       </c>
       <c r="B19" s="1" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="161">
   <si>
     <t>0001</t>
   </si>
@@ -946,7 +946,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,129 +1385,129 @@
         <v>34</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="I5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>60442424</v>
+        <v>4800381A</v>
       </c>
       <c r="L5" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01001</v>
       </c>
       <c r="M5" t="str">
         <f>IF(ISNUMBER(MATCH(C5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C5,'HEX GEN BACKEND'!G:G,0)),C5)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ISNUMBER(MATCH(E5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E5,'HEX GEN BACKEND'!H:H,0)),E5)</f>
-        <v>000010</v>
+        <v>000011</v>
       </c>
       <c r="P5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(ISNUMBER(MATCH(G5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G5,'HEX GEN BACKEND'!I:I,0)),G5)</f>
-        <v>000100</v>
+        <v>000011</v>
       </c>
       <c r="R5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>01100000010001000010010000100100</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="10"/>
-        <v>60442424</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1515,37 +1515,37 @@
         <v>33</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>114</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H6" s="41" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6084242C</v>
+        <v>2824341C</v>
       </c>
       <c r="L6" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>00101</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISNUMBER(MATCH(C6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C6,'HEX GEN BACKEND'!G:G,0)),C6)</f>
-        <v>000100</v>
+        <v>000001</v>
       </c>
       <c r="N6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="O6" t="str">
         <f>IF(ISNUMBER(MATCH(E6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E6,'HEX GEN BACKEND'!H:H,0)),E6)</f>
-        <v>000010</v>
+        <v>000011</v>
       </c>
       <c r="P6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="Q6" t="str">
         <f>IF(ISNUMBER(MATCH(G6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G6,'HEX GEN BACKEND'!I:I,0)),G6)</f>
-        <v>000101</v>
+        <v>000011</v>
       </c>
       <c r="R6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1569,19 +1569,19 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>01100000100001000010010000101100</v>
+        <v>00101000001001000011010000011100</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="5"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="7"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="9"/>
@@ -1605,15 +1605,15 @@
       </c>
       <c r="AE6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AI6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="AK6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>6084242C</v>
+        <v>2824341C</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1645,37 +1645,37 @@
         <v>35</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="F7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>61042434</v>
+        <v>30E4621A</v>
       </c>
       <c r="L7" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>00110</v>
       </c>
       <c r="M7" t="str">
         <f>IF(ISNUMBER(MATCH(C7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C7,'HEX GEN BACKEND'!G:G,0)),C7)</f>
-        <v>001000</v>
+        <v>000111</v>
       </c>
       <c r="N7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D7,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1683,35 +1683,35 @@
       </c>
       <c r="O7" t="str">
         <f>IF(ISNUMBER(MATCH(E7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E7,'HEX GEN BACKEND'!H:H,0)),E7)</f>
-        <v>000010</v>
+        <v>000110</v>
       </c>
       <c r="P7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="Q7" t="str">
         <f>IF(ISNUMBER(MATCH(G7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G7,'HEX GEN BACKEND'!I:I,0)),G7)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>01100001000001000010010000110100</v>
+        <v>00110000111001000110001000011010</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0011</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="5"/>
@@ -1719,31 +1719,31 @@
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>E</v>
       </c>
       <c r="AH7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1751,23 +1751,23 @@
       </c>
       <c r="AI7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>61042434</v>
+        <v>30E4621A</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -1775,65 +1775,65 @@
         <v>36</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F8" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="I8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>0848023C</v>
       </c>
       <c r="L8" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00001</v>
       </c>
       <c r="M8" t="str">
         <f>IF(ISNUMBER(MATCH(C8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C8,'HEX GEN BACKEND'!G:G,0)),C8)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O8" t="str">
         <f>IF(ISNUMBER(MATCH(E8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E8,'HEX GEN BACKEND'!H:H,0)),E8)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="P8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q8" t="str">
         <f>IF(ISNUMBER(MATCH(G8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G8,'HEX GEN BACKEND'!I:I,0)),G8)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="R8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>00001000010010000000001000111100</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="3"/>
@@ -1841,31 +1841,31 @@
       </c>
       <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="AG8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>0848023C</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>158</v>
@@ -1914,24 +1914,24 @@
         <v>117</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>114</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48004822</v>
+        <v>C000003A</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>11000</v>
       </c>
       <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
@@ -1943,15 +1943,15 @@
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="P9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000100</v>
+        <v>000111</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000100100000100010</v>
+        <v>11000000000000000000000000111010</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
@@ -1979,27 +1979,27 @@
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AF9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2011,2363 +2011,2111 @@
       </c>
       <c r="AI9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>48004822</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="25" t="str">
+      <c r="B10" s="25"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4800582A</v>
-      </c>
-      <c r="L10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M10">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000000</v>
-      </c>
-      <c r="N10" t="str">
+        <v>0</v>
+      </c>
+      <c r="N10" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O10">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000101</v>
-      </c>
-      <c r="P10" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q10">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>000101</v>
-      </c>
-      <c r="R10" t="str">
+        <v>0</v>
+      </c>
+      <c r="R10" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000101100000101010</v>
-      </c>
-      <c r="V10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W10" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
         <f t="shared" si="6"/>
-        <v>0101</v>
-      </c>
-      <c r="AA10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC10" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN10" t="e">
         <f t="shared" si="10"/>
-        <v>4800582A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="25" t="str">
+      <c r="B11" s="25"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>48006832</v>
-      </c>
-      <c r="L11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M11">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000000</v>
-      </c>
-      <c r="N11" t="str">
+        <v>0</v>
+      </c>
+      <c r="N11" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O11">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>000110</v>
-      </c>
-      <c r="P11" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>000110</v>
-      </c>
-      <c r="R11" t="str">
+        <v>0</v>
+      </c>
+      <c r="R11" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T11" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000110100000110010</v>
-      </c>
-      <c r="V11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W11" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" t="e">
         <f t="shared" si="6"/>
-        <v>0110</v>
-      </c>
-      <c r="AA11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC11" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AE11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AJ11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL11" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN11" t="e">
         <f t="shared" si="10"/>
-        <v>48006832</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="25" t="str">
+      <c r="B12" s="25"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>5048341C</v>
-      </c>
-      <c r="L12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M12">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
-        <v>000010</v>
-      </c>
-      <c r="N12" t="str">
+        <v>0</v>
+      </c>
+      <c r="N12" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O12">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000011</v>
-      </c>
-      <c r="P12" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12">
         <f>IF(ISNUMBER(MATCH(G12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G12,'HEX GEN BACKEND'!I:I,0)),G12)</f>
-        <v>000011</v>
-      </c>
-      <c r="R12" t="str">
+        <v>0</v>
+      </c>
+      <c r="R12" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T12" t="e">
         <f t="shared" si="1"/>
-        <v>01010000010010000011010000011100</v>
-      </c>
-      <c r="V12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W12" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AA12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC12" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL12" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN12" t="e">
         <f t="shared" si="10"/>
-        <v>5048341C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="25" t="str">
+      <c r="B13" s="25"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>50484424</v>
-      </c>
-      <c r="L13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M13">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>000010</v>
-      </c>
-      <c r="N13" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O13">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>000100</v>
-      </c>
-      <c r="P13" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>000100</v>
-      </c>
-      <c r="R13" t="str">
+        <v>0</v>
+      </c>
+      <c r="R13" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="e">
         <f t="shared" si="1"/>
-        <v>01010000010010000100010000100100</v>
-      </c>
-      <c r="V13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W13" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
         <f t="shared" si="6"/>
-        <v>0100</v>
-      </c>
-      <c r="AA13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" t="e">
         <f t="shared" si="9"/>
-        <v>0100</v>
-      </c>
-      <c r="AE13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN13" t="e">
         <f t="shared" si="10"/>
-        <v>50484424</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="25" t="str">
+      <c r="B14" s="25"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>5048542C</v>
-      </c>
-      <c r="L14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M14">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000010</v>
-      </c>
-      <c r="N14" t="str">
+        <v>0</v>
+      </c>
+      <c r="N14" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O14">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000101</v>
-      </c>
-      <c r="P14" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>000101</v>
-      </c>
-      <c r="R14" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" t="e">
         <f t="shared" si="1"/>
-        <v>01010000010010000101010000101100</v>
-      </c>
-      <c r="V14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W14" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
         <f t="shared" si="6"/>
-        <v>0101</v>
-      </c>
-      <c r="AA14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN14" t="e">
         <f t="shared" si="10"/>
-        <v>5048542C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="25" t="str">
+      <c r="B15" s="25"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>50486434</v>
-      </c>
-      <c r="L15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M15">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>000010</v>
-      </c>
-      <c r="N15" t="str">
+        <v>0</v>
+      </c>
+      <c r="N15" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O15">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>000110</v>
-      </c>
-      <c r="P15" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>000110</v>
-      </c>
-      <c r="R15" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T15" t="e">
         <f t="shared" si="1"/>
-        <v>01010000010010000110010000110100</v>
-      </c>
-      <c r="V15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W15" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" t="e">
         <f t="shared" si="6"/>
-        <v>0110</v>
-      </c>
-      <c r="AA15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC15" t="e">
         <f t="shared" si="9"/>
-        <v>0100</v>
-      </c>
-      <c r="AE15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AJ15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN15" t="e">
         <f t="shared" si="10"/>
-        <v>50486434</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="25" t="str">
+      <c r="B16" s="25"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
-      </c>
-      <c r="L16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M16">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>000000</v>
-      </c>
-      <c r="N16" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O16">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
-        <v>000011</v>
-      </c>
-      <c r="P16" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>000011</v>
-      </c>
-      <c r="R16" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="V16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AA16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC16" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL16" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN16" t="e">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="25" t="str">
+      <c r="B17" s="25"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>48004822</v>
-      </c>
-      <c r="L17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M17">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
-        <v>000000</v>
-      </c>
-      <c r="N17" t="str">
+        <v>0</v>
+      </c>
+      <c r="N17" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O17">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>000100</v>
-      </c>
-      <c r="P17" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>000100</v>
-      </c>
-      <c r="R17" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T17" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000100100000100010</v>
-      </c>
-      <c r="V17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V17" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W17" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X17" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y17" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z17" t="e">
         <f t="shared" si="6"/>
-        <v>0100</v>
-      </c>
-      <c r="AA17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC17" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AE17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN17" t="e">
         <f t="shared" si="10"/>
-        <v>48004822</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="25" t="str">
+      <c r="B18" s="25"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4800582A</v>
-      </c>
-      <c r="L18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M18">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>000000</v>
-      </c>
-      <c r="N18" t="str">
+        <v>0</v>
+      </c>
+      <c r="N18" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O18">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
-        <v>000101</v>
-      </c>
-      <c r="P18" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
-        <v>000101</v>
-      </c>
-      <c r="R18" t="str">
+        <v>0</v>
+      </c>
+      <c r="R18" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000101100000101010</v>
-      </c>
-      <c r="V18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
         <f t="shared" si="6"/>
-        <v>0101</v>
-      </c>
-      <c r="AA18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN18" t="e">
         <f t="shared" si="10"/>
-        <v>4800582A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="25" t="str">
+      <c r="B19" s="25"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>48006832</v>
-      </c>
-      <c r="L19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M19">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
-        <v>000000</v>
-      </c>
-      <c r="N19" t="str">
+        <v>0</v>
+      </c>
+      <c r="N19" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O19">
         <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
-        <v>000110</v>
-      </c>
-      <c r="P19" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19">
         <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
-        <v>000110</v>
-      </c>
-      <c r="R19" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000110100000110010</v>
-      </c>
-      <c r="V19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
         <f t="shared" si="6"/>
-        <v>0110</v>
-      </c>
-      <c r="AA19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AE19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AJ19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN19" t="e">
         <f t="shared" si="10"/>
-        <v>48006832</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="25" t="str">
+      <c r="B20" s="25"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>0804341C</v>
-      </c>
-      <c r="L20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M20">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>000000</v>
-      </c>
-      <c r="N20" t="str">
+        <v>0</v>
+      </c>
+      <c r="N20" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O20">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>000011</v>
-      </c>
-      <c r="P20" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>000011</v>
-      </c>
-      <c r="R20" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T20" t="e">
         <f t="shared" si="1"/>
-        <v>00001000000001000011010000011100</v>
-      </c>
-      <c r="V20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W20" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AA20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN20" t="e">
         <f t="shared" si="10"/>
-        <v>0804341C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="25" t="str">
+      <c r="B21" s="25"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4850001A</v>
-      </c>
-      <c r="L21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M21">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
-        <v>000010</v>
-      </c>
-      <c r="N21" t="str">
+        <v>0</v>
+      </c>
+      <c r="N21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O21">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>000000</v>
-      </c>
-      <c r="P21" t="str">
+        <v>0</v>
+      </c>
+      <c r="P21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>000011</v>
-      </c>
-      <c r="R21" t="str">
+        <v>0</v>
+      </c>
+      <c r="R21" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000011010</v>
-      </c>
-      <c r="V21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
         <f t="shared" si="4"/>
-        <v>0101</v>
-      </c>
-      <c r="Y21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN21" t="e">
         <f t="shared" si="10"/>
-        <v>4850001A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="25" t="str">
+      <c r="B22" s="25"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>0848441C</v>
-      </c>
-      <c r="L22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
-        <v>000010</v>
-      </c>
-      <c r="N22" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O22">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>000100</v>
-      </c>
-      <c r="P22" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>000011</v>
-      </c>
-      <c r="R22" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
         <f t="shared" si="1"/>
-        <v>00001000010010000100010000011100</v>
-      </c>
-      <c r="V22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
         <f t="shared" si="6"/>
-        <v>0100</v>
-      </c>
-      <c r="AA22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" t="e">
         <f t="shared" si="10"/>
-        <v>0848441C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="25" t="str">
+      <c r="B23" s="25"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4850001A</v>
-      </c>
-      <c r="L23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M23">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
-        <v>000010</v>
-      </c>
-      <c r="N23" t="str">
+        <v>0</v>
+      </c>
+      <c r="N23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O23">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
-        <v>000000</v>
-      </c>
-      <c r="P23" t="str">
+        <v>0</v>
+      </c>
+      <c r="P23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>000011</v>
-      </c>
-      <c r="R23" t="str">
+        <v>0</v>
+      </c>
+      <c r="R23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T23" t="e">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000011010</v>
-      </c>
-      <c r="V23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
         <f t="shared" si="4"/>
-        <v>0101</v>
-      </c>
-      <c r="Y23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN23" t="e">
         <f t="shared" si="10"/>
-        <v>4850001A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="25" t="str">
+      <c r="B24" s="25"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>0848541C</v>
-      </c>
-      <c r="L24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M24">
         <f>IF(ISNUMBER(MATCH(C24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C24,'HEX GEN BACKEND'!G:G,0)),C24)</f>
-        <v>000010</v>
-      </c>
-      <c r="N24" t="str">
+        <v>0</v>
+      </c>
+      <c r="N24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O24">
         <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
-        <v>000101</v>
-      </c>
-      <c r="P24" t="str">
+        <v>0</v>
+      </c>
+      <c r="P24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24">
         <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
-        <v>000011</v>
-      </c>
-      <c r="R24" t="str">
+        <v>0</v>
+      </c>
+      <c r="R24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="1"/>
-        <v>00001000010010000101010000011100</v>
-      </c>
-      <c r="V24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
         <f t="shared" si="6"/>
-        <v>0101</v>
-      </c>
-      <c r="AA24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN24" t="e">
         <f t="shared" si="10"/>
-        <v>0848541C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="25" t="str">
+      <c r="B25" s="25"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4850001A</v>
-      </c>
-      <c r="L25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M25">
         <f>IF(ISNUMBER(MATCH(C25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C25,'HEX GEN BACKEND'!G:G,0)),C25)</f>
-        <v>000010</v>
-      </c>
-      <c r="N25" t="str">
+        <v>0</v>
+      </c>
+      <c r="N25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O25">
         <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
-        <v>000000</v>
-      </c>
-      <c r="P25" t="str">
+        <v>0</v>
+      </c>
+      <c r="P25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25">
         <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
-        <v>000011</v>
-      </c>
-      <c r="R25" t="str">
+        <v>0</v>
+      </c>
+      <c r="R25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000011010</v>
-      </c>
-      <c r="V25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
         <f t="shared" si="4"/>
-        <v>0101</v>
-      </c>
-      <c r="Y25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN25" t="e">
         <f t="shared" si="10"/>
-        <v>4850001A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="25" t="str">
+      <c r="B26" s="25"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>0848641C</v>
-      </c>
-      <c r="L26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M26">
         <f>IF(ISNUMBER(MATCH(C26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C26,'HEX GEN BACKEND'!G:G,0)),C26)</f>
-        <v>000010</v>
-      </c>
-      <c r="N26" t="str">
+        <v>0</v>
+      </c>
+      <c r="N26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O26">
         <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
-        <v>000110</v>
-      </c>
-      <c r="P26" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26">
         <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
-        <v>000011</v>
-      </c>
-      <c r="R26" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="1"/>
-        <v>00001000010010000110010000011100</v>
-      </c>
-      <c r="V26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
         <f t="shared" si="6"/>
-        <v>0110</v>
-      </c>
-      <c r="AA26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AJ26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN26" t="e">
         <f t="shared" si="10"/>
-        <v>0848641C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="25" t="str">
+      <c r="B27" s="25"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>C000001A</v>
-      </c>
-      <c r="L27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
-      </c>
-      <c r="M27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M27">
         <f>IF(ISNUMBER(MATCH(C27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C27,'HEX GEN BACKEND'!G:G,0)),C27)</f>
-        <v>000000</v>
-      </c>
-      <c r="N27" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O27">
         <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
-        <v>000000</v>
-      </c>
-      <c r="P27" t="str">
+        <v>0</v>
+      </c>
+      <c r="P27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27">
         <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
-        <v>000011</v>
-      </c>
-      <c r="R27" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" si="1"/>
-        <v>11000000000000000000000000011010</v>
-      </c>
-      <c r="V27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
         <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-      <c r="W27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AF27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN27" t="e">
         <f t="shared" si="10"/>
-        <v>C000001A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
@@ -4969,7 +4717,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H32 F2:F32 D2:D32</xm:sqref>
+          <xm:sqref>D2:D32 F2:F32 H2:H32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
   <si>
     <t>0001</t>
   </si>
@@ -946,7 +946,7 @@
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I9"/>
+      <selection activeCell="I2" sqref="I2:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,1044 +2034,1170 @@
       <c r="A10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="25" t="e">
+      <c r="B10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" t="e">
+        <v>6044241C</v>
+      </c>
+      <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10">
+        <v>01100</v>
+      </c>
+      <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O10">
+        <v>001</v>
+      </c>
+      <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10">
+        <v>010</v>
+      </c>
+      <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" t="e">
+        <v>100</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
+        <v>01100000010001000010010000011100</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
+        <v>0110</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X10" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA10" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB10" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC10" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF10" t="e">
+        <v>6</v>
+      </c>
+      <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG10" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>6044241C</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="25" t="e">
+      <c r="B11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
+        <v>4800381A</v>
+      </c>
+      <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11">
+        <v>01001</v>
+      </c>
+      <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11">
+        <v>000</v>
+      </c>
+      <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="e">
+        <v>010</v>
+      </c>
+      <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
+        <v>01001000000000000011100000011010</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA11" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB11" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF11" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="25" t="e">
+      <c r="B12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e">
+        <v>2844341C</v>
+      </c>
+      <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12">
+        <v>00101</v>
+      </c>
+      <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12">
+        <v>001</v>
+      </c>
+      <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12">
+        <v>010</v>
+      </c>
+      <c r="Q12" t="str">
         <f>IF(ISNUMBER(MATCH(G12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G12,'HEX GEN BACKEND'!I:I,0)),G12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" t="e">
+        <v>100</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
+        <v>00101000010001000011010000011100</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
+        <v>0010</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X12" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA12" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB12" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC12" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE12" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF12" t="e">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG12" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2844341C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="25" t="e">
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="e">
+        <v>48487800</v>
+      </c>
+      <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13">
+        <v>01001</v>
+      </c>
+      <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13">
+        <v>010</v>
+      </c>
+      <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" t="e">
+        <v>000111</v>
+      </c>
+      <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" t="e">
+        <v>000</v>
+      </c>
+      <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" t="e">
+        <v>01001000010010000111100000000000</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA13" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN13" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="25" t="e">
+      <c r="B14" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
+        <v>50247434</v>
+      </c>
+      <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14">
+        <v>01010</v>
+      </c>
+      <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14">
+        <v>001</v>
+      </c>
+      <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" t="e">
+        <v>000111</v>
+      </c>
+      <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14">
+        <v>010</v>
+      </c>
+      <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" t="e">
+        <v>100</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="e">
+        <v>01010000001001000111010000110100</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W14" t="e">
+        <v>0101</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA14" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB14" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" t="e">
+        <v>5</v>
+      </c>
+      <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="25" t="e">
+      <c r="B15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" t="e">
+        <v>48500032</v>
+      </c>
+      <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15">
+        <v>01001</v>
+      </c>
+      <c r="M15" t="str">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15">
+        <v>000</v>
+      </c>
+      <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" t="e">
+        <v>010</v>
+      </c>
+      <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V15" t="e">
+        <v>01001000010100000000000000110010</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W15" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X15" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB15" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC15" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE15" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF15" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG15" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="25" t="e">
+      <c r="B16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" t="e">
+        <v>4800783A</v>
+      </c>
+      <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M16">
+        <v>01001</v>
+      </c>
+      <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16">
+        <v>000</v>
+      </c>
+      <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" t="e">
+        <v>000111</v>
+      </c>
+      <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T16" t="e">
+        <v>010</v>
+      </c>
+      <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V16" t="e">
+        <v>01001000000000000111100000111010</v>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W16" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X16" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z16" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB16" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC16" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC16" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE16" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF16" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG16" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="25" t="e">
+      <c r="B17" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="e">
+        <v>0848743C</v>
+      </c>
+      <c r="L17" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M17">
+        <v>00001</v>
+      </c>
+      <c r="M17" t="str">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17">
+        <v>010</v>
+      </c>
+      <c r="O17" t="str">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" t="e">
+        <v>000111</v>
+      </c>
+      <c r="P17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17">
+        <v>010</v>
+      </c>
+      <c r="Q17" t="str">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" t="e">
+        <v>100</v>
+      </c>
+      <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V17" t="e">
+        <v>00001000010010000111010000111100</v>
+      </c>
+      <c r="V17" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W17" t="e">
+        <v>0000</v>
+      </c>
+      <c r="W17" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X17" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB17" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC17" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE17" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF17" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG17" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH17" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK17" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN17" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0848743C</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="25" t="e">
+      <c r="B18" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
+        <v>C000003A</v>
+      </c>
+      <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18">
+        <v>11000</v>
+      </c>
+      <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18">
+        <v>000</v>
+      </c>
+      <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18">
+        <v>000</v>
+      </c>
+      <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" t="e">
+        <v>010</v>
+      </c>
+      <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V18" t="e">
+        <v>11000000000000000000000000111010</v>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
+        <v>1100</v>
+      </c>
+      <c r="W18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB18" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB18" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC18" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE18" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF18" t="e">
+        <v>C</v>
+      </c>
+      <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK18" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL18" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN18" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="161">
   <si>
     <t>0001</t>
   </si>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,65 +1905,65 @@
         <v>37</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>C000003A</v>
+        <v>6044241C</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>01100</v>
       </c>
       <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="P9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>11000000000000000000000000111010</v>
+        <v>01100000010001000010010000011100</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>0110</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="3"/>
@@ -1971,31 +1971,31 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2003,31 +2003,31 @@
       </c>
       <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>6044241C</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -2035,49 +2035,49 @@
         <v>38</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>145</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6044241C</v>
+        <v>4800381A</v>
       </c>
       <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01001</v>
       </c>
       <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000010</v>
+        <v>000011</v>
       </c>
       <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
@@ -2085,35 +2085,35 @@
       </c>
       <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>01100000010001000010010000011100</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="8"/>
@@ -2121,31 +2121,31 @@
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>6044241C</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2165,41 +2165,41 @@
         <v>68</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>145</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>2844341C</v>
       </c>
       <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00101</v>
       </c>
       <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
@@ -2215,15 +2215,15 @@
       </c>
       <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>00101000010001000011010000011100</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="3"/>
@@ -2231,11 +2231,11 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="8"/>
@@ -2251,11 +2251,11 @@
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2283,11 +2283,11 @@
       </c>
       <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>2844341C</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2295,33 +2295,33 @@
         <v>69</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2844341C</v>
+        <v>48487800</v>
       </c>
       <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>01001</v>
       </c>
       <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
@@ -2329,31 +2329,31 @@
       </c>
       <c r="N12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(ISNUMBER(MATCH(G12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G12,'HEX GEN BACKEND'!I:I,0)),G12)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="R12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>00101000010001000011010000011100</v>
+        <v>01001000010010000111100000000000</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
@@ -2365,27 +2365,27 @@
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0111</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2397,27 +2397,27 @@
       </c>
       <c r="AH12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>2844341C</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2425,41 +2425,41 @@
         <v>70</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>117</v>
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48487800</v>
+        <v>50247434</v>
       </c>
       <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01010</v>
       </c>
       <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
@@ -2467,35 +2467,35 @@
       </c>
       <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>000000</v>
+        <v>000110</v>
       </c>
       <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
+        <v>01010000001001000111010000110100</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
@@ -2503,31 +2503,31 @@
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2535,19 +2535,19 @@
       </c>
       <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2555,49 +2555,49 @@
         <v>71</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>148</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50247434</v>
+        <v>48500032</v>
       </c>
       <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01001</v>
       </c>
       <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>100</v>
       </c>
       <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000111</v>
+        <v>000000</v>
       </c>
       <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
@@ -2605,35 +2605,35 @@
       </c>
       <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
+        <v>01001000010100000000000000110010</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="8"/>
@@ -2641,31 +2641,31 @@
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2688,26 +2688,26 @@
         <v>9</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>117</v>
-      </c>
       <c r="G15" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>114</v>
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48500032</v>
+        <v>4800783A</v>
       </c>
       <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2715,23 +2715,23 @@
       </c>
       <c r="M15" t="str">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>000000</v>
+        <v>000111</v>
       </c>
       <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>000110</v>
+        <v>000111</v>
       </c>
       <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
+        <v>01001000000000000111100000111010</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="2"/>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="5"/>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="8"/>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2791,11 +2791,11 @@
       </c>
       <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2803,11 +2803,11 @@
       </c>
       <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2815,53 +2815,53 @@
         <v>73</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>114</v>
       </c>
       <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800783A</v>
+        <v>3204F21A</v>
       </c>
       <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>000000</v>
+        <v>010000</v>
       </c>
       <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
-        <v>000111</v>
+        <v>001111</v>
       </c>
       <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2869,15 +2869,15 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000111100000111010</v>
+        <v>00110010000001001111001000011010</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
@@ -2885,19 +2885,19 @@
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>1111</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="9"/>
@@ -2905,11 +2905,11 @@
       </c>
       <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2917,19 +2917,19 @@
       </c>
       <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>F</v>
       </c>
       <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>3204F21A</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -3075,65 +3075,65 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>C000003A</v>
+        <v>6084241C</v>
       </c>
       <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>01100</v>
       </c>
       <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>11000000000000000000000000111010</v>
+        <v>01100000100001000010010000011100</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>0110</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="3"/>
@@ -3141,31 +3141,31 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>6</v>
       </c>
       <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3173,1075 +3173,1201 @@
       </c>
       <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>6084241C</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="25" t="e">
+      <c r="B19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="e">
+        <v>4800381A</v>
+      </c>
+      <c r="L19" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19">
+        <v>01001</v>
+      </c>
+      <c r="M19" t="str">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
+        <v>000000</v>
+      </c>
+      <c r="N19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
+        <v>000011</v>
+      </c>
+      <c r="P19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
+        <v>000011</v>
+      </c>
+      <c r="R19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="1"/>
+        <v>01001000000000000011100000011010</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="4"/>
+        <v>0000</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="6"/>
+        <v>0011</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="8"/>
+        <v>0001</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+      <c r="AE19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AF19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AG19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19">
-        <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
+      <c r="AH19" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19">
-        <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V19" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH19" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" t="e">
+      <c r="AI19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ19" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK19" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL19" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN19" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="25" t="e">
+      <c r="B20" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="e">
+        <v>2884341C</v>
+      </c>
+      <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20">
+        <v>00101</v>
+      </c>
+      <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" t="e">
+        <v>000100</v>
+      </c>
+      <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20">
+        <v>001</v>
+      </c>
+      <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20">
+        <v>010</v>
+      </c>
+      <c r="Q20" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" t="e">
+        <v>100</v>
+      </c>
+      <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="e">
+        <v>00101000100001000011010000011100</v>
+      </c>
+      <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" t="e">
+        <v>0010</v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA20" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB20" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC20" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF20" t="e">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG20" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH20" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ20" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK20" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL20" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN20" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>2884341C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="25" t="e">
+      <c r="B21" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="e">
+        <v>48487800</v>
+      </c>
+      <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21">
+        <v>01001</v>
+      </c>
+      <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
+        <v>000010</v>
+      </c>
+      <c r="N21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
+        <v>000111</v>
+      </c>
+      <c r="P21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
+        <v>000000</v>
+      </c>
+      <c r="R21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="1"/>
+        <v>01001000010010000111100000000000</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="8"/>
+        <v>0000</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="9"/>
+        <v>0000</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AF21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AG21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AH21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AI21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AK21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21">
-        <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
+      <c r="AL21" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21">
-        <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V21" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL21" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN21" t="e">
+      <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="25" t="e">
+      <c r="B22" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
+        <v>50247434</v>
+      </c>
+      <c r="L22" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22">
+        <v>01010</v>
+      </c>
+      <c r="M22" t="str">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
+        <v>000001</v>
+      </c>
+      <c r="N22" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>001</v>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
+        <v>000111</v>
+      </c>
+      <c r="P22" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
+        <v>000110</v>
+      </c>
+      <c r="R22" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="1"/>
+        <v>01010000001001000111010000110100</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="2"/>
+        <v>0101</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="4"/>
+        <v>0010</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="5"/>
+        <v>0100</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="7"/>
+        <v>0100</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="9"/>
+        <v>0100</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>5</v>
+      </c>
+      <c r="AF22" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N22" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22">
-        <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22">
-        <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" t="e">
+      <c r="AG22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN22" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="25" t="e">
+      <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
+        <v>48500032</v>
+      </c>
+      <c r="L23" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23">
+        <v>01001</v>
+      </c>
+      <c r="M23" t="str">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
+        <v>000010</v>
+      </c>
+      <c r="N23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
+        <v>000000</v>
+      </c>
+      <c r="P23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
+        <v>000110</v>
+      </c>
+      <c r="R23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="1"/>
+        <v>01001000010100000000000000110010</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="4"/>
+        <v>0101</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="6"/>
+        <v>0000</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="7"/>
+        <v>0000</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="9"/>
+        <v>0010</v>
+      </c>
+      <c r="AE23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AF23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AG23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>5</v>
+      </c>
+      <c r="AH23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23">
-        <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
+      <c r="AI23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23">
-        <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
+      <c r="AJ23" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="R23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" t="e">
+      <c r="AK23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN23" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="25" t="e">
+      <c r="B24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
+        <v>4800783A</v>
+      </c>
+      <c r="L24" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24">
+        <v>01001</v>
+      </c>
+      <c r="M24" t="str">
         <f>IF(ISNUMBER(MATCH(C24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C24,'HEX GEN BACKEND'!G:G,0)),C24)</f>
+        <v>000000</v>
+      </c>
+      <c r="N24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
+        <v>000111</v>
+      </c>
+      <c r="P24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
+        <v>000111</v>
+      </c>
+      <c r="R24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="1"/>
+        <v>01001000000000000111100000111010</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="2"/>
+        <v>0100</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="4"/>
+        <v>0000</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+      <c r="AE24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AF24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AG24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24">
-        <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
+      <c r="AH24" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24">
-        <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" t="e">
+      <c r="AI24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN24" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="25" t="e">
+      <c r="B25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
+        <v>3325821A</v>
+      </c>
+      <c r="L25" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25">
+        <v>00110</v>
+      </c>
+      <c r="M25" t="str">
         <f>IF(ISNUMBER(MATCH(C25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C25,'HEX GEN BACKEND'!G:G,0)),C25)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" t="e">
+        <v>011001</v>
+      </c>
+      <c r="N25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25">
+        <v>001</v>
+      </c>
+      <c r="O25" t="str">
         <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" t="e">
+        <v>011000</v>
+      </c>
+      <c r="P25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25">
+        <v>001</v>
+      </c>
+      <c r="Q25" t="str">
         <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" t="e">
+        <v>010</v>
+      </c>
+      <c r="T25" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
+        <v>00110011001001011000001000011010</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
+        <v>0011</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X25" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Z25" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB25" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC25" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" t="e">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH25" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" t="e">
+        <v>5</v>
+      </c>
+      <c r="AI25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ25" t="e">
+        <v>8</v>
+      </c>
+      <c r="AJ25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK25" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL25" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN25" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN25" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>3325821A</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="25" t="e">
+      <c r="B26" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
+        <v>0848743C</v>
+      </c>
+      <c r="L26" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26">
+        <v>00001</v>
+      </c>
+      <c r="M26" t="str">
         <f>IF(ISNUMBER(MATCH(C26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C26,'HEX GEN BACKEND'!G:G,0)),C26)</f>
+        <v>000010</v>
+      </c>
+      <c r="N26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="O26" t="str">
+        <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
+        <v>000111</v>
+      </c>
+      <c r="P26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
+        <v>000111</v>
+      </c>
+      <c r="R26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>100</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="1"/>
+        <v>00001000010010000111010000111100</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="2"/>
+        <v>0000</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="6"/>
+        <v>0111</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="7"/>
+        <v>0100</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="9"/>
+        <v>1100</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26">
-        <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26">
-        <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE26" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF26" t="e">
+      <c r="AF26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AH26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN26" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN26" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0848743C</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="25" t="e">
+      <c r="B27" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
+        <v>C000003A</v>
+      </c>
+      <c r="L27" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27">
+        <v>11000</v>
+      </c>
+      <c r="M27" t="str">
         <f>IF(ISNUMBER(MATCH(C27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C27,'HEX GEN BACKEND'!G:G,0)),C27)</f>
+        <v>000000</v>
+      </c>
+      <c r="N27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="O27" t="str">
+        <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
+        <v>000000</v>
+      </c>
+      <c r="P27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>000</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
+        <v>000111</v>
+      </c>
+      <c r="R27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
+        <v>010</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="1"/>
+        <v>11000000000000000000000000111010</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="4"/>
+        <v>0000</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="5"/>
+        <v>0000</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="6"/>
+        <v>0000</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="7"/>
+        <v>0000</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="8"/>
+        <v>0011</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="9"/>
+        <v>1010</v>
+      </c>
+      <c r="AE27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
+        <v>C</v>
+      </c>
+      <c r="AF27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="N27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27">
-        <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
+      <c r="AG27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="P27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27">
-        <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
+      <c r="AH27" t="str">
+        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
         <v>0</v>
       </c>
-      <c r="R27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V27" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB27" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" t="e">
-        <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" t="e">
+      <c r="AI27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN27" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN27" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="194">
   <si>
     <t>0001</t>
   </si>
@@ -615,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +634,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -769,6 +776,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +1066,7 @@
   <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="I2" sqref="I2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,25 +1118,25 @@
       <c r="A2" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="58" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="25" t="str">
@@ -1234,25 +1248,25 @@
       <c r="A3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="58" t="s">
         <v>117</v>
       </c>
       <c r="I3" s="25" t="str">
@@ -1288,11 +1302,11 @@
         <v>000</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T66" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
+        <f t="shared" ref="T3:T32" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
         <v>10111000010100000010100000000000</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" ref="V3:V33" si="2">MID(T3,1,4)</f>
+        <f t="shared" ref="V3:V32" si="2">MID(T3,1,4)</f>
         <v>1011</v>
       </c>
       <c r="W3" t="str">
@@ -1364,25 +1378,25 @@
       <c r="A4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I4" s="25" t="str">
@@ -1494,25 +1508,25 @@
       <c r="A5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="25" t="str">
@@ -1624,25 +1638,25 @@
       <c r="A6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="25" t="str">
@@ -1754,25 +1768,25 @@
       <c r="A7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="25" t="str">
@@ -1884,25 +1898,25 @@
       <c r="A8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="25" t="str">
@@ -2014,130 +2028,130 @@
       <c r="A9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>115</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6044241C</v>
+        <v>48004809</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01001</v>
       </c>
       <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="P9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000011</v>
+        <v>000001</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>01100000010001000010010000011100</v>
+        <v>01001000000000000100100000001001</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1001</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>6044241C</v>
+        <v>48004809</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -2145,129 +2159,129 @@
         <v>38</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>114</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>50244424</v>
       </c>
       <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01010</v>
       </c>
       <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000000</v>
+        <v>000001</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>01010000001001000100010000100100</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0100</v>
       </c>
       <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>4</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>50244424</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2275,65 +2289,65 @@
         <v>68</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2844341C</v>
+        <v>48904822</v>
       </c>
       <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>01001</v>
       </c>
       <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>100</v>
       </c>
       <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>00101000010001000011010000011100</v>
+        <v>01001000100100000100100000100010</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="3"/>
@@ -2341,31 +2355,31 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1001</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2373,31 +2387,31 @@
       </c>
       <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>2844341C</v>
+        <v>48904822</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2405,37 +2419,37 @@
         <v>69</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48487800</v>
+        <v>6088241C</v>
       </c>
       <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01100</v>
       </c>
       <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="N12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2443,35 +2457,35 @@
       </c>
       <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000111</v>
+        <v>000010</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(ISNUMBER(MATCH(G12,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G12,'HEX GEN BACKEND'!I:I,0)),G12)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="R12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H12,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
+        <v>01100000100010000010010000011100</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="5"/>
@@ -2479,31 +2493,31 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0010</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2511,23 +2525,23 @@
       </c>
       <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>6088241C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2535,129 +2549,129 @@
         <v>70</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50247434</v>
+        <v>4800381A</v>
       </c>
       <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01001</v>
       </c>
       <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0011</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2665,65 +2679,65 @@
         <v>71</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>114</v>
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48500032</v>
+        <v>2888341C</v>
       </c>
       <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00101</v>
       </c>
       <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
+        <v>00101000100010000011010000011100</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
@@ -2731,31 +2745,31 @@
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2763,31 +2777,31 @@
       </c>
       <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>2888341C</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2798,10 +2812,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>142</v>
@@ -2810,14 +2824,14 @@
         <v>113</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800783A</v>
+        <v>48487800</v>
       </c>
       <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2825,11 +2839,11 @@
       </c>
       <c r="M15" t="str">
         <f>IF(ISNUMBER(MATCH(C15,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C15,'HEX GEN BACKEND'!G:G,0)),C15)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
@@ -2841,15 +2855,15 @@
       </c>
       <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>000111</v>
+        <v>000000</v>
       </c>
       <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000111100000111010</v>
+        <v>01001000010010000111100000000000</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="2"/>
@@ -2861,11 +2875,11 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
@@ -2877,11 +2891,11 @@
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2893,11 +2907,11 @@
       </c>
       <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2909,15 +2923,15 @@
       </c>
       <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2925,37 +2939,37 @@
         <v>73</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>3204F21A</v>
+        <v>50247434</v>
       </c>
       <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>01010</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>010000</v>
+        <v>000001</v>
       </c>
       <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2963,35 +2977,35 @@
       </c>
       <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
-        <v>001111</v>
+        <v>000111</v>
       </c>
       <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>000011</v>
+        <v>000110</v>
       </c>
       <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>00110010000001001111001000011010</v>
+        <v>01010000001001000111010000110100</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0101</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="5"/>
@@ -2999,31 +3013,31 @@
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
-        <v>1111</v>
+        <v>0111</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0100</v>
       </c>
       <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3031,23 +3045,23 @@
       </c>
       <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>F</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>4</v>
       </c>
       <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>3204F21A</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -3055,33 +3069,33 @@
         <v>74</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0848743C</v>
+        <v>48500032</v>
       </c>
       <c r="L17" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01001</v>
       </c>
       <c r="M17" t="str">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
@@ -3089,31 +3103,31 @@
       </c>
       <c r="N17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="O17" t="str">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>000111</v>
+        <v>000000</v>
       </c>
       <c r="P17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q17" t="str">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>000111</v>
+        <v>000110</v>
       </c>
       <c r="R17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>00001000010010000111010000111100</v>
+        <v>01001000010100000000000000110010</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="3"/>
@@ -3121,19 +3135,19 @@
       </c>
       <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="8"/>
@@ -3141,11 +3155,11 @@
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="AE17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3153,19 +3167,19 @@
       </c>
       <c r="AG17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3173,11 +3187,11 @@
       </c>
       <c r="AL17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
@@ -3185,129 +3199,129 @@
         <v>75</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F18" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6084241C</v>
+        <v>4800783A</v>
       </c>
       <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01001</v>
       </c>
       <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
-        <v>000010</v>
+        <v>000111</v>
       </c>
       <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>01100000100001000010010000011100</v>
+        <v>01001000000000000111100000111010</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0111</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>6084241C</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -3315,19 +3329,19 @@
         <v>76</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>145</v>
@@ -3337,27 +3351,27 @@
       </c>
       <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>3265221A</v>
       </c>
       <c r="L19" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M19" t="str">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
-        <v>000000</v>
+        <v>010011</v>
       </c>
       <c r="N19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O19" t="str">
         <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
-        <v>000011</v>
+        <v>010010</v>
       </c>
       <c r="P19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q19" t="str">
         <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
@@ -3369,31 +3383,31 @@
       </c>
       <c r="T19" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>00110010011001010010001000011010</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="8"/>
@@ -3405,27 +3419,27 @@
       </c>
       <c r="AE19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3437,7 +3451,7 @@
       </c>
       <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>3265221A</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -3445,45 +3459,45 @@
         <v>77</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>114</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>113</v>
       </c>
       <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2884341C</v>
+        <v>0848743C</v>
       </c>
       <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>00001</v>
       </c>
       <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>000100</v>
+        <v>000010</v>
       </c>
       <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="P20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3491,7 +3505,7 @@
       </c>
       <c r="Q20" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="R20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3499,11 +3513,11 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>00101000100001000011010000011100</v>
+        <v>00001000010010000111010000111100</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="3"/>
@@ -3511,15 +3525,15 @@
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0111</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="7"/>
@@ -3527,7 +3541,7 @@
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="9"/>
@@ -3535,7 +3549,7 @@
       </c>
       <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3543,15 +3557,15 @@
       </c>
       <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3559,7 +3573,7 @@
       </c>
       <c r="AK20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3567,7 +3581,7 @@
       </c>
       <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>2884341C</v>
+        <v>0848743C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -3575,37 +3589,37 @@
         <v>78</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F21" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="40" t="s">
         <v>113</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48487800</v>
+        <v>288A022C</v>
       </c>
       <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00101</v>
       </c>
       <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="N21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3613,27 +3627,27 @@
       </c>
       <c r="O21" t="str">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>000111</v>
+        <v>100000</v>
       </c>
       <c r="P21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>000000</v>
+        <v>000101</v>
       </c>
       <c r="R21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
+        <v>00101000100010100000001000101100</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="3"/>
@@ -3641,31 +3655,31 @@
       </c>
       <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>1100</v>
       </c>
       <c r="AE21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3673,31 +3687,31 @@
       </c>
       <c r="AG21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>A</v>
       </c>
       <c r="AI21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>C</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>288A022C</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -3705,37 +3719,37 @@
         <v>79</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50247434</v>
+        <v>3105522A</v>
       </c>
       <c r="L22" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>00110</v>
       </c>
       <c r="M22" t="str">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
-        <v>000001</v>
+        <v>001000</v>
       </c>
       <c r="N22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3743,91 +3757,91 @@
       </c>
       <c r="O22" t="str">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>000111</v>
+        <v>010101</v>
       </c>
       <c r="P22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="Q22" t="str">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>000110</v>
+        <v>000101</v>
       </c>
       <c r="R22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
+        <v>00110001000001010101001000101010</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="X22" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y22" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0101</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>3105522A</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -3835,13 +3849,13 @@
         <v>80</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>158</v>
@@ -3850,26 +3864,26 @@
         <v>117</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>114</v>
       </c>
       <c r="I23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48500032</v>
+        <v>C000003A</v>
       </c>
       <c r="L23" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>11000</v>
       </c>
       <c r="M23" t="str">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="O23" t="str">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
@@ -3881,7 +3895,7 @@
       </c>
       <c r="Q23" t="str">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>000110</v>
+        <v>000111</v>
       </c>
       <c r="R23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3889,19 +3903,19 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
+        <v>11000000000000000000000000111010</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="5"/>
@@ -3921,19 +3935,19 @@
       </c>
       <c r="AC23" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AE23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AF23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3953,4041 +3967,3607 @@
       </c>
       <c r="AL23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="25" t="str">
+      <c r="B24" s="25"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4800783A</v>
-      </c>
-      <c r="L24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M24">
         <f>IF(ISNUMBER(MATCH(C24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C24,'HEX GEN BACKEND'!G:G,0)),C24)</f>
-        <v>000000</v>
-      </c>
-      <c r="N24" t="str">
+        <v>0</v>
+      </c>
+      <c r="N24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O24">
         <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
-        <v>000111</v>
-      </c>
-      <c r="P24" t="str">
+        <v>0</v>
+      </c>
+      <c r="P24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24">
         <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
-        <v>000111</v>
-      </c>
-      <c r="R24" t="str">
+        <v>0</v>
+      </c>
+      <c r="R24" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000111100000111010</v>
-      </c>
-      <c r="V24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W24" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
         <f t="shared" si="6"/>
-        <v>0111</v>
-      </c>
-      <c r="AA24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN24" t="e">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="25" t="str">
+      <c r="B25" s="25"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>3325821A</v>
-      </c>
-      <c r="L25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M25">
         <f>IF(ISNUMBER(MATCH(C25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C25,'HEX GEN BACKEND'!G:G,0)),C25)</f>
-        <v>011001</v>
-      </c>
-      <c r="N25" t="str">
+        <v>0</v>
+      </c>
+      <c r="N25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O25">
         <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
-        <v>011000</v>
-      </c>
-      <c r="P25" t="str">
+        <v>0</v>
+      </c>
+      <c r="P25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25">
         <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
-        <v>000011</v>
-      </c>
-      <c r="R25" t="str">
+        <v>0</v>
+      </c>
+      <c r="R25" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
         <f t="shared" si="1"/>
-        <v>00110011001001011000001000011010</v>
-      </c>
-      <c r="V25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="W25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
         <f t="shared" si="3"/>
-        <v>0011</v>
-      </c>
-      <c r="X25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
         <f t="shared" si="4"/>
-        <v>0010</v>
-      </c>
-      <c r="Y25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
         <f t="shared" si="5"/>
-        <v>0101</v>
-      </c>
-      <c r="Z25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
         <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
         <f t="shared" si="7"/>
-        <v>0010</v>
-      </c>
-      <c r="AB25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AI25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AJ25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN25" t="e">
         <f t="shared" si="10"/>
-        <v>3325821A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="25" t="str">
+      <c r="B26" s="25"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>0848743C</v>
-      </c>
-      <c r="L26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M26">
         <f>IF(ISNUMBER(MATCH(C26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C26,'HEX GEN BACKEND'!G:G,0)),C26)</f>
-        <v>000010</v>
-      </c>
-      <c r="N26" t="str">
+        <v>0</v>
+      </c>
+      <c r="N26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O26">
         <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
-        <v>000111</v>
-      </c>
-      <c r="P26" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26">
         <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
-        <v>000111</v>
-      </c>
-      <c r="R26" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
         <f t="shared" si="1"/>
-        <v>00001000010010000111010000111100</v>
-      </c>
-      <c r="V26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
         <f t="shared" si="6"/>
-        <v>0111</v>
-      </c>
-      <c r="AA26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN26" t="e">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="25" t="str">
+      <c r="B27" s="25"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>6104241C</v>
-      </c>
-      <c r="L27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
-      </c>
-      <c r="M27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M27">
         <f>IF(ISNUMBER(MATCH(C27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C27,'HEX GEN BACKEND'!G:G,0)),C27)</f>
-        <v>001000</v>
-      </c>
-      <c r="N27" t="str">
+        <v>0</v>
+      </c>
+      <c r="N27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O27">
         <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
-        <v>000010</v>
-      </c>
-      <c r="P27" t="str">
+        <v>0</v>
+      </c>
+      <c r="P27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27">
         <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
-        <v>000011</v>
-      </c>
-      <c r="R27" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
         <f t="shared" si="1"/>
-        <v>01100001000001000010010000011100</v>
-      </c>
-      <c r="V27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="e">
         <f t="shared" si="2"/>
-        <v>0110</v>
-      </c>
-      <c r="W27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" t="e">
         <f t="shared" si="3"/>
-        <v>0001</v>
-      </c>
-      <c r="X27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
         <f t="shared" si="6"/>
-        <v>0010</v>
-      </c>
-      <c r="AA27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AF27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AG27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN27" t="e">
         <f t="shared" si="10"/>
-        <v>6104241C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="25" t="str">
+      <c r="B28" s="25"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
-      </c>
-      <c r="L28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B28,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M28">
         <f>IF(ISNUMBER(MATCH(C28,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C28,'HEX GEN BACKEND'!G:G,0)),C28)</f>
-        <v>000000</v>
-      </c>
-      <c r="N28" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O28">
         <f>IF(ISNUMBER(MATCH(E28,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E28,'HEX GEN BACKEND'!H:H,0)),E28)</f>
-        <v>000011</v>
-      </c>
-      <c r="P28" t="str">
+        <v>0</v>
+      </c>
+      <c r="P28" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28">
         <f>IF(ISNUMBER(MATCH(G28,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G28,'HEX GEN BACKEND'!I:I,0)),G28)</f>
-        <v>000011</v>
-      </c>
-      <c r="R28" t="str">
+        <v>0</v>
+      </c>
+      <c r="R28" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="V28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AA28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN28" t="e">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="25" t="str">
+      <c r="B29" s="25"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>2904341C</v>
-      </c>
-      <c r="L29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
-      </c>
-      <c r="M29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M29">
         <f>IF(ISNUMBER(MATCH(C29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C29,'HEX GEN BACKEND'!G:G,0)),C29)</f>
-        <v>001000</v>
-      </c>
-      <c r="N29" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O29">
         <f>IF(ISNUMBER(MATCH(E29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E29,'HEX GEN BACKEND'!H:H,0)),E29)</f>
-        <v>000011</v>
-      </c>
-      <c r="P29" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29">
         <f>IF(ISNUMBER(MATCH(G29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G29,'HEX GEN BACKEND'!I:I,0)),G29)</f>
-        <v>000011</v>
-      </c>
-      <c r="R29" t="str">
+        <v>0</v>
+      </c>
+      <c r="R29" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T29" t="e">
         <f t="shared" si="1"/>
-        <v>00101001000001000011010000011100</v>
-      </c>
-      <c r="V29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
         <f t="shared" si="2"/>
-        <v>0010</v>
-      </c>
-      <c r="W29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
         <f t="shared" si="3"/>
-        <v>1001</v>
-      </c>
-      <c r="X29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
         <f t="shared" si="6"/>
-        <v>0011</v>
-      </c>
-      <c r="AA29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="e">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" t="e">
         <f t="shared" si="9"/>
-        <v>1100</v>
-      </c>
-      <c r="AE29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AF29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
-      </c>
-      <c r="AG29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN29" t="e">
         <f t="shared" si="10"/>
-        <v>2904341C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="25" t="str">
+      <c r="B30" s="25"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>48487800</v>
-      </c>
-      <c r="L30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B30,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M30">
         <f>IF(ISNUMBER(MATCH(C30,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C30,'HEX GEN BACKEND'!G:G,0)),C30)</f>
-        <v>000010</v>
-      </c>
-      <c r="N30" t="str">
+        <v>0</v>
+      </c>
+      <c r="N30" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O30">
         <f>IF(ISNUMBER(MATCH(E30,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E30,'HEX GEN BACKEND'!H:H,0)),E30)</f>
-        <v>000111</v>
-      </c>
-      <c r="P30" t="str">
+        <v>0</v>
+      </c>
+      <c r="P30" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30">
         <f>IF(ISNUMBER(MATCH(G30,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G30,'HEX GEN BACKEND'!I:I,0)),G30)</f>
-        <v>000000</v>
-      </c>
-      <c r="R30" t="str">
+        <v>0</v>
+      </c>
+      <c r="R30" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="T30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T30" t="e">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
-      </c>
-      <c r="V30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="e">
         <f t="shared" si="4"/>
-        <v>0100</v>
-      </c>
-      <c r="Y30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="e">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" t="e">
         <f t="shared" si="6"/>
-        <v>0111</v>
-      </c>
-      <c r="AA30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" t="e">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" t="e">
         <f t="shared" si="8"/>
-        <v>0000</v>
-      </c>
-      <c r="AC30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" t="e">
         <f t="shared" si="9"/>
-        <v>0000</v>
-      </c>
-      <c r="AE30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AN30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN30" t="e">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="25" t="str">
+      <c r="B31" s="25"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>50247434</v>
-      </c>
-      <c r="L31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B31,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M31">
         <f>IF(ISNUMBER(MATCH(C31,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C31,'HEX GEN BACKEND'!G:G,0)),C31)</f>
-        <v>000001</v>
-      </c>
-      <c r="N31" t="str">
+        <v>0</v>
+      </c>
+      <c r="N31" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O31">
         <f>IF(ISNUMBER(MATCH(E31,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E31,'HEX GEN BACKEND'!H:H,0)),E31)</f>
-        <v>000111</v>
-      </c>
-      <c r="P31" t="str">
+        <v>0</v>
+      </c>
+      <c r="P31" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31">
         <f>IF(ISNUMBER(MATCH(G31,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G31,'HEX GEN BACKEND'!I:I,0)),G31)</f>
-        <v>000110</v>
-      </c>
-      <c r="R31" t="str">
+        <v>0</v>
+      </c>
+      <c r="R31" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T31" t="e">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
-      </c>
-      <c r="V31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="e">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W31" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X31" t="e">
         <f t="shared" si="4"/>
-        <v>0010</v>
-      </c>
-      <c r="Y31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
         <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" t="e">
         <f t="shared" si="6"/>
-        <v>0111</v>
-      </c>
-      <c r="AA31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" t="e">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB31" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC31" t="e">
         <f t="shared" si="9"/>
-        <v>0100</v>
-      </c>
-      <c r="AE31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL31" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN31" t="e">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="25" t="str">
+      <c r="B32" s="25"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>48500032</v>
-      </c>
-      <c r="L32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B32,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M32">
         <f>IF(ISNUMBER(MATCH(C32,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C32,'HEX GEN BACKEND'!G:G,0)),C32)</f>
-        <v>000010</v>
-      </c>
-      <c r="N32" t="str">
+        <v>0</v>
+      </c>
+      <c r="N32" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O32">
         <f>IF(ISNUMBER(MATCH(E32,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E32,'HEX GEN BACKEND'!H:H,0)),E32)</f>
-        <v>000000</v>
-      </c>
-      <c r="P32" t="str">
+        <v>0</v>
+      </c>
+      <c r="P32" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32">
         <f>IF(ISNUMBER(MATCH(G32,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G32,'HEX GEN BACKEND'!I:I,0)),G32)</f>
-        <v>000110</v>
-      </c>
-      <c r="R32" t="str">
+        <v>0</v>
+      </c>
+      <c r="R32" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="e">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
-      </c>
-      <c r="V32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
         <f t="shared" si="2"/>
-        <v>0100</v>
-      </c>
-      <c r="W32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="X32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
         <f t="shared" si="4"/>
-        <v>0101</v>
-      </c>
-      <c r="Y32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB32" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC32" t="e">
         <f t="shared" si="9"/>
-        <v>0010</v>
-      </c>
-      <c r="AE32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL32" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN32" t="e">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="42" t="str">
+      <c r="B33" s="25"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="42" t="e">
         <f>AN33</f>
-        <v>4800783A</v>
-      </c>
-      <c r="L33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B33,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M33">
         <f>IF(ISNUMBER(MATCH(C33,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C33,'HEX GEN BACKEND'!G:G,0)),C33)</f>
-        <v>000000</v>
-      </c>
-      <c r="N33" t="str">
+        <v>0</v>
+      </c>
+      <c r="N33" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O33">
         <f>IF(ISNUMBER(MATCH(E33,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E33,'HEX GEN BACKEND'!H:H,0)),E33)</f>
-        <v>000111</v>
-      </c>
-      <c r="P33" t="str">
+        <v>0</v>
+      </c>
+      <c r="P33" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33">
         <f>IF(ISNUMBER(MATCH(G33,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G33,'HEX GEN BACKEND'!I:I,0)),G33)</f>
-        <v>000111</v>
-      </c>
-      <c r="R33" t="str">
+        <v>0</v>
+      </c>
+      <c r="R33" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
         <f t="shared" ref="T33:T96" si="11">L33&amp;M33&amp;N33&amp;O33&amp;P33&amp;Q33&amp;R33</f>
-        <v>01001000000000000111100000111010</v>
-      </c>
-      <c r="V33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="e">
         <f t="shared" ref="V33:V96" si="12">MID(T33,1,4)</f>
-        <v>0100</v>
-      </c>
-      <c r="W33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W33" t="e">
         <f t="shared" ref="W33:W96" si="13">MID(T33,5,4)</f>
-        <v>1000</v>
-      </c>
-      <c r="X33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X33" t="e">
         <f t="shared" ref="X33:X96" si="14">MID(T33,9,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Y33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
         <f t="shared" ref="Y33:Y96" si="15">MID(T33,13,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="Z33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" t="e">
         <f t="shared" ref="Z33:Z96" si="16">MID(T33,17,4)</f>
-        <v>0111</v>
-      </c>
-      <c r="AA33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" t="e">
         <f t="shared" ref="AA33:AA96" si="17">MID(T33,21,4)</f>
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="e">
         <f t="shared" ref="AB33:AB96" si="18">MID(T33,25,4)</f>
-        <v>0011</v>
-      </c>
-      <c r="AC33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC33" t="e">
         <f t="shared" ref="AC33:AC96" si="19">MID(T33,29,4)</f>
-        <v>1010</v>
-      </c>
-      <c r="AE33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL33" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN33" t="e">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="42" t="str">
+      <c r="B34" s="25"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="42" t="e">
         <f t="shared" ref="I34:I97" si="20">AN34</f>
-        <v>3446121A</v>
-      </c>
-      <c r="L34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B34,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M34">
         <f>IF(ISNUMBER(MATCH(C34,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C34,'HEX GEN BACKEND'!G:G,0)),C34)</f>
-        <v>100010</v>
-      </c>
-      <c r="N34" t="str">
+        <v>0</v>
+      </c>
+      <c r="N34" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O34">
         <f>IF(ISNUMBER(MATCH(E34,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E34,'HEX GEN BACKEND'!H:H,0)),E34)</f>
-        <v>100001</v>
-      </c>
-      <c r="P34" t="str">
+        <v>0</v>
+      </c>
+      <c r="P34" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q34">
         <f>IF(ISNUMBER(MATCH(G34,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G34,'HEX GEN BACKEND'!I:I,0)),G34)</f>
-        <v>000011</v>
-      </c>
-      <c r="R34" t="str">
+        <v>0</v>
+      </c>
+      <c r="R34" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T34" t="e">
         <f t="shared" si="11"/>
-        <v>00110100010001100001001000011010</v>
-      </c>
-      <c r="V34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="e">
         <f t="shared" si="12"/>
-        <v>0011</v>
-      </c>
-      <c r="W34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W34" t="e">
         <f t="shared" si="13"/>
-        <v>0100</v>
-      </c>
-      <c r="X34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X34" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" t="e">
         <f t="shared" si="15"/>
-        <v>0110</v>
-      </c>
-      <c r="Z34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z34" t="e">
         <f t="shared" si="16"/>
-        <v>0001</v>
-      </c>
-      <c r="AA34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA34" t="e">
         <f t="shared" si="17"/>
-        <v>0010</v>
-      </c>
-      <c r="AB34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB34" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC34" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AI34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL34" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN34" t="e">
         <f t="shared" si="10"/>
-        <v>3446121A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="42" t="str">
+      <c r="B35" s="25"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>0848743C</v>
-      </c>
-      <c r="L35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B35,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M35">
         <f>IF(ISNUMBER(MATCH(C35,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C35,'HEX GEN BACKEND'!G:G,0)),C35)</f>
-        <v>000010</v>
-      </c>
-      <c r="N35" t="str">
+        <v>0</v>
+      </c>
+      <c r="N35" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O35">
         <f>IF(ISNUMBER(MATCH(E35,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E35,'HEX GEN BACKEND'!H:H,0)),E35)</f>
-        <v>000111</v>
-      </c>
-      <c r="P35" t="str">
+        <v>0</v>
+      </c>
+      <c r="P35" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q35">
         <f>IF(ISNUMBER(MATCH(G35,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G35,'HEX GEN BACKEND'!I:I,0)),G35)</f>
-        <v>000111</v>
-      </c>
-      <c r="R35" t="str">
+        <v>0</v>
+      </c>
+      <c r="R35" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
         <f t="shared" si="11"/>
-        <v>00001000010010000111010000111100</v>
-      </c>
-      <c r="V35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="e">
         <f t="shared" si="12"/>
-        <v>0000</v>
-      </c>
-      <c r="W35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W35" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X35" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="e">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="Z35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z35" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA35" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB35" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC35" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL35" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN35" t="e">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="42" t="str">
+      <c r="B36" s="25"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>6204241C</v>
-      </c>
-      <c r="L36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B36,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
-      </c>
-      <c r="M36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M36">
         <f>IF(ISNUMBER(MATCH(C36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C36,'HEX GEN BACKEND'!G:G,0)),C36)</f>
-        <v>010000</v>
-      </c>
-      <c r="N36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N36" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O36">
         <f>IF(ISNUMBER(MATCH(E36,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E36,'HEX GEN BACKEND'!H:H,0)),E36)</f>
-        <v>000010</v>
-      </c>
-      <c r="P36" t="str">
+        <v>0</v>
+      </c>
+      <c r="P36" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q36">
         <f>IF(ISNUMBER(MATCH(G36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G36,'HEX GEN BACKEND'!I:I,0)),G36)</f>
-        <v>000011</v>
-      </c>
-      <c r="R36" t="str">
+        <v>0</v>
+      </c>
+      <c r="R36" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T36" t="e">
         <f t="shared" si="11"/>
-        <v>01100010000001000010010000011100</v>
-      </c>
-      <c r="V36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V36" t="e">
         <f t="shared" si="12"/>
-        <v>0110</v>
-      </c>
-      <c r="W36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W36" t="e">
         <f t="shared" si="13"/>
-        <v>0010</v>
-      </c>
-      <c r="X36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X36" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y36" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z36" t="e">
         <f t="shared" si="16"/>
-        <v>0010</v>
-      </c>
-      <c r="AA36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA36" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB36" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC36" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AF36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AG36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL36" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN36" t="e">
         <f t="shared" si="10"/>
-        <v>6204241C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="42" t="str">
+      <c r="B37" s="25"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>4800381A</v>
-      </c>
-      <c r="L37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M37">
         <f>IF(ISNUMBER(MATCH(C37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C37,'HEX GEN BACKEND'!G:G,0)),C37)</f>
-        <v>000000</v>
-      </c>
-      <c r="N37" t="str">
+        <v>0</v>
+      </c>
+      <c r="N37" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O37">
         <f>IF(ISNUMBER(MATCH(E37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E37,'HEX GEN BACKEND'!H:H,0)),E37)</f>
-        <v>000011</v>
-      </c>
-      <c r="P37" t="str">
+        <v>0</v>
+      </c>
+      <c r="P37" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q37">
         <f>IF(ISNUMBER(MATCH(G37,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G37,'HEX GEN BACKEND'!I:I,0)),G37)</f>
-        <v>000011</v>
-      </c>
-      <c r="R37" t="str">
+        <v>0</v>
+      </c>
+      <c r="R37" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
         <f t="shared" si="11"/>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="V37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V37" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W37" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X37" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y37" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z37" t="e">
         <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AA37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA37" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB37" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC37" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL37" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN37" t="e">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="42" t="str">
+      <c r="B38" s="25"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>2A04341C</v>
-      </c>
-      <c r="L38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B38,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
-      </c>
-      <c r="M38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M38">
         <f>IF(ISNUMBER(MATCH(C38,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C38,'HEX GEN BACKEND'!G:G,0)),C38)</f>
-        <v>010000</v>
-      </c>
-      <c r="N38" t="str">
+        <v>0</v>
+      </c>
+      <c r="N38" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O38">
         <f>IF(ISNUMBER(MATCH(E38,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E38,'HEX GEN BACKEND'!H:H,0)),E38)</f>
-        <v>000011</v>
-      </c>
-      <c r="P38" t="str">
+        <v>0</v>
+      </c>
+      <c r="P38" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q38">
         <f>IF(ISNUMBER(MATCH(G38,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G38,'HEX GEN BACKEND'!I:I,0)),G38)</f>
-        <v>000011</v>
-      </c>
-      <c r="R38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R38" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
         <f t="shared" si="11"/>
-        <v>00101010000001000011010000011100</v>
-      </c>
-      <c r="V38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V38" t="e">
         <f t="shared" si="12"/>
-        <v>0010</v>
-      </c>
-      <c r="W38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W38" t="e">
         <f t="shared" si="13"/>
-        <v>1010</v>
-      </c>
-      <c r="X38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X38" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y38" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z38" t="e">
         <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AA38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA38" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB38" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC38" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AF38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AG38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL38" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN38" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN38" t="e">
         <f t="shared" si="10"/>
-        <v>2A04341C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="42" t="str">
+      <c r="B39" s="25"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>48487800</v>
-      </c>
-      <c r="L39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B39,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M39">
         <f>IF(ISNUMBER(MATCH(C39,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C39,'HEX GEN BACKEND'!G:G,0)),C39)</f>
-        <v>000010</v>
-      </c>
-      <c r="N39" t="str">
+        <v>0</v>
+      </c>
+      <c r="N39" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O39">
         <f>IF(ISNUMBER(MATCH(E39,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E39,'HEX GEN BACKEND'!H:H,0)),E39)</f>
-        <v>000111</v>
-      </c>
-      <c r="P39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P39" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q39">
         <f>IF(ISNUMBER(MATCH(G39,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G39,'HEX GEN BACKEND'!I:I,0)),G39)</f>
-        <v>000000</v>
-      </c>
-      <c r="R39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R39" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="T39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T39" t="e">
         <f t="shared" si="11"/>
-        <v>01001000010010000111100000000000</v>
-      </c>
-      <c r="V39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W39" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X39" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z39" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB39" t="e">
         <f t="shared" si="18"/>
-        <v>0000</v>
-      </c>
-      <c r="AC39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC39" t="e">
         <f t="shared" si="19"/>
-        <v>0000</v>
-      </c>
-      <c r="AE39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL39" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AN39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN39" t="e">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="42" t="str">
+      <c r="B40" s="25"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>50247434</v>
-      </c>
-      <c r="L40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B40,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M40">
         <f>IF(ISNUMBER(MATCH(C40,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C40,'HEX GEN BACKEND'!G:G,0)),C40)</f>
-        <v>000001</v>
-      </c>
-      <c r="N40" t="str">
+        <v>0</v>
+      </c>
+      <c r="N40" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O40">
         <f>IF(ISNUMBER(MATCH(E40,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E40,'HEX GEN BACKEND'!H:H,0)),E40)</f>
-        <v>000111</v>
-      </c>
-      <c r="P40" t="str">
+        <v>0</v>
+      </c>
+      <c r="P40" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q40">
         <f>IF(ISNUMBER(MATCH(G40,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G40,'HEX GEN BACKEND'!I:I,0)),G40)</f>
-        <v>000110</v>
-      </c>
-      <c r="R40" t="str">
+        <v>0</v>
+      </c>
+      <c r="R40" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T40" t="e">
         <f t="shared" si="11"/>
-        <v>01010000001001000111010000110100</v>
-      </c>
-      <c r="V40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V40" t="e">
         <f t="shared" si="12"/>
-        <v>0101</v>
-      </c>
-      <c r="W40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W40" t="e">
         <f t="shared" si="13"/>
-        <v>0000</v>
-      </c>
-      <c r="X40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X40" t="e">
         <f t="shared" si="14"/>
-        <v>0010</v>
-      </c>
-      <c r="Y40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y40" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z40" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA40" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB40" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC40" t="e">
         <f t="shared" si="19"/>
-        <v>0100</v>
-      </c>
-      <c r="AE40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL40" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN40" t="e">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="42" t="str">
+      <c r="B41" s="25"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>48500032</v>
-      </c>
-      <c r="L41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B41,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M41">
         <f>IF(ISNUMBER(MATCH(C41,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C41,'HEX GEN BACKEND'!G:G,0)),C41)</f>
-        <v>000010</v>
-      </c>
-      <c r="N41" t="str">
+        <v>0</v>
+      </c>
+      <c r="N41" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O41">
         <f>IF(ISNUMBER(MATCH(E41,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E41,'HEX GEN BACKEND'!H:H,0)),E41)</f>
-        <v>000000</v>
-      </c>
-      <c r="P41" t="str">
+        <v>0</v>
+      </c>
+      <c r="P41" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q41">
         <f>IF(ISNUMBER(MATCH(G41,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G41,'HEX GEN BACKEND'!I:I,0)),G41)</f>
-        <v>000110</v>
-      </c>
-      <c r="R41" t="str">
+        <v>0</v>
+      </c>
+      <c r="R41" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T41" t="e">
         <f t="shared" si="11"/>
-        <v>01001000010100000000000000110010</v>
-      </c>
-      <c r="V41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V41" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W41" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X41" t="e">
         <f t="shared" si="14"/>
-        <v>0101</v>
-      </c>
-      <c r="Y41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y41" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z41" t="e">
         <f t="shared" si="16"/>
-        <v>0000</v>
-      </c>
-      <c r="AA41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA41" t="e">
         <f t="shared" si="17"/>
-        <v>0000</v>
-      </c>
-      <c r="AB41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB41" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC41" t="e">
         <f t="shared" si="19"/>
-        <v>0010</v>
-      </c>
-      <c r="AE41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL41" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN41" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN41" t="e">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="42" t="str">
+      <c r="B42" s="25"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>4800783A</v>
-      </c>
-      <c r="L42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B42,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M42">
         <f>IF(ISNUMBER(MATCH(C42,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C42,'HEX GEN BACKEND'!G:G,0)),C42)</f>
-        <v>000000</v>
-      </c>
-      <c r="N42" t="str">
+        <v>0</v>
+      </c>
+      <c r="N42" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O42">
         <f>IF(ISNUMBER(MATCH(E42,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E42,'HEX GEN BACKEND'!H:H,0)),E42)</f>
-        <v>000111</v>
-      </c>
-      <c r="P42" t="str">
+        <v>0</v>
+      </c>
+      <c r="P42" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q42">
         <f>IF(ISNUMBER(MATCH(G42,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G42,'HEX GEN BACKEND'!I:I,0)),G42)</f>
-        <v>000111</v>
-      </c>
-      <c r="R42" t="str">
+        <v>0</v>
+      </c>
+      <c r="R42" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T42" t="e">
         <f t="shared" si="11"/>
-        <v>01001000000000000111100000111010</v>
-      </c>
-      <c r="V42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V42" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W42" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X42" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y42" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z42" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA42" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB42" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC42" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL42" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC42,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN42" t="e">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="42" t="str">
+      <c r="B43" s="25"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>3566A21A</v>
-      </c>
-      <c r="L43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B43,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M43">
         <f>IF(ISNUMBER(MATCH(C43,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C43,'HEX GEN BACKEND'!G:G,0)),C43)</f>
-        <v>101011</v>
-      </c>
-      <c r="N43" t="str">
+        <v>0</v>
+      </c>
+      <c r="N43" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O43">
         <f>IF(ISNUMBER(MATCH(E43,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E43,'HEX GEN BACKEND'!H:H,0)),E43)</f>
-        <v>101010</v>
-      </c>
-      <c r="P43" t="str">
+        <v>0</v>
+      </c>
+      <c r="P43" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q43">
         <f>IF(ISNUMBER(MATCH(G43,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G43,'HEX GEN BACKEND'!I:I,0)),G43)</f>
-        <v>000011</v>
-      </c>
-      <c r="R43" t="str">
+        <v>0</v>
+      </c>
+      <c r="R43" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H43,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T43" t="e">
         <f t="shared" si="11"/>
-        <v>00110101011001101010001000011010</v>
-      </c>
-      <c r="V43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V43" t="e">
         <f t="shared" si="12"/>
-        <v>0011</v>
-      </c>
-      <c r="W43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W43" t="e">
         <f t="shared" si="13"/>
-        <v>0101</v>
-      </c>
-      <c r="X43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X43" t="e">
         <f t="shared" si="14"/>
-        <v>0110</v>
-      </c>
-      <c r="Y43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y43" t="e">
         <f t="shared" si="15"/>
-        <v>0110</v>
-      </c>
-      <c r="Z43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z43" t="e">
         <f t="shared" si="16"/>
-        <v>1010</v>
-      </c>
-      <c r="AA43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA43" t="e">
         <f t="shared" si="17"/>
-        <v>0010</v>
-      </c>
-      <c r="AB43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB43" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC43" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AG43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AH43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AI43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AJ43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL43" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC43,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN43" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN43" t="e">
         <f t="shared" si="10"/>
-        <v>3566A21A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="42" t="str">
+      <c r="B44" s="25"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>0848743C</v>
-      </c>
-      <c r="L44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B44,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M44">
         <f>IF(ISNUMBER(MATCH(C44,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C44,'HEX GEN BACKEND'!G:G,0)),C44)</f>
-        <v>000010</v>
-      </c>
-      <c r="N44" t="str">
+        <v>0</v>
+      </c>
+      <c r="N44" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O44">
         <f>IF(ISNUMBER(MATCH(E44,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E44,'HEX GEN BACKEND'!H:H,0)),E44)</f>
-        <v>000111</v>
-      </c>
-      <c r="P44" t="str">
+        <v>0</v>
+      </c>
+      <c r="P44" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q44">
         <f>IF(ISNUMBER(MATCH(G44,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G44,'HEX GEN BACKEND'!I:I,0)),G44)</f>
-        <v>000111</v>
-      </c>
-      <c r="R44" t="str">
+        <v>0</v>
+      </c>
+      <c r="R44" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H44,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T44" t="e">
         <f t="shared" si="11"/>
-        <v>00001000010010000111010000111100</v>
-      </c>
-      <c r="V44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V44" t="e">
         <f t="shared" si="12"/>
-        <v>0000</v>
-      </c>
-      <c r="W44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W44" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X44" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y44" t="e">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="Z44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z44" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA44" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB44" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC44" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL44" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC44,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN44" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN44" t="e">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="42" t="str">
+      <c r="B45" s="25"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>6404241C</v>
-      </c>
-      <c r="L45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B45,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
-      </c>
-      <c r="M45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M45">
         <f>IF(ISNUMBER(MATCH(C45,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C45,'HEX GEN BACKEND'!G:G,0)),C45)</f>
-        <v>100000</v>
-      </c>
-      <c r="N45" t="str">
+        <v>0</v>
+      </c>
+      <c r="N45" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O45">
         <f>IF(ISNUMBER(MATCH(E45,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E45,'HEX GEN BACKEND'!H:H,0)),E45)</f>
-        <v>000010</v>
-      </c>
-      <c r="P45" t="str">
+        <v>0</v>
+      </c>
+      <c r="P45" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q45">
         <f>IF(ISNUMBER(MATCH(G45,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G45,'HEX GEN BACKEND'!I:I,0)),G45)</f>
-        <v>000011</v>
-      </c>
-      <c r="R45" t="str">
+        <v>0</v>
+      </c>
+      <c r="R45" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H45,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T45" t="e">
         <f t="shared" si="11"/>
-        <v>01100100000001000010010000011100</v>
-      </c>
-      <c r="V45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V45" t="e">
         <f t="shared" si="12"/>
-        <v>0110</v>
-      </c>
-      <c r="W45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W45" t="e">
         <f t="shared" si="13"/>
-        <v>0100</v>
-      </c>
-      <c r="X45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X45" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y45" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z45" t="e">
         <f t="shared" si="16"/>
-        <v>0010</v>
-      </c>
-      <c r="AA45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA45" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB45" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC45" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AF45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AG45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL45" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC45,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN45" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN45" t="e">
         <f t="shared" si="10"/>
-        <v>6404241C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" s="42" t="str">
+      <c r="B46" s="25"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>4800381A</v>
-      </c>
-      <c r="L46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B46,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M46">
         <f>IF(ISNUMBER(MATCH(C46,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C46,'HEX GEN BACKEND'!G:G,0)),C46)</f>
-        <v>000000</v>
-      </c>
-      <c r="N46" t="str">
+        <v>0</v>
+      </c>
+      <c r="N46" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O46">
         <f>IF(ISNUMBER(MATCH(E46,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E46,'HEX GEN BACKEND'!H:H,0)),E46)</f>
-        <v>000011</v>
-      </c>
-      <c r="P46" t="str">
+        <v>0</v>
+      </c>
+      <c r="P46" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q46">
         <f>IF(ISNUMBER(MATCH(G46,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G46,'HEX GEN BACKEND'!I:I,0)),G46)</f>
-        <v>000011</v>
-      </c>
-      <c r="R46" t="str">
+        <v>0</v>
+      </c>
+      <c r="R46" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H46,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T46" t="e">
         <f t="shared" si="11"/>
-        <v>01001000000000000011100000011010</v>
-      </c>
-      <c r="V46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V46" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W46" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X46" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y46" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z46" t="e">
         <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AA46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA46" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB46" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC46" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL46" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC46,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN46" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN46" t="e">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" s="42" t="str">
+      <c r="B47" s="25"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>2C04341C</v>
-      </c>
-      <c r="L47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B47,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
-      </c>
-      <c r="M47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M47">
         <f>IF(ISNUMBER(MATCH(C47,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C47,'HEX GEN BACKEND'!G:G,0)),C47)</f>
-        <v>100000</v>
-      </c>
-      <c r="N47" t="str">
+        <v>0</v>
+      </c>
+      <c r="N47" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O47">
         <f>IF(ISNUMBER(MATCH(E47,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E47,'HEX GEN BACKEND'!H:H,0)),E47)</f>
-        <v>000011</v>
-      </c>
-      <c r="P47" t="str">
+        <v>0</v>
+      </c>
+      <c r="P47" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q47">
         <f>IF(ISNUMBER(MATCH(G47,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G47,'HEX GEN BACKEND'!I:I,0)),G47)</f>
-        <v>000011</v>
-      </c>
-      <c r="R47" t="str">
+        <v>0</v>
+      </c>
+      <c r="R47" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H47,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T47" t="e">
         <f t="shared" si="11"/>
-        <v>00101100000001000011010000011100</v>
-      </c>
-      <c r="V47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V47" t="e">
         <f t="shared" si="12"/>
-        <v>0010</v>
-      </c>
-      <c r="W47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W47" t="e">
         <f t="shared" si="13"/>
-        <v>1100</v>
-      </c>
-      <c r="X47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X47" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y47" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z47" t="e">
         <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AA47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA47" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB47" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC47" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AF47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AG47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL47" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC47,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN47" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN47" t="e">
         <f t="shared" si="10"/>
-        <v>2C04341C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="42" t="str">
+      <c r="B48" s="25"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>48487800</v>
-      </c>
-      <c r="L48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B48,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M48">
         <f>IF(ISNUMBER(MATCH(C48,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C48,'HEX GEN BACKEND'!G:G,0)),C48)</f>
-        <v>000010</v>
-      </c>
-      <c r="N48" t="str">
+        <v>0</v>
+      </c>
+      <c r="N48" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O48">
         <f>IF(ISNUMBER(MATCH(E48,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E48,'HEX GEN BACKEND'!H:H,0)),E48)</f>
-        <v>000111</v>
-      </c>
-      <c r="P48" t="str">
+        <v>0</v>
+      </c>
+      <c r="P48" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q48">
         <f>IF(ISNUMBER(MATCH(G48,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G48,'HEX GEN BACKEND'!I:I,0)),G48)</f>
-        <v>000000</v>
-      </c>
-      <c r="R48" t="str">
+        <v>0</v>
+      </c>
+      <c r="R48" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H48,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="T48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T48" t="e">
         <f t="shared" si="11"/>
-        <v>01001000010010000111100000000000</v>
-      </c>
-      <c r="V48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V48" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W48" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X48" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y48" t="e">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="Z48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z48" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA48" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB48" t="e">
         <f t="shared" si="18"/>
-        <v>0000</v>
-      </c>
-      <c r="AC48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC48" t="e">
         <f t="shared" si="19"/>
-        <v>0000</v>
-      </c>
-      <c r="AE48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AL48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL48" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC48,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AN48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN48" t="e">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="42" t="str">
+      <c r="B49" s="25"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>50247434</v>
-      </c>
-      <c r="L49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B49,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M49">
         <f>IF(ISNUMBER(MATCH(C49,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C49,'HEX GEN BACKEND'!G:G,0)),C49)</f>
-        <v>000001</v>
-      </c>
-      <c r="N49" t="str">
+        <v>0</v>
+      </c>
+      <c r="N49" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O49">
         <f>IF(ISNUMBER(MATCH(E49,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E49,'HEX GEN BACKEND'!H:H,0)),E49)</f>
-        <v>000111</v>
-      </c>
-      <c r="P49" t="str">
+        <v>0</v>
+      </c>
+      <c r="P49" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q49">
         <f>IF(ISNUMBER(MATCH(G49,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G49,'HEX GEN BACKEND'!I:I,0)),G49)</f>
-        <v>000110</v>
-      </c>
-      <c r="R49" t="str">
+        <v>0</v>
+      </c>
+      <c r="R49" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H49,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T49" t="e">
         <f t="shared" si="11"/>
-        <v>01010000001001000111010000110100</v>
-      </c>
-      <c r="V49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V49" t="e">
         <f t="shared" si="12"/>
-        <v>0101</v>
-      </c>
-      <c r="W49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W49" t="e">
         <f t="shared" si="13"/>
-        <v>0000</v>
-      </c>
-      <c r="X49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X49" t="e">
         <f t="shared" si="14"/>
-        <v>0010</v>
-      </c>
-      <c r="Y49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y49" t="e">
         <f t="shared" si="15"/>
-        <v>0100</v>
-      </c>
-      <c r="Z49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z49" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA49" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB49" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC49" t="e">
         <f t="shared" si="19"/>
-        <v>0100</v>
-      </c>
-      <c r="AE49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL49" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC49,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN49" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN49" t="e">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="42" t="str">
+      <c r="B50" s="25"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>48500032</v>
-      </c>
-      <c r="L50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L50" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B50,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M50">
         <f>IF(ISNUMBER(MATCH(C50,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C50,'HEX GEN BACKEND'!G:G,0)),C50)</f>
-        <v>000010</v>
-      </c>
-      <c r="N50" t="str">
+        <v>0</v>
+      </c>
+      <c r="N50" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="O50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O50">
         <f>IF(ISNUMBER(MATCH(E50,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E50,'HEX GEN BACKEND'!H:H,0)),E50)</f>
-        <v>000000</v>
-      </c>
-      <c r="P50" t="str">
+        <v>0</v>
+      </c>
+      <c r="P50" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q50">
         <f>IF(ISNUMBER(MATCH(G50,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G50,'HEX GEN BACKEND'!I:I,0)),G50)</f>
-        <v>000110</v>
-      </c>
-      <c r="R50" t="str">
+        <v>0</v>
+      </c>
+      <c r="R50" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H50,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T50" t="e">
         <f t="shared" si="11"/>
-        <v>01001000010100000000000000110010</v>
-      </c>
-      <c r="V50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V50" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W50" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X50" t="e">
         <f t="shared" si="14"/>
-        <v>0101</v>
-      </c>
-      <c r="Y50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y50" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z50" t="e">
         <f t="shared" si="16"/>
-        <v>0000</v>
-      </c>
-      <c r="AA50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA50" t="e">
         <f t="shared" si="17"/>
-        <v>0000</v>
-      </c>
-      <c r="AB50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB50" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC50" t="e">
         <f t="shared" si="19"/>
-        <v>0010</v>
-      </c>
-      <c r="AE50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AH50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL50" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC50,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AN50" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN50" t="e">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="42" t="str">
+      <c r="B51" s="25"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>4800783A</v>
-      </c>
-      <c r="L51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B51,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
-      </c>
-      <c r="M51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M51">
         <f>IF(ISNUMBER(MATCH(C51,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C51,'HEX GEN BACKEND'!G:G,0)),C51)</f>
-        <v>000000</v>
-      </c>
-      <c r="N51" t="str">
+        <v>0</v>
+      </c>
+      <c r="N51" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O51">
         <f>IF(ISNUMBER(MATCH(E51,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E51,'HEX GEN BACKEND'!H:H,0)),E51)</f>
-        <v>000111</v>
-      </c>
-      <c r="P51" t="str">
+        <v>0</v>
+      </c>
+      <c r="P51" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="Q51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q51">
         <f>IF(ISNUMBER(MATCH(G51,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G51,'HEX GEN BACKEND'!I:I,0)),G51)</f>
-        <v>000111</v>
-      </c>
-      <c r="R51" t="str">
+        <v>0</v>
+      </c>
+      <c r="R51" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H51,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T51" t="e">
         <f t="shared" si="11"/>
-        <v>01001000000000000111100000111010</v>
-      </c>
-      <c r="V51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="e">
         <f t="shared" si="12"/>
-        <v>0100</v>
-      </c>
-      <c r="W51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W51" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X51" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
         <f t="shared" si="17"/>
-        <v>1000</v>
-      </c>
-      <c r="AB51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB51" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AF51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AK51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL51" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC51,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN51" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN51" t="e">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="42" t="str">
+      <c r="B52" s="25"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>3687321A</v>
-      </c>
-      <c r="L52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L52" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B52,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M52">
         <f>IF(ISNUMBER(MATCH(C52,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C52,'HEX GEN BACKEND'!G:G,0)),C52)</f>
-        <v>110100</v>
-      </c>
-      <c r="N52" t="str">
+        <v>0</v>
+      </c>
+      <c r="N52" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O52">
         <f>IF(ISNUMBER(MATCH(E52,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E52,'HEX GEN BACKEND'!H:H,0)),E52)</f>
-        <v>110011</v>
-      </c>
-      <c r="P52" t="str">
+        <v>0</v>
+      </c>
+      <c r="P52" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q52">
         <f>IF(ISNUMBER(MATCH(G52,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G52,'HEX GEN BACKEND'!I:I,0)),G52)</f>
-        <v>000011</v>
-      </c>
-      <c r="R52" t="str">
+        <v>0</v>
+      </c>
+      <c r="R52" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H52,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T52" t="e">
         <f t="shared" si="11"/>
-        <v>00110110100001110011001000011010</v>
-      </c>
-      <c r="V52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="e">
         <f t="shared" si="12"/>
-        <v>0011</v>
-      </c>
-      <c r="W52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W52" t="e">
         <f t="shared" si="13"/>
-        <v>0110</v>
-      </c>
-      <c r="X52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X52" t="e">
         <f t="shared" si="14"/>
-        <v>1000</v>
-      </c>
-      <c r="Y52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" t="e">
         <f t="shared" si="15"/>
-        <v>0111</v>
-      </c>
-      <c r="Z52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" t="e">
         <f t="shared" si="16"/>
-        <v>0011</v>
-      </c>
-      <c r="AA52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA52" t="e">
         <f t="shared" si="17"/>
-        <v>0010</v>
-      </c>
-      <c r="AB52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB52" t="e">
         <f t="shared" si="18"/>
-        <v>0001</v>
-      </c>
-      <c r="AC52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
-      </c>
-      <c r="AG52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AH52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AI52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL52" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC52,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN52" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN52" t="e">
         <f t="shared" si="10"/>
-        <v>3687321A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="42" t="str">
+      <c r="B53" s="25"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>0848743C</v>
-      </c>
-      <c r="L53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L53" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B53,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M53">
         <f>IF(ISNUMBER(MATCH(C53,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C53,'HEX GEN BACKEND'!G:G,0)),C53)</f>
-        <v>000010</v>
-      </c>
-      <c r="N53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N53" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="O53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O53">
         <f>IF(ISNUMBER(MATCH(E53,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E53,'HEX GEN BACKEND'!H:H,0)),E53)</f>
-        <v>000111</v>
-      </c>
-      <c r="P53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P53" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q53">
         <f>IF(ISNUMBER(MATCH(G53,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G53,'HEX GEN BACKEND'!I:I,0)),G53)</f>
-        <v>000111</v>
-      </c>
-      <c r="R53" t="str">
+        <v>0</v>
+      </c>
+      <c r="R53" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H53,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
-      </c>
-      <c r="T53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T53" t="e">
         <f t="shared" si="11"/>
-        <v>00001000010010000111010000111100</v>
-      </c>
-      <c r="V53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V53" t="e">
         <f t="shared" si="12"/>
-        <v>0000</v>
-      </c>
-      <c r="W53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W53" t="e">
         <f t="shared" si="13"/>
-        <v>1000</v>
-      </c>
-      <c r="X53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X53" t="e">
         <f t="shared" si="14"/>
-        <v>0100</v>
-      </c>
-      <c r="Y53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" t="e">
         <f t="shared" si="15"/>
-        <v>1000</v>
-      </c>
-      <c r="Z53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z53" t="e">
         <f t="shared" si="16"/>
-        <v>0111</v>
-      </c>
-      <c r="AA53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA53" t="e">
         <f t="shared" si="17"/>
-        <v>0100</v>
-      </c>
-      <c r="AB53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB53" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" t="e">
         <f t="shared" si="19"/>
-        <v>1100</v>
-      </c>
-      <c r="AE53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AG53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AH53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
-      </c>
-      <c r="AI53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
-      </c>
-      <c r="AJ53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL53" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC53,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AN53" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN53" t="e">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I54" s="42" t="str">
+      <c r="B54" s="25"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42" t="e">
         <f t="shared" si="20"/>
-        <v>C000003A</v>
-      </c>
-      <c r="L54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L54" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B54,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
-      </c>
-      <c r="M54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M54">
         <f>IF(ISNUMBER(MATCH(C54,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C54,'HEX GEN BACKEND'!G:G,0)),C54)</f>
-        <v>000000</v>
-      </c>
-      <c r="N54" t="str">
+        <v>0</v>
+      </c>
+      <c r="N54" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O54">
         <f>IF(ISNUMBER(MATCH(E54,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E54,'HEX GEN BACKEND'!H:H,0)),E54)</f>
-        <v>000000</v>
-      </c>
-      <c r="P54" t="str">
+        <v>0</v>
+      </c>
+      <c r="P54" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q54">
         <f>IF(ISNUMBER(MATCH(G54,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G54,'HEX GEN BACKEND'!I:I,0)),G54)</f>
-        <v>000111</v>
-      </c>
-      <c r="R54" t="str">
+        <v>0</v>
+      </c>
+      <c r="R54" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H54,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T54" t="e">
         <f t="shared" si="11"/>
-        <v>11000000000000000000000000111010</v>
-      </c>
-      <c r="V54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V54" t="e">
         <f t="shared" si="12"/>
-        <v>1100</v>
-      </c>
-      <c r="W54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W54" t="e">
         <f t="shared" si="13"/>
-        <v>0000</v>
-      </c>
-      <c r="X54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X54" t="e">
         <f t="shared" si="14"/>
-        <v>0000</v>
-      </c>
-      <c r="Y54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y54" t="e">
         <f t="shared" si="15"/>
-        <v>0000</v>
-      </c>
-      <c r="Z54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z54" t="e">
         <f t="shared" si="16"/>
-        <v>0000</v>
-      </c>
-      <c r="AA54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA54" t="e">
         <f t="shared" si="17"/>
-        <v>0000</v>
-      </c>
-      <c r="AB54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB54" t="e">
         <f t="shared" si="18"/>
-        <v>0011</v>
-      </c>
-      <c r="AC54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC54" t="e">
         <f t="shared" si="19"/>
-        <v>1010</v>
-      </c>
-      <c r="AE54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AF54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL54" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC54,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN54" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN54" t="e">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
@@ -13386,13 +12966,13 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F53 H2:H53 D2:D53</xm:sqref>
+          <xm:sqref>D24:D53 F24:F53 D2:D20 H2:H20 F2:F20 F22 D22 H22 H24:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>D54:D101 F54:F101 H54:H101</xm:sqref>
+          <xm:sqref>D54:D101 F54:F101 H54:H101 D21 F21 H21 D23 F23 H23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="194">
   <si>
     <t>0001</t>
   </si>
@@ -615,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +634,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -776,13 +769,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,7 +1059,7 @@
   <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,13 +1372,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>137</v>
@@ -1401,19 +1394,19 @@
       </c>
       <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6024241C</v>
+        <v>4800241C</v>
       </c>
       <c r="L4" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B4,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01001</v>
       </c>
       <c r="M4" t="str">
         <f>IF(ISNUMBER(MATCH(C4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C4,'HEX GEN BACKEND'!G:G,0)),C4)</f>
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="N4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ISNUMBER(MATCH(E4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E4,'HEX GEN BACKEND'!H:H,0)),E4)</f>
@@ -1433,23 +1426,23 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>01100000001001000010010000011100</v>
+        <v>01001000000000000010010000011100</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X4" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="6"/>
@@ -1469,19 +1462,19 @@
       </c>
       <c r="AE4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1501,7 +1494,7 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>6024241C</v>
+        <v>4800241C</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -1509,19 +1502,19 @@
         <v>34</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="57" t="s">
         <v>145</v>
@@ -1531,27 +1524,27 @@
       </c>
       <c r="I5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>30A4421A</v>
       </c>
       <c r="L5" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M5" t="str">
         <f>IF(ISNUMBER(MATCH(C5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C5,'HEX GEN BACKEND'!G:G,0)),C5)</f>
-        <v>000000</v>
+        <v>000101</v>
       </c>
       <c r="N5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ISNUMBER(MATCH(E5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E5,'HEX GEN BACKEND'!H:H,0)),E5)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="P5" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(ISNUMBER(MATCH(G5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G5,'HEX GEN BACKEND'!I:I,0)),G5)</f>
@@ -1563,31 +1556,31 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>00110000101001000100001000011010</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="8"/>
@@ -1599,27 +1592,27 @@
       </c>
       <c r="AE5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AH5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1631,7 +1624,7 @@
       </c>
       <c r="AN5" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>30A4421A</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1639,53 +1632,53 @@
         <v>33</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2824341C</v>
+        <v>4848003C</v>
       </c>
       <c r="L6" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B6,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>01001</v>
       </c>
       <c r="M6" t="str">
         <f>IF(ISNUMBER(MATCH(C6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C6,'HEX GEN BACKEND'!G:G,0)),C6)</f>
-        <v>000001</v>
+        <v>000010</v>
       </c>
       <c r="N6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ISNUMBER(MATCH(E6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E6,'HEX GEN BACKEND'!H:H,0)),E6)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="P6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q6" t="str">
         <f>IF(ISNUMBER(MATCH(G6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G6,'HEX GEN BACKEND'!I:I,0)),G6)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="R6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1693,11 +1686,11 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>00101000001001000011010000011100</v>
+        <v>01001000010010000000000000111100</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="3"/>
@@ -1705,23 +1698,23 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="9"/>
@@ -1729,7 +1722,7 @@
       </c>
       <c r="AE6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1737,23 +1730,23 @@
       </c>
       <c r="AG6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1761,7 +1754,7 @@
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>2824341C</v>
+        <v>4848003C</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1769,129 +1762,129 @@
         <v>35</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="D7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="58" t="s">
         <v>115</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>114</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>30E4621A</v>
+        <v>48004809</v>
       </c>
       <c r="L7" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>01001</v>
       </c>
       <c r="M7" t="str">
         <f>IF(ISNUMBER(MATCH(C7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C7,'HEX GEN BACKEND'!G:G,0)),C7)</f>
-        <v>000111</v>
+        <v>000000</v>
       </c>
       <c r="N7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O7" t="str">
         <f>IF(ISNUMBER(MATCH(E7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E7,'HEX GEN BACKEND'!H:H,0)),E7)</f>
-        <v>000110</v>
+        <v>000100</v>
       </c>
       <c r="P7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="str">
         <f>IF(ISNUMBER(MATCH(G7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G7,'HEX GEN BACKEND'!I:I,0)),G7)</f>
-        <v>000011</v>
+        <v>000001</v>
       </c>
       <c r="R7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>00110000111001000110001000011010</v>
+        <v>01001000000000000100100000001001</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v>1110</v>
+        <v>0000</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
-        <v>0110</v>
+        <v>0100</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="AE7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>E</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>30E4621A</v>
+        <v>48004809</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -1899,53 +1892,53 @@
         <v>36</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D8" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>115</v>
-      </c>
       <c r="G8" s="57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H8" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0848023C</v>
+        <v>50244424</v>
       </c>
       <c r="L8" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01010</v>
       </c>
       <c r="M8" t="str">
         <f>IF(ISNUMBER(MATCH(C8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C8,'HEX GEN BACKEND'!G:G,0)),C8)</f>
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="N8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O8" t="str">
         <f>IF(ISNUMBER(MATCH(E8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E8,'HEX GEN BACKEND'!H:H,0)),E8)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="P8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="Q8" t="str">
         <f>IF(ISNUMBER(MATCH(G8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G8,'HEX GEN BACKEND'!I:I,0)),G8)</f>
-        <v>000111</v>
+        <v>000100</v>
       </c>
       <c r="R8" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H8,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1953,75 +1946,75 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>00001000010010000000001000111100</v>
+        <v>01010000001001000100010000100100</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="AE8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL8" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="str">
         <f t="shared" si="10"/>
-        <v>0848023C</v>
+        <v>50244424</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -2032,10 +2025,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>139</v>
@@ -2044,14 +2037,14 @@
         <v>113</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48004809</v>
+        <v>48904822</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2059,11 +2052,11 @@
       </c>
       <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
@@ -2075,15 +2068,15 @@
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000001</v>
+        <v>000100</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000100100000001001</v>
+        <v>01001000100100000100100000100010</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
@@ -2095,7 +2088,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1001</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="5"/>
@@ -2111,11 +2104,11 @@
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>1001</v>
+        <v>0010</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2127,7 +2120,7 @@
       </c>
       <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2143,61 +2136,61 @@
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>48004809</v>
+        <v>48904822</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="29" t="s">
+      <c r="B10" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="E10" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50244424</v>
+        <v>6088241C</v>
       </c>
       <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01100</v>
       </c>
       <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000001</v>
+        <v>000100</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000100</v>
+        <v>000010</v>
       </c>
       <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2205,7 +2198,7 @@
       </c>
       <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>000100</v>
+        <v>000011</v>
       </c>
       <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2213,11 +2206,11 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000100010000100100</v>
+        <v>01100000100010000010010000011100</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0110</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
@@ -2225,15 +2218,15 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
@@ -2241,15 +2234,15 @@
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2257,15 +2250,15 @@
       </c>
       <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2273,45 +2266,45 @@
       </c>
       <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>50244424</v>
+        <v>6088241C</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="40" t="s">
+      <c r="G11" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48904822</v>
+        <v>4800381A</v>
       </c>
       <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2319,15 +2312,15 @@
       </c>
       <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>000100</v>
+        <v>000011</v>
       </c>
       <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2335,7 +2328,7 @@
       </c>
       <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>000100</v>
+        <v>000011</v>
       </c>
       <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2343,7 +2336,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>01001000100100000100100000100010</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="2"/>
@@ -2355,7 +2348,7 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>1001</v>
+        <v>0000</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="5"/>
@@ -2363,7 +2356,7 @@
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
@@ -2371,11 +2364,11 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2387,7 +2380,7 @@
       </c>
       <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2395,7 +2388,7 @@
       </c>
       <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2403,49 +2396,49 @@
       </c>
       <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>48904822</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6088241C</v>
+        <v>2888341C</v>
       </c>
       <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>00101</v>
       </c>
       <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
@@ -2457,7 +2450,7 @@
       </c>
       <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000010</v>
+        <v>000011</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2473,15 +2466,15 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>01100000100010000010010000011100</v>
+        <v>00101000100010000011010000011100</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0010</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
@@ -2493,7 +2486,7 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
@@ -2509,11 +2502,11 @@
       </c>
       <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2525,7 +2518,7 @@
       </c>
       <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2541,37 +2534,37 @@
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>6088241C</v>
+        <v>2888341C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="H13" s="58" t="s">
         <v>117</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>114</v>
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>48487800</v>
       </c>
       <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2579,15 +2572,15 @@
       </c>
       <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2595,15 +2588,15 @@
       </c>
       <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>01001000010010000111100000000000</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
@@ -2615,15 +2608,15 @@
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0111</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
@@ -2631,11 +2624,11 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2647,15 +2640,15 @@
       </c>
       <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2663,61 +2656,61 @@
       </c>
       <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="B14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="40" t="s">
+      <c r="G14" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2888341C</v>
+        <v>50247434</v>
       </c>
       <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>01010</v>
       </c>
       <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000100</v>
+        <v>000001</v>
       </c>
       <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000011</v>
+        <v>000111</v>
       </c>
       <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2725,7 +2718,7 @@
       </c>
       <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>000011</v>
+        <v>000110</v>
       </c>
       <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2733,27 +2726,27 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>00101000100010000011010000011100</v>
+        <v>01010000001001000111010000110100</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0111</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
@@ -2761,31 +2754,31 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2793,45 +2786,45 @@
       </c>
       <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>2888341C</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48487800</v>
+        <v>48500032</v>
       </c>
       <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2843,27 +2836,27 @@
       </c>
       <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>000111</v>
+        <v>000000</v>
       </c>
       <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>000000</v>
+        <v>000110</v>
       </c>
       <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
+        <v>01001000010100000000000000110010</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="2"/>
@@ -2875,27 +2868,27 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0000</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2907,73 +2900,73 @@
       </c>
       <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50247434</v>
+        <v>4800783A</v>
       </c>
       <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>01001</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>000001</v>
+        <v>000000</v>
       </c>
       <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
@@ -2981,35 +2974,35 @@
       </c>
       <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>000110</v>
+        <v>000111</v>
       </c>
       <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
+        <v>01001000000000000111100000111010</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
@@ -3017,7 +3010,7 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="8"/>
@@ -3025,23 +3018,23 @@
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1010</v>
       </c>
       <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3049,7 +3042,7 @@
       </c>
       <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3057,65 +3050,65 @@
       </c>
       <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>A</v>
       </c>
       <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="40" t="s">
+      <c r="B17" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48500032</v>
+        <v>3225021A</v>
       </c>
       <c r="L17" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M17" t="str">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
-        <v>000010</v>
+        <v>010001</v>
       </c>
       <c r="N17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="O17" t="str">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>000000</v>
+        <v>010000</v>
       </c>
       <c r="P17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="Q17" t="str">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3123,23 +3116,23 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
+        <v>00110010001001010000001000011010</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0101</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="6"/>
@@ -3147,31 +3140,31 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1010</v>
       </c>
       <c r="AE17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3179,61 +3172,61 @@
       </c>
       <c r="AJ17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>A</v>
       </c>
       <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>3225021A</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" s="58" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>114</v>
       </c>
       <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800783A</v>
+        <v>0848743C</v>
       </c>
       <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00001</v>
       </c>
       <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
@@ -3241,7 +3234,7 @@
       </c>
       <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
@@ -3249,15 +3242,15 @@
       </c>
       <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000111100000111010</v>
+        <v>00001000010010000111010000111100</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="3"/>
@@ -3265,11 +3258,11 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
@@ -3277,7 +3270,7 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="8"/>
@@ -3285,11 +3278,11 @@
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3297,11 +3290,11 @@
       </c>
       <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3309,7 +3302,7 @@
       </c>
       <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3317,57 +3310,57 @@
       </c>
       <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>0848743C</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="B19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>114</v>
+      <c r="G19" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="58" t="s">
+        <v>113</v>
       </c>
       <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>3265221A</v>
+        <v>288A022C</v>
       </c>
       <c r="L19" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>00101</v>
       </c>
       <c r="M19" t="str">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
-        <v>010011</v>
+        <v>000100</v>
       </c>
       <c r="N19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O19" t="str">
         <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
-        <v>010010</v>
+        <v>100000</v>
       </c>
       <c r="P19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3375,35 +3368,35 @@
       </c>
       <c r="Q19" t="str">
         <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
-        <v>000011</v>
+        <v>000101</v>
       </c>
       <c r="R19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="1"/>
-        <v>00110010011001010010001000011010</v>
+        <v>00101000100010100000001000101100</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v>0110</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>1010</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="7"/>
@@ -3411,31 +3404,31 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>A</v>
       </c>
       <c r="AI19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3443,223 +3436,223 @@
       </c>
       <c r="AK19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>3265221A</v>
+        <v>288A022C</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="B20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0848743C</v>
+        <v>30C5322A</v>
       </c>
       <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>00110</v>
       </c>
       <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>000010</v>
+        <v>000110</v>
       </c>
       <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>000111</v>
+        <v>010011</v>
       </c>
       <c r="P20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="Q20" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>000111</v>
+        <v>000101</v>
       </c>
       <c r="R20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>00001000010010000111010000111100</v>
+        <v>00110000110001010011001000101010</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0101</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0011</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0010</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>30C5322A</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="B21" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>288A022C</v>
+        <v>C000003A</v>
       </c>
       <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>11000</v>
       </c>
       <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="N21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O21" t="str">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>100000</v>
+        <v>000000</v>
       </c>
       <c r="P21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>000101</v>
+        <v>000111</v>
       </c>
       <c r="R21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>00101000100010100000001000101100</v>
+        <v>11000000000000000000000000111010</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>1100</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="5"/>
-        <v>1010</v>
+        <v>0000</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
@@ -3667,31 +3660,31 @@
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>C</v>
       </c>
       <c r="AF21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3699,279 +3692,251 @@
       </c>
       <c r="AJ21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>288A022C</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="25" t="str">
+      <c r="B22" s="25"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>3105522A</v>
-      </c>
-      <c r="L22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
-        <v>001000</v>
-      </c>
-      <c r="N22" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O22">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>010101</v>
-      </c>
-      <c r="P22" t="str">
+        <v>0</v>
+      </c>
+      <c r="P22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>000101</v>
-      </c>
-      <c r="R22" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
         <f t="shared" si="1"/>
-        <v>00110001000001010101001000101010</v>
-      </c>
-      <c r="V22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="W22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
         <f t="shared" si="3"/>
-        <v>0001</v>
-      </c>
-      <c r="X22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
         <f t="shared" si="5"/>
-        <v>0101</v>
-      </c>
-      <c r="Z22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
         <f t="shared" si="6"/>
-        <v>0101</v>
-      </c>
-      <c r="AA22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
         <f t="shared" si="7"/>
-        <v>0010</v>
-      </c>
-      <c r="AB22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AG22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AI22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AJ22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN22" t="e">
         <f t="shared" si="10"/>
-        <v>3105522A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="25" t="str">
+      <c r="B23" s="25"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>C000003A</v>
-      </c>
-      <c r="L23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
-      </c>
-      <c r="M23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M23">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
-        <v>000000</v>
-      </c>
-      <c r="N23" t="str">
+        <v>0</v>
+      </c>
+      <c r="N23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="O23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O23">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
-        <v>000000</v>
-      </c>
-      <c r="P23" t="str">
+        <v>0</v>
+      </c>
+      <c r="P23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
-      </c>
-      <c r="Q23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>000111</v>
-      </c>
-      <c r="R23" t="str">
+        <v>0</v>
+      </c>
+      <c r="R23" t="e">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="T23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="T23" t="e">
         <f t="shared" si="1"/>
-        <v>11000000000000000000000000111010</v>
-      </c>
-      <c r="V23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
         <f t="shared" si="2"/>
-        <v>1100</v>
-      </c>
-      <c r="W23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="X23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
         <f t="shared" si="4"/>
-        <v>0000</v>
-      </c>
-      <c r="Y23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
         <f t="shared" si="5"/>
-        <v>0000</v>
-      </c>
-      <c r="Z23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
         <f t="shared" si="6"/>
-        <v>0000</v>
-      </c>
-      <c r="AA23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
         <f t="shared" si="7"/>
-        <v>0000</v>
-      </c>
-      <c r="AB23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="e">
         <f t="shared" si="8"/>
-        <v>0011</v>
-      </c>
-      <c r="AC23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" t="e">
         <f t="shared" si="9"/>
-        <v>1010</v>
-      </c>
-      <c r="AE23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AE23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
-      </c>
-      <c r="AF23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AH23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AK23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" t="e">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AN23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AN23" t="e">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -12955,7 +12920,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
@@ -12966,13 +12931,13 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D24:D53 F24:F53 D2:D20 H2:H20 F2:F20 F22 D22 H22 H24:H53</xm:sqref>
+          <xm:sqref>D24:D53 F24:F53 F2:F18 D2:D18 H24:H53 F22 D22 H22 H2:H18 F20 D20 H20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>D54:D101 F54:F101 H54:H101 D21 F21 H21 D23 F23 H23</xm:sqref>
+          <xm:sqref>D54:D101 F54:F101 H54:H101 D23 F23 H23 D21 F21 H21 D19 F19 H19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="194">
   <si>
     <t>0001</t>
   </si>
@@ -615,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +634,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,6 +783,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,13 +1263,13 @@
         <v>154</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="56" t="s">
         <v>113</v>
@@ -1264,7 +1282,7 @@
       </c>
       <c r="I3" s="25" t="str">
         <f t="shared" ref="I3:I32" si="0">AN3</f>
-        <v>B8502800</v>
+        <v>B8301800</v>
       </c>
       <c r="L3" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B3,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1272,7 +1290,7 @@
       </c>
       <c r="M3" t="str">
         <f>IF(ISNUMBER(MATCH(C3,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C3,'HEX GEN BACKEND'!G:G,0)),C3)</f>
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="N3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D3,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1280,7 +1298,7 @@
       </c>
       <c r="O3" t="str">
         <f>IF(ISNUMBER(MATCH(E3,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E3,'HEX GEN BACKEND'!H:H,0)),E3)</f>
-        <v>000010</v>
+        <v>000001</v>
       </c>
       <c r="P3" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F3,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1296,7 +1314,7 @@
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T32" si="1">L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3</f>
-        <v>10111000010100000010100000000000</v>
+        <v>10111000001100000001100000000000</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V32" si="2">MID(T3,1,4)</f>
@@ -1308,7 +1326,7 @@
       </c>
       <c r="X3" t="str">
         <f t="shared" ref="X3:X32" si="4">MID(T3,9,4)</f>
-        <v>0101</v>
+        <v>0011</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" ref="Y3:Y32" si="5">MID(T3,13,4)</f>
@@ -1316,7 +1334,7 @@
       </c>
       <c r="Z3" t="str">
         <f t="shared" ref="Z3:Z32" si="6">MID(T3,17,4)</f>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AA3" t="str">
         <f t="shared" ref="AA3:AA32" si="7">MID(T3,21,4)</f>
@@ -1340,7 +1358,7 @@
       </c>
       <c r="AG3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1348,7 +1366,7 @@
       </c>
       <c r="AI3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z3,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA3,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1364,7 +1382,7 @@
       </c>
       <c r="AN3" t="str">
         <f t="shared" ref="AN3:AN66" si="10">AE3&amp;AF3&amp;AG3&amp;AH3&amp;AI3&amp;AJ3&amp;AK3&amp;AL3</f>
-        <v>B8502800</v>
+        <v>B8301800</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1375,26 +1393,26 @@
         <v>9</v>
       </c>
       <c r="C4" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="F4" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>114</v>
-      </c>
       <c r="G4" s="57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800241C</v>
+        <v>4828000C</v>
       </c>
       <c r="L4" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B4,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1402,23 +1420,23 @@
       </c>
       <c r="M4" t="str">
         <f>IF(ISNUMBER(MATCH(C4,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C4,'HEX GEN BACKEND'!G:G,0)),C4)</f>
-        <v>000000</v>
+        <v>000001</v>
       </c>
       <c r="N4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ISNUMBER(MATCH(E4,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E4,'HEX GEN BACKEND'!H:H,0)),E4)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="P4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F4,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q4" t="str">
         <f>IF(ISNUMBER(MATCH(G4,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G4,'HEX GEN BACKEND'!I:I,0)),G4)</f>
-        <v>000011</v>
+        <v>000001</v>
       </c>
       <c r="R4" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H4,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1426,7 +1444,7 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000010010000011100</v>
+        <v>01001000001010000000000000001100</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="2"/>
@@ -1438,23 +1456,23 @@
       </c>
       <c r="X4" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="9"/>
@@ -1470,23 +1488,23 @@
       </c>
       <c r="AG4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB4,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC4,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1494,137 +1512,137 @@
       </c>
       <c r="AN4" t="str">
         <f t="shared" si="10"/>
-        <v>4800241C</v>
+        <v>4828000C</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="58" t="s">
+      <c r="B5" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="25" t="str">
+      <c r="I5" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>30A4421A</v>
-      </c>
-      <c r="L5" t="str">
+        <v>4850280A</v>
+      </c>
+      <c r="L5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B5,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
-      </c>
-      <c r="M5" t="str">
+        <v>01001</v>
+      </c>
+      <c r="M5" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(C5,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C5,'HEX GEN BACKEND'!G:G,0)),C5)</f>
-        <v>000101</v>
-      </c>
-      <c r="N5" t="str">
+        <v>000010</v>
+      </c>
+      <c r="N5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O5" t="str">
+        <v>100</v>
+      </c>
+      <c r="O5" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(E5,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E5,'HEX GEN BACKEND'!H:H,0)),E5)</f>
-        <v>000100</v>
-      </c>
-      <c r="P5" t="str">
+        <v>000010</v>
+      </c>
+      <c r="P5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F5,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(G5,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G5,'HEX GEN BACKEND'!I:I,0)),G5)</f>
-        <v>000011</v>
-      </c>
-      <c r="R5" t="str">
+        <v>000001</v>
+      </c>
+      <c r="R5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H5,'HEX GEN BACKEND'!D:D,0))</f>
         <v>010</v>
       </c>
-      <c r="T5" t="str">
+      <c r="T5" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>00110000101001000100001000011010</v>
-      </c>
-      <c r="V5" t="str">
+        <v>01001000010100000010100000001010</v>
+      </c>
+      <c r="V5" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
-      </c>
-      <c r="W5" t="str">
+        <v>0100</v>
+      </c>
+      <c r="W5" s="67" t="str">
         <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X5" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>0101</v>
+      </c>
+      <c r="Y5" s="67" t="str">
+        <f t="shared" si="5"/>
         <v>0000</v>
       </c>
-      <c r="X5" t="str">
-        <f t="shared" si="4"/>
-        <v>1010</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z5" t="str">
+      <c r="Z5" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
-      </c>
-      <c r="AA5" t="str">
+        <v>0010</v>
+      </c>
+      <c r="AA5" s="67" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
-      </c>
-      <c r="AB5" t="str">
+        <v>1000</v>
+      </c>
+      <c r="AB5" s="67" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
-      </c>
-      <c r="AC5" t="str">
+        <v>0000</v>
+      </c>
+      <c r="AC5" s="67" t="str">
         <f t="shared" si="9"/>
         <v>1010</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="AE5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF5" t="str">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" t="str">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
-      </c>
-      <c r="AH5" t="str">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="str">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AK5" t="str">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB5,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
-      </c>
-      <c r="AL5" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC5,'HEX GEN BACKEND'!L:L,0))</f>
         <v>A</v>
       </c>
-      <c r="AN5" t="str">
+      <c r="AN5" s="67" t="str">
         <f t="shared" si="10"/>
-        <v>30A4421A</v>
+        <v>4850280A</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1635,26 +1653,26 @@
         <v>9</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>117</v>
-      </c>
       <c r="G6" s="57" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4848003C</v>
+        <v>4800241C</v>
       </c>
       <c r="L6" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B6,'HEX GEN BACKEND'!A:A,0))</f>
@@ -1662,23 +1680,23 @@
       </c>
       <c r="M6" t="str">
         <f>IF(ISNUMBER(MATCH(C6,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C6,'HEX GEN BACKEND'!G:G,0)),C6)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ISNUMBER(MATCH(E6,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E6,'HEX GEN BACKEND'!H:H,0)),E6)</f>
-        <v>000000</v>
+        <v>000010</v>
       </c>
       <c r="P6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F6,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q6" t="str">
         <f>IF(ISNUMBER(MATCH(G6,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G6,'HEX GEN BACKEND'!I:I,0)),G6)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="R6" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H6,'HEX GEN BACKEND'!D:D,0))</f>
@@ -1686,7 +1704,7 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000000000000111100</v>
+        <v>01001000000000000010010000011100</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="2"/>
@@ -1698,23 +1716,23 @@
       </c>
       <c r="X6" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="9"/>
@@ -1730,23 +1748,23 @@
       </c>
       <c r="AG6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB6,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC6,'HEX GEN BACKEND'!L:L,0))</f>
@@ -1754,7 +1772,7 @@
       </c>
       <c r="AN6" t="str">
         <f t="shared" si="10"/>
-        <v>4848003C</v>
+        <v>4800241C</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1762,259 +1780,259 @@
         <v>35</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48004809</v>
+        <v>30E4621A</v>
       </c>
       <c r="L7" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B7,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M7" t="str">
         <f>IF(ISNUMBER(MATCH(C7,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C7,'HEX GEN BACKEND'!G:G,0)),C7)</f>
-        <v>000000</v>
+        <v>000111</v>
       </c>
       <c r="N7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O7" t="str">
         <f>IF(ISNUMBER(MATCH(E7,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E7,'HEX GEN BACKEND'!H:H,0)),E7)</f>
-        <v>000100</v>
+        <v>000110</v>
       </c>
       <c r="P7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q7" t="str">
         <f>IF(ISNUMBER(MATCH(G7,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G7,'HEX GEN BACKEND'!I:I,0)),G7)</f>
-        <v>000001</v>
+        <v>000011</v>
       </c>
       <c r="R7" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H7,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000100100000001001</v>
+        <v>00110000111001000110001000011010</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="6"/>
-        <v>0100</v>
+        <v>0110</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="9"/>
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="AE7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>E</v>
       </c>
       <c r="AH7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC7,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>A</v>
       </c>
       <c r="AN7" t="str">
         <f t="shared" si="10"/>
-        <v>48004809</v>
+        <v>30E4621A</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:40" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H8" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="25" t="str">
+      <c r="I8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>50244424</v>
-      </c>
-      <c r="L8" t="str">
+        <v>4848003C</v>
+      </c>
+      <c r="L8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B8,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
-      </c>
-      <c r="M8" t="str">
+        <v>01001</v>
+      </c>
+      <c r="M8" s="69" t="str">
         <f>IF(ISNUMBER(MATCH(C8,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C8,'HEX GEN BACKEND'!G:G,0)),C8)</f>
-        <v>000001</v>
-      </c>
-      <c r="N8" t="str">
+        <v>000010</v>
+      </c>
+      <c r="N8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
-      </c>
-      <c r="O8" t="str">
+        <v>010</v>
+      </c>
+      <c r="O8" s="69" t="str">
         <f>IF(ISNUMBER(MATCH(E8,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E8,'HEX GEN BACKEND'!H:H,0)),E8)</f>
-        <v>000100</v>
-      </c>
-      <c r="P8" t="str">
+        <v>000000</v>
+      </c>
+      <c r="P8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F8,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
-      </c>
-      <c r="Q8" t="str">
+        <v>000</v>
+      </c>
+      <c r="Q8" s="69" t="str">
         <f>IF(ISNUMBER(MATCH(G8,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G8,'HEX GEN BACKEND'!I:I,0)),G8)</f>
-        <v>000100</v>
-      </c>
-      <c r="R8" t="str">
+        <v>000111</v>
+      </c>
+      <c r="R8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H8,'HEX GEN BACKEND'!D:D,0))</f>
         <v>100</v>
       </c>
-      <c r="T8" t="str">
+      <c r="T8" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000100010000100100</v>
-      </c>
-      <c r="V8" t="str">
+        <v>01001000010010000000000000111100</v>
+      </c>
+      <c r="V8" s="69" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
-      </c>
-      <c r="W8" t="str">
+        <v>0100</v>
+      </c>
+      <c r="W8" s="69" t="str">
         <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="X8" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v>0100</v>
+      </c>
+      <c r="Y8" s="69" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="Z8" s="69" t="str">
+        <f t="shared" si="6"/>
         <v>0000</v>
       </c>
-      <c r="X8" t="str">
-        <f t="shared" si="4"/>
-        <v>0010</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="5"/>
-        <v>0100</v>
-      </c>
-      <c r="Z8" t="str">
-        <f t="shared" si="6"/>
-        <v>0100</v>
-      </c>
-      <c r="AA8" t="str">
+      <c r="AA8" s="69" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
-      </c>
-      <c r="AB8" t="str">
+        <v>0000</v>
+      </c>
+      <c r="AB8" s="69" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
-      </c>
-      <c r="AC8" t="str">
+        <v>0011</v>
+      </c>
+      <c r="AC8" s="69" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
-      </c>
-      <c r="AE8" t="str">
+        <v>1100</v>
+      </c>
+      <c r="AE8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
-      </c>
-      <c r="AF8" t="str">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" t="str">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AH8" t="str">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AI8" t="str">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AJ8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AK8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AL8" t="str">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="69" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC8,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
-      </c>
-      <c r="AN8" t="str">
+        <v>C</v>
+      </c>
+      <c r="AN8" s="69" t="str">
         <f t="shared" si="10"/>
-        <v>50244424</v>
+        <v>4848003C</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -2025,10 +2043,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>139</v>
@@ -2037,14 +2055,14 @@
         <v>113</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48904822</v>
+        <v>48004809</v>
       </c>
       <c r="L9" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B9,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2052,11 +2070,11 @@
       </c>
       <c r="M9" t="str">
         <f>IF(ISNUMBER(MATCH(C9,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C9,'HEX GEN BACKEND'!G:G,0)),C9)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="N9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="O9" t="str">
         <f>IF(ISNUMBER(MATCH(E9,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E9,'HEX GEN BACKEND'!H:H,0)),E9)</f>
@@ -2068,15 +2086,15 @@
       </c>
       <c r="Q9" t="str">
         <f>IF(ISNUMBER(MATCH(G9,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G9,'HEX GEN BACKEND'!I:I,0)),G9)</f>
-        <v>000100</v>
+        <v>000001</v>
       </c>
       <c r="R9" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H9,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>01001000100100000100100000100010</v>
+        <v>01001000000000000100100000001001</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="2"/>
@@ -2088,7 +2106,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="4"/>
-        <v>1001</v>
+        <v>0000</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="5"/>
@@ -2104,11 +2122,11 @@
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>1001</v>
       </c>
       <c r="AE9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="AG9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y9,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2136,15 +2154,15 @@
       </c>
       <c r="AK9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC9,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="str">
         <f t="shared" si="10"/>
-        <v>48904822</v>
+        <v>48004809</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -2152,45 +2170,45 @@
         <v>38</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>114</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H10" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>6088241C</v>
+        <v>50244424</v>
       </c>
       <c r="L10" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B10,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01100</v>
+        <v>01010</v>
       </c>
       <c r="M10" t="str">
         <f>IF(ISNUMBER(MATCH(C10,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C10,'HEX GEN BACKEND'!G:G,0)),C10)</f>
-        <v>000100</v>
+        <v>000001</v>
       </c>
       <c r="N10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D10,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O10" t="str">
         <f>IF(ISNUMBER(MATCH(E10,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E10,'HEX GEN BACKEND'!H:H,0)),E10)</f>
-        <v>000010</v>
+        <v>000100</v>
       </c>
       <c r="P10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2198,7 +2216,7 @@
       </c>
       <c r="Q10" t="str">
         <f>IF(ISNUMBER(MATCH(G10,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G10,'HEX GEN BACKEND'!I:I,0)),G10)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="R10" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H10,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2206,11 +2224,11 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>01100000100010000010010000011100</v>
+        <v>01010000001001000100010000100100</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="2"/>
-        <v>0110</v>
+        <v>0101</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
@@ -2218,15 +2236,15 @@
       </c>
       <c r="X10" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="6"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
@@ -2234,15 +2252,15 @@
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="AE10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2250,15 +2268,15 @@
       </c>
       <c r="AG10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA10,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2266,15 +2284,15 @@
       </c>
       <c r="AK10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL10" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC10,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AN10" t="str">
         <f t="shared" si="10"/>
-        <v>6088241C</v>
+        <v>50244424</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -2285,26 +2303,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H11" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800381A</v>
+        <v>48904822</v>
       </c>
       <c r="L11" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B11,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2312,15 +2330,15 @@
       </c>
       <c r="M11" t="str">
         <f>IF(ISNUMBER(MATCH(C11,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C11,'HEX GEN BACKEND'!G:G,0)),C11)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="N11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D11,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="O11" t="str">
         <f>IF(ISNUMBER(MATCH(E11,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E11,'HEX GEN BACKEND'!H:H,0)),E11)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="P11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2328,7 +2346,7 @@
       </c>
       <c r="Q11" t="str">
         <f>IF(ISNUMBER(MATCH(G11,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G11,'HEX GEN BACKEND'!I:I,0)),G11)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="R11" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H11,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2336,7 +2354,7 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000011100000011010</v>
+        <v>01001000100100000100100000100010</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="2"/>
@@ -2348,7 +2366,7 @@
       </c>
       <c r="X11" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1001</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="5"/>
@@ -2356,7 +2374,7 @@
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
@@ -2364,11 +2382,11 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="AE11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2380,7 +2398,7 @@
       </c>
       <c r="AG11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2388,7 +2406,7 @@
       </c>
       <c r="AI11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA11,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2396,15 +2414,15 @@
       </c>
       <c r="AK11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC11,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="str">
         <f t="shared" si="10"/>
-        <v>4800381A</v>
+        <v>48904822</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2412,7 +2430,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>132</v>
@@ -2421,7 +2439,7 @@
         <v>114</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>114</v>
@@ -2434,11 +2452,11 @@
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>2888341C</v>
+        <v>6088241C</v>
       </c>
       <c r="L12" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B12,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>01100</v>
       </c>
       <c r="M12" t="str">
         <f>IF(ISNUMBER(MATCH(C12,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C12,'HEX GEN BACKEND'!G:G,0)),C12)</f>
@@ -2450,7 +2468,7 @@
       </c>
       <c r="O12" t="str">
         <f>IF(ISNUMBER(MATCH(E12,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E12,'HEX GEN BACKEND'!H:H,0)),E12)</f>
-        <v>000011</v>
+        <v>000010</v>
       </c>
       <c r="P12" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F12,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2466,15 +2484,15 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>00101000100010000011010000011100</v>
+        <v>01100000100010000010010000011100</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0110</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="4"/>
@@ -2486,7 +2504,7 @@
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
@@ -2502,11 +2520,11 @@
       </c>
       <c r="AE12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2518,7 +2536,7 @@
       </c>
       <c r="AI12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z12,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ12" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA12,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2534,7 +2552,7 @@
       </c>
       <c r="AN12" t="str">
         <f t="shared" si="10"/>
-        <v>2888341C</v>
+        <v>6088241C</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2545,26 +2563,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48487800</v>
+        <v>4800381A</v>
       </c>
       <c r="L13" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B13,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2572,15 +2590,15 @@
       </c>
       <c r="M13" t="str">
         <f>IF(ISNUMBER(MATCH(C13,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C13,'HEX GEN BACKEND'!G:G,0)),C13)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O13" t="str">
         <f>IF(ISNUMBER(MATCH(E13,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E13,'HEX GEN BACKEND'!H:H,0)),E13)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="P13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F13,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2588,15 +2606,15 @@
       </c>
       <c r="Q13" t="str">
         <f>IF(ISNUMBER(MATCH(G13,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G13,'HEX GEN BACKEND'!I:I,0)),G13)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="R13" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H13,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010010000111100000000000</v>
+        <v>01001000000000000011100000011010</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
@@ -2608,15 +2626,15 @@
       </c>
       <c r="X13" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0011</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
@@ -2624,11 +2642,11 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="8"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="9"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="AE13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2640,15 +2658,15 @@
       </c>
       <c r="AG13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA13,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2656,15 +2674,15 @@
       </c>
       <c r="AK13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC13,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AN13" t="str">
         <f t="shared" si="10"/>
-        <v>48487800</v>
+        <v>4800381A</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -2672,45 +2690,45 @@
         <v>71</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>114</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H14" s="58" t="s">
         <v>113</v>
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>50247434</v>
+        <v>2888341C</v>
       </c>
       <c r="L14" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B14,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01010</v>
+        <v>00101</v>
       </c>
       <c r="M14" t="str">
         <f>IF(ISNUMBER(MATCH(C14,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C14,'HEX GEN BACKEND'!G:G,0)),C14)</f>
-        <v>000001</v>
+        <v>000100</v>
       </c>
       <c r="N14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D14,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O14" t="str">
         <f>IF(ISNUMBER(MATCH(E14,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E14,'HEX GEN BACKEND'!H:H,0)),E14)</f>
-        <v>000111</v>
+        <v>000011</v>
       </c>
       <c r="P14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2718,7 +2736,7 @@
       </c>
       <c r="Q14" t="str">
         <f>IF(ISNUMBER(MATCH(G14,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G14,'HEX GEN BACKEND'!I:I,0)),G14)</f>
-        <v>000110</v>
+        <v>000011</v>
       </c>
       <c r="R14" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H14,'HEX GEN BACKEND'!D:D,0))</f>
@@ -2726,27 +2744,27 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>01010000001001000111010000110100</v>
+        <v>00101000100010000011010000011100</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="2"/>
-        <v>0101</v>
+        <v>0010</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="5"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="6"/>
-        <v>0111</v>
+        <v>0011</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
@@ -2754,31 +2772,31 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0001</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="9"/>
-        <v>0100</v>
+        <v>1100</v>
       </c>
       <c r="AE14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA14,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2786,15 +2804,15 @@
       </c>
       <c r="AK14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC14,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>C</v>
       </c>
       <c r="AN14" t="str">
         <f t="shared" si="10"/>
-        <v>50247434</v>
+        <v>2888341C</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2808,23 +2826,23 @@
         <v>130</v>
       </c>
       <c r="D15" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="G15" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="H15" s="58" t="s">
         <v>117</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="58" t="s">
-        <v>114</v>
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>48500032</v>
+        <v>48487800</v>
       </c>
       <c r="L15" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B15,'HEX GEN BACKEND'!A:A,0))</f>
@@ -2836,27 +2854,27 @@
       </c>
       <c r="N15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="O15" t="str">
         <f>IF(ISNUMBER(MATCH(E15,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E15,'HEX GEN BACKEND'!H:H,0)),E15)</f>
-        <v>000000</v>
+        <v>000111</v>
       </c>
       <c r="P15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="Q15" t="str">
         <f>IF(ISNUMBER(MATCH(G15,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G15,'HEX GEN BACKEND'!I:I,0)),G15)</f>
-        <v>000110</v>
+        <v>000000</v>
       </c>
       <c r="R15" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H15,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="1"/>
-        <v>01001000010100000000000000110010</v>
+        <v>01001000010010000111100000000000</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="2"/>
@@ -2868,27 +2886,27 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="4"/>
-        <v>0101</v>
+        <v>0100</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0111</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="9"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AE15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V15,'HEX GEN BACKEND'!L:L,0))</f>
@@ -2900,31 +2918,31 @@
       </c>
       <c r="AG15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC15,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="str">
         <f t="shared" si="10"/>
-        <v>48500032</v>
+        <v>48487800</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2932,41 +2950,41 @@
         <v>73</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="55" t="s">
         <v>142</v>
       </c>
       <c r="F16" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="58" t="s">
         <v>113</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>114</v>
       </c>
       <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>4800783A</v>
+        <v>50247434</v>
       </c>
       <c r="L16" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B16,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>01010</v>
       </c>
       <c r="M16" t="str">
         <f>IF(ISNUMBER(MATCH(C16,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C16,'HEX GEN BACKEND'!G:G,0)),C16)</f>
-        <v>000000</v>
+        <v>000001</v>
       </c>
       <c r="N16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="O16" t="str">
         <f>IF(ISNUMBER(MATCH(E16,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E16,'HEX GEN BACKEND'!H:H,0)),E16)</f>
@@ -2974,35 +2992,35 @@
       </c>
       <c r="P16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(ISNUMBER(MATCH(G16,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G16,'HEX GEN BACKEND'!I:I,0)),G16)</f>
-        <v>000111</v>
+        <v>000110</v>
       </c>
       <c r="R16" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H16,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>01001000000000000111100000111010</v>
+        <v>01010000001001000111010000110100</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="2"/>
-        <v>0100</v>
+        <v>0101</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X16" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="6"/>
@@ -3010,7 +3028,7 @@
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>0100</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="8"/>
@@ -3018,23 +3036,23 @@
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0100</v>
       </c>
       <c r="AE16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3042,7 +3060,7 @@
       </c>
       <c r="AJ16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB16,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="AL16" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC16,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>4</v>
       </c>
       <c r="AN16" t="str">
         <f t="shared" si="10"/>
-        <v>4800783A</v>
+        <v>50247434</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
@@ -3062,53 +3080,53 @@
         <v>74</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H17" s="58" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>3225021A</v>
+        <v>48500032</v>
       </c>
       <c r="L17" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B17,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>01001</v>
       </c>
       <c r="M17" t="str">
         <f>IF(ISNUMBER(MATCH(C17,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C17,'HEX GEN BACKEND'!G:G,0)),C17)</f>
-        <v>010001</v>
+        <v>000010</v>
       </c>
       <c r="N17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>100</v>
       </c>
       <c r="O17" t="str">
         <f>IF(ISNUMBER(MATCH(E17,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E17,'HEX GEN BACKEND'!H:H,0)),E17)</f>
-        <v>010000</v>
+        <v>000000</v>
       </c>
       <c r="P17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F17,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>000</v>
       </c>
       <c r="Q17" t="str">
         <f>IF(ISNUMBER(MATCH(G17,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G17,'HEX GEN BACKEND'!I:I,0)),G17)</f>
-        <v>000011</v>
+        <v>000110</v>
       </c>
       <c r="R17" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H17,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3116,23 +3134,23 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>00110010001001010000001000011010</v>
+        <v>01001000010100000000000000110010</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="3"/>
-        <v>0010</v>
+        <v>1000</v>
       </c>
       <c r="X17" t="str">
         <f t="shared" si="4"/>
-        <v>0010</v>
+        <v>0101</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>0000</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="6"/>
@@ -3140,31 +3158,31 @@
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0000</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="8"/>
-        <v>0001</v>
+        <v>0011</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>0010</v>
       </c>
       <c r="AE17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z17,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3172,19 +3190,19 @@
       </c>
       <c r="AJ17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL17" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC17,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>2</v>
       </c>
       <c r="AN17" t="str">
         <f t="shared" si="10"/>
-        <v>3225021A</v>
+        <v>48500032</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
@@ -3192,41 +3210,41 @@
         <v>75</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E18" s="55" t="s">
         <v>142</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="57" t="s">
         <v>149</v>
       </c>
       <c r="H18" s="58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>0848743C</v>
+        <v>4800783A</v>
       </c>
       <c r="L18" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B18,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01001</v>
       </c>
       <c r="M18" t="str">
         <f>IF(ISNUMBER(MATCH(C18,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C18,'HEX GEN BACKEND'!G:G,0)),C18)</f>
-        <v>000010</v>
+        <v>000000</v>
       </c>
       <c r="N18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O18" t="str">
         <f>IF(ISNUMBER(MATCH(E18,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E18,'HEX GEN BACKEND'!H:H,0)),E18)</f>
@@ -3234,7 +3252,7 @@
       </c>
       <c r="P18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(ISNUMBER(MATCH(G18,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G18,'HEX GEN BACKEND'!I:I,0)),G18)</f>
@@ -3242,15 +3260,15 @@
       </c>
       <c r="R18" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H18,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>00001000010010000111010000111100</v>
+        <v>01001000000000000111100000111010</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="3"/>
@@ -3258,11 +3276,11 @@
       </c>
       <c r="X18" t="str">
         <f t="shared" si="4"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="6"/>
@@ -3270,7 +3288,7 @@
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="8"/>
@@ -3278,11 +3296,11 @@
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3290,11 +3308,11 @@
       </c>
       <c r="AG18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3302,7 +3320,7 @@
       </c>
       <c r="AJ18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB18,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3310,11 +3328,11 @@
       </c>
       <c r="AL18" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC18,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN18" t="str">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>4800783A</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
@@ -3322,45 +3340,45 @@
         <v>76</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H19" s="58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>288A022C</v>
+        <v>3265221A</v>
       </c>
       <c r="L19" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B19,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00101</v>
+        <v>00110</v>
       </c>
       <c r="M19" t="str">
         <f>IF(ISNUMBER(MATCH(C19,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C19,'HEX GEN BACKEND'!G:G,0)),C19)</f>
-        <v>000100</v>
+        <v>010011</v>
       </c>
       <c r="N19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="O19" t="str">
         <f>IF(ISNUMBER(MATCH(E19,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E19,'HEX GEN BACKEND'!H:H,0)),E19)</f>
-        <v>100000</v>
+        <v>010010</v>
       </c>
       <c r="P19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F19,'HEX GEN BACKEND'!D:D,0))</f>
@@ -3368,35 +3386,35 @@
       </c>
       <c r="Q19" t="str">
         <f>IF(ISNUMBER(MATCH(G19,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G19,'HEX GEN BACKEND'!I:I,0)),G19)</f>
-        <v>000101</v>
+        <v>000011</v>
       </c>
       <c r="R19" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H19,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="1"/>
-        <v>00101000100010100000001000101100</v>
+        <v>00110010011001010010001000011010</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="2"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>0110</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="5"/>
-        <v>1010</v>
+        <v>0101</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="6"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="7"/>
@@ -3404,31 +3422,31 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0001</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="9"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA19,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3436,15 +3454,15 @@
       </c>
       <c r="AK19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC19,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN19" t="str">
         <f t="shared" si="10"/>
-        <v>288A022C</v>
+        <v>3265221A</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -3452,129 +3470,129 @@
         <v>77</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>30C5322A</v>
+        <v>0848743C</v>
       </c>
       <c r="L20" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>00001</v>
       </c>
       <c r="M20" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
-        <v>000110</v>
+        <v>000010</v>
       </c>
       <c r="N20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="O20" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
-        <v>010011</v>
+        <v>000111</v>
       </c>
       <c r="P20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="Q20" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
-        <v>000101</v>
+        <v>000111</v>
       </c>
       <c r="R20" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>00110000110001010011001000101010</v>
+        <v>00001000010010000111010000111100</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="2"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X20" t="str">
         <f t="shared" si="4"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="5"/>
-        <v>0101</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="6"/>
-        <v>0011</v>
+        <v>0111</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="7"/>
-        <v>0010</v>
+        <v>0100</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="8"/>
-        <v>0010</v>
+        <v>0011</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN20" t="str">
         <f t="shared" si="10"/>
-        <v>30C5322A</v>
+        <v>0848743C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -3582,77 +3600,77 @@
         <v>78</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>C000003A</v>
+        <v>288A022C</v>
       </c>
       <c r="L21" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B21,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>00101</v>
       </c>
       <c r="M21" t="str">
         <f>IF(ISNUMBER(MATCH(C21,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C21,'HEX GEN BACKEND'!G:G,0)),C21)</f>
-        <v>000000</v>
+        <v>000100</v>
       </c>
       <c r="N21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O21" t="str">
         <f>IF(ISNUMBER(MATCH(E21,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E21,'HEX GEN BACKEND'!H:H,0)),E21)</f>
-        <v>000000</v>
+        <v>100000</v>
       </c>
       <c r="P21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>001</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(ISNUMBER(MATCH(G21,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G21,'HEX GEN BACKEND'!I:I,0)),G21)</f>
-        <v>000111</v>
+        <v>000101</v>
       </c>
       <c r="R21" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H21,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>11000000000000000000000000111010</v>
+        <v>00101000100010100000001000101100</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="2"/>
-        <v>1100</v>
+        <v>0010</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X21" t="str">
         <f t="shared" si="4"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="5"/>
-        <v>0000</v>
+        <v>1010</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="6"/>
@@ -3660,31 +3678,31 @@
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
-        <v>0000</v>
+        <v>0010</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" si="8"/>
-        <v>0011</v>
+        <v>0010</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="9"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>A</v>
       </c>
       <c r="AI21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z21,'HEX GEN BACKEND'!L:L,0))</f>
@@ -3692,1875 +3710,2099 @@
       </c>
       <c r="AJ21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL21" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC21,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN21" t="str">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>288A022C</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="25" t="e">
+      <c r="B22" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
+        <v>3105522A</v>
+      </c>
+      <c r="L22" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B22,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22">
+        <v>00110</v>
+      </c>
+      <c r="M22" t="str">
         <f>IF(ISNUMBER(MATCH(C22,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C22,'HEX GEN BACKEND'!G:G,0)),C22)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" t="e">
+        <v>001000</v>
+      </c>
+      <c r="N22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22">
+        <v>001</v>
+      </c>
+      <c r="O22" t="str">
         <f>IF(ISNUMBER(MATCH(E22,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E22,'HEX GEN BACKEND'!H:H,0)),E22)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" t="e">
+        <v>010101</v>
+      </c>
+      <c r="P22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22">
+        <v>001</v>
+      </c>
+      <c r="Q22" t="str">
         <f>IF(ISNUMBER(MATCH(G22,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G22,'HEX GEN BACKEND'!I:I,0)),G22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" t="e">
+        <v>000101</v>
+      </c>
+      <c r="R22" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H22,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
+        <v>010</v>
+      </c>
+      <c r="T22" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="e">
+        <v>00110001000001010101001000101010</v>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
+        <v>0011</v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
+        <v>0001</v>
+      </c>
+      <c r="X22" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Z22" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
+        <v>0101</v>
+      </c>
+      <c r="AA22" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB22" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC22" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" t="e">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" t="e">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH22" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" t="e">
+        <v>5</v>
+      </c>
+      <c r="AI22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ22" t="e">
+        <v>5</v>
+      </c>
+      <c r="AJ22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK22" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL22" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL22" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC22,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN22" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN22" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>3105522A</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="25" t="e">
+      <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
+        <v>4804281C</v>
+      </c>
+      <c r="L23" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B23,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23">
+        <v>01001</v>
+      </c>
+      <c r="M23" t="str">
         <f>IF(ISNUMBER(MATCH(C23,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C23,'HEX GEN BACKEND'!G:G,0)),C23)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23">
+        <v>001</v>
+      </c>
+      <c r="O23" t="str">
         <f>IF(ISNUMBER(MATCH(E23,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E23,'HEX GEN BACKEND'!H:H,0)),E23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="Q23" t="str">
         <f>IF(ISNUMBER(MATCH(G23,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G23,'HEX GEN BACKEND'!I:I,0)),G23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" t="e">
+        <v>000011</v>
+      </c>
+      <c r="R23" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H23,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
+        <v>100</v>
+      </c>
+      <c r="T23" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="e">
+        <v>01001000000001000010100000011100</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W23" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X23" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z23" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA23" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC23" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH23" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ23" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK23" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL23" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC23,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN23" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN23" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4804281C</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="25" t="e">
+      <c r="B24" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="e">
+        <v>48043824</v>
+      </c>
+      <c r="L24" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B24,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24">
+        <v>01001</v>
+      </c>
+      <c r="M24" t="str">
         <f>IF(ISNUMBER(MATCH(C24,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C24,'HEX GEN BACKEND'!G:G,0)),C24)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N24" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24">
+        <v>001</v>
+      </c>
+      <c r="O24" t="str">
         <f>IF(ISNUMBER(MATCH(E24,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E24,'HEX GEN BACKEND'!H:H,0)),E24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P24" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="Q24" t="str">
         <f>IF(ISNUMBER(MATCH(G24,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G24,'HEX GEN BACKEND'!I:I,0)),G24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" t="e">
+        <v>000100</v>
+      </c>
+      <c r="R24" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H24,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" t="e">
+        <v>100</v>
+      </c>
+      <c r="T24" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" t="e">
+        <v>01001000000001000011100000100100</v>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W24" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X24" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z24" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA24" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC24" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH24" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK24" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC24,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN24" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48043824</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="25" t="e">
+      <c r="B25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
+        <v>4804482C</v>
+      </c>
+      <c r="L25" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B25,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25">
+        <v>01001</v>
+      </c>
+      <c r="M25" t="str">
         <f>IF(ISNUMBER(MATCH(C25,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C25,'HEX GEN BACKEND'!G:G,0)),C25)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25">
+        <v>001</v>
+      </c>
+      <c r="O25" t="str">
         <f>IF(ISNUMBER(MATCH(E25,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E25,'HEX GEN BACKEND'!H:H,0)),E25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" t="e">
+        <v>000100</v>
+      </c>
+      <c r="P25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="str">
         <f>IF(ISNUMBER(MATCH(G25,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G25,'HEX GEN BACKEND'!I:I,0)),G25)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" t="e">
+        <v>000101</v>
+      </c>
+      <c r="R25" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H25,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" t="e">
+        <v>100</v>
+      </c>
+      <c r="T25" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
+        <v>01001000000001000100100000101100</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X25" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z25" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA25" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AC25" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH25" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ25" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK25" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL25" t="e">
+        <v>2</v>
+      </c>
+      <c r="AL25" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC25,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN25" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN25" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4804482C</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="25" t="e">
+      <c r="B26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
+        <v>48047834</v>
+      </c>
+      <c r="L26" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B26,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26">
+        <v>01001</v>
+      </c>
+      <c r="M26" t="str">
         <f>IF(ISNUMBER(MATCH(C26,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C26,'HEX GEN BACKEND'!G:G,0)),C26)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N26" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26">
+        <v>001</v>
+      </c>
+      <c r="O26" t="str">
         <f>IF(ISNUMBER(MATCH(E26,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E26,'HEX GEN BACKEND'!H:H,0)),E26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" t="e">
+        <v>000111</v>
+      </c>
+      <c r="P26" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26">
+        <v>100</v>
+      </c>
+      <c r="Q26" t="str">
         <f>IF(ISNUMBER(MATCH(G26,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G26,'HEX GEN BACKEND'!I:I,0)),G26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" t="e">
+        <v>000110</v>
+      </c>
+      <c r="R26" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H26,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" t="e">
+        <v>100</v>
+      </c>
+      <c r="T26" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" t="e">
+        <v>01001000000001000111100000110100</v>
+      </c>
+      <c r="V26" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X26" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z26" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
+        <v>0111</v>
+      </c>
+      <c r="AA26" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC26" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE26" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH26" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ26" t="e">
+        <v>7</v>
+      </c>
+      <c r="AJ26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK26" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL26" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC26,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN26" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN26" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48047834</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="25" t="e">
+      <c r="B27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
+        <v>48500200</v>
+      </c>
+      <c r="L27" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B27,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27">
+        <v>01001</v>
+      </c>
+      <c r="M27" t="str">
         <f>IF(ISNUMBER(MATCH(C27,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C27,'HEX GEN BACKEND'!G:G,0)),C27)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N27" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="str">
         <f>IF(ISNUMBER(MATCH(E27,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E27,'HEX GEN BACKEND'!H:H,0)),E27)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P27" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27">
+        <v>001</v>
+      </c>
+      <c r="Q27" t="str">
         <f>IF(ISNUMBER(MATCH(G27,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G27,'HEX GEN BACKEND'!I:I,0)),G27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R27" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H27,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" t="e">
+        <v>000</v>
+      </c>
+      <c r="T27" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V27" t="e">
+        <v>01001000010100000000001000000000</v>
+      </c>
+      <c r="V27" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X27" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X27" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z27" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z27" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA27" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB27" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB27" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC27" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC27" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE27" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF27" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG27" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH27" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK27" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC27,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN27" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48500200</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="25" t="e">
+      <c r="B28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
+        <v>48900200</v>
+      </c>
+      <c r="L28" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B28,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28">
+        <v>01001</v>
+      </c>
+      <c r="M28" t="str">
         <f>IF(ISNUMBER(MATCH(C28,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C28,'HEX GEN BACKEND'!G:G,0)),C28)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" t="e">
+        <v>000100</v>
+      </c>
+      <c r="N28" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="O28" t="str">
         <f>IF(ISNUMBER(MATCH(E28,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E28,'HEX GEN BACKEND'!H:H,0)),E28)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P28" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28">
+        <v>001</v>
+      </c>
+      <c r="Q28" t="str">
         <f>IF(ISNUMBER(MATCH(G28,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G28,'HEX GEN BACKEND'!I:I,0)),G28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" t="e">
+        <v>000000</v>
+      </c>
+      <c r="R28" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H28,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" t="e">
+        <v>000</v>
+      </c>
+      <c r="T28" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="e">
+        <v>01001000100100000000001000000000</v>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X28" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" t="e">
+        <v>1001</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z28" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z28" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA28" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB28" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB28" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC28" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC28" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE28" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AE28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF28" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG28" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH28" t="e">
+        <v>9</v>
+      </c>
+      <c r="AH28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK28" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC28,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN28" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48900200</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="25" t="e">
+      <c r="B29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" t="e">
+        <v>33861212</v>
+      </c>
+      <c r="L29" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B29,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M29">
+        <v>00110</v>
+      </c>
+      <c r="M29" t="str">
         <f>IF(ISNUMBER(MATCH(C29,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C29,'HEX GEN BACKEND'!G:G,0)),C29)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" t="e">
+        <v>011100</v>
+      </c>
+      <c r="N29" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29">
+        <v>001</v>
+      </c>
+      <c r="O29" t="str">
         <f>IF(ISNUMBER(MATCH(E29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E29,'HEX GEN BACKEND'!H:H,0)),E29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" t="e">
+        <v>100001</v>
+      </c>
+      <c r="P29" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29">
+        <v>001</v>
+      </c>
+      <c r="Q29" t="str">
         <f>IF(ISNUMBER(MATCH(G29,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G29,'HEX GEN BACKEND'!I:I,0)),G29)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" t="e">
+        <v>000010</v>
+      </c>
+      <c r="R29" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H29,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T29" t="e">
+        <v>010</v>
+      </c>
+      <c r="T29" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" t="e">
+        <v>00110011100001100001001000010010</v>
+      </c>
+      <c r="V29" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" t="e">
+        <v>0011</v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" t="e">
+        <v>0011</v>
+      </c>
+      <c r="X29" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Z29" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA29" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB29" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB29" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC29" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE29" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AE29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF29" t="e">
+        <v>3</v>
+      </c>
+      <c r="AF29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG29" t="e">
+        <v>3</v>
+      </c>
+      <c r="AG29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH29" t="e">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI29" t="e">
+        <v>6</v>
+      </c>
+      <c r="AI29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ29" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK29" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL29" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN29" t="e">
+        <v>2</v>
+      </c>
+      <c r="AN29" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>33861212</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="25" t="e">
+      <c r="B30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" t="e">
+        <v>4800140C</v>
+      </c>
+      <c r="L30" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B30,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30">
+        <v>01001</v>
+      </c>
+      <c r="M30" t="str">
         <f>IF(ISNUMBER(MATCH(C30,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C30,'HEX GEN BACKEND'!G:G,0)),C30)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N30" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30">
+        <v>000</v>
+      </c>
+      <c r="O30" t="str">
         <f>IF(ISNUMBER(MATCH(E30,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E30,'HEX GEN BACKEND'!H:H,0)),E30)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P30" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30">
+        <v>010</v>
+      </c>
+      <c r="Q30" t="str">
         <f>IF(ISNUMBER(MATCH(G30,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G30,'HEX GEN BACKEND'!I:I,0)),G30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R30" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H30,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" t="e">
+        <v>100</v>
+      </c>
+      <c r="T30" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="e">
+        <v>01001000000000000001010000001100</v>
+      </c>
+      <c r="V30" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X30" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z30" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA30" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB30" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB30" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC30" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC30" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE30" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF30" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG30" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ30" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK30" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC30,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN30" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN30" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800140C</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="25" t="e">
+      <c r="B31" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" t="e">
+        <v>4850280A</v>
+      </c>
+      <c r="L31" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B31,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M31">
+        <v>01001</v>
+      </c>
+      <c r="M31" t="str">
         <f>IF(ISNUMBER(MATCH(C31,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C31,'HEX GEN BACKEND'!G:G,0)),C31)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" t="e">
+        <v>000010</v>
+      </c>
+      <c r="N31" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="str">
         <f>IF(ISNUMBER(MATCH(E31,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E31,'HEX GEN BACKEND'!H:H,0)),E31)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" t="e">
+        <v>000010</v>
+      </c>
+      <c r="P31" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="Q31" t="str">
         <f>IF(ISNUMBER(MATCH(G31,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G31,'HEX GEN BACKEND'!I:I,0)),G31)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R31" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H31,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T31" t="e">
+        <v>010</v>
+      </c>
+      <c r="T31" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V31" t="e">
+        <v>01001000010100000010100000001010</v>
+      </c>
+      <c r="V31" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W31" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X31" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X31" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y31" t="e">
+        <v>0101</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z31" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z31" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA31" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AA31" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB31" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC31" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC31" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE31" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF31" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG31" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH31" t="e">
+        <v>5</v>
+      </c>
+      <c r="AH31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI31" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ31" t="e">
+        <v>2</v>
+      </c>
+      <c r="AJ31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK31" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL31" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC31,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN31" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN31" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4850280A</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="25" t="e">
+      <c r="B32" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" t="e">
+        <v>48240014</v>
+      </c>
+      <c r="L32" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B32,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32">
+        <v>01001</v>
+      </c>
+      <c r="M32" t="str">
         <f>IF(ISNUMBER(MATCH(C32,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C32,'HEX GEN BACKEND'!G:G,0)),C32)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" t="e">
+        <v>000001</v>
+      </c>
+      <c r="N32" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32">
+        <v>001</v>
+      </c>
+      <c r="O32" t="str">
         <f>IF(ISNUMBER(MATCH(E32,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E32,'HEX GEN BACKEND'!H:H,0)),E32)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P32" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32">
+        <v>000</v>
+      </c>
+      <c r="Q32" t="str">
         <f>IF(ISNUMBER(MATCH(G32,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G32,'HEX GEN BACKEND'!I:I,0)),G32)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" t="e">
+        <v>000010</v>
+      </c>
+      <c r="R32" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H32,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" t="e">
+        <v>100</v>
+      </c>
+      <c r="T32" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" t="e">
+        <v>01001000001001000000000000010100</v>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X32" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X32" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" t="e">
+        <v>0010</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z32" t="e">
+        <v>0100</v>
+      </c>
+      <c r="Z32" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA32" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA32" t="str">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB32" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB32" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC32" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AC32" t="str">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE32" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AE32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF32" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG32" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH32" t="e">
+        <v>2</v>
+      </c>
+      <c r="AH32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI32" t="e">
+        <v>4</v>
+      </c>
+      <c r="AI32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ32" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK32" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL32" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC32,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN32" t="e">
+        <v>4</v>
+      </c>
+      <c r="AN32" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>48240014</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="42" t="e">
+      <c r="B33" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="42" t="str">
         <f>AN33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
+        <v>4870003A</v>
+      </c>
+      <c r="L33" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B33,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33">
+        <v>01001</v>
+      </c>
+      <c r="M33" t="str">
         <f>IF(ISNUMBER(MATCH(C33,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C33,'HEX GEN BACKEND'!G:G,0)),C33)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" t="e">
+        <v>000011</v>
+      </c>
+      <c r="N33" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="str">
         <f>IF(ISNUMBER(MATCH(E33,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E33,'HEX GEN BACKEND'!H:H,0)),E33)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P33" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33">
+        <v>000</v>
+      </c>
+      <c r="Q33" t="str">
         <f>IF(ISNUMBER(MATCH(G33,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G33,'HEX GEN BACKEND'!I:I,0)),G33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R33" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H33,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
+        <v>010</v>
+      </c>
+      <c r="T33" t="str">
         <f t="shared" ref="T33:T96" si="11">L33&amp;M33&amp;N33&amp;O33&amp;P33&amp;Q33&amp;R33</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" t="e">
+        <v>01001000011100000000000000111010</v>
+      </c>
+      <c r="V33" t="str">
         <f t="shared" ref="V33:V96" si="12">MID(T33,1,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" ref="W33:W96" si="13">MID(T33,5,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X33" t="str">
         <f t="shared" ref="X33:X96" si="14">MID(T33,9,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" t="e">
+        <v>0111</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" ref="Y33:Y96" si="15">MID(T33,13,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z33" t="str">
         <f t="shared" ref="Z33:Z96" si="16">MID(T33,17,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA33" t="str">
         <f t="shared" ref="AA33:AA96" si="17">MID(T33,21,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB33" t="str">
         <f t="shared" ref="AB33:AB96" si="18">MID(T33,25,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC33" t="str">
         <f t="shared" ref="AC33:AC96" si="19">MID(T33,29,4)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE33" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF33" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG33" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH33" t="e">
+        <v>7</v>
+      </c>
+      <c r="AH33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI33" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ33" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK33" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL33" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL33" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC33,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN33" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN33" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4870003A</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="42" t="e">
+      <c r="B34" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="42" t="str">
         <f t="shared" ref="I34:I97" si="20">AN34</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
+        <v>30004209</v>
+      </c>
+      <c r="L34" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B34,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M34">
+        <v>00110</v>
+      </c>
+      <c r="M34" t="str">
         <f>IF(ISNUMBER(MATCH(C34,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C34,'HEX GEN BACKEND'!G:G,0)),C34)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N34" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O34">
+        <v>000</v>
+      </c>
+      <c r="O34" t="str">
         <f>IF(ISNUMBER(MATCH(E34,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E34,'HEX GEN BACKEND'!H:H,0)),E34)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" t="e">
+        <v>000100</v>
+      </c>
+      <c r="P34" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34">
+        <v>001</v>
+      </c>
+      <c r="Q34" t="str">
         <f>IF(ISNUMBER(MATCH(G34,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G34,'HEX GEN BACKEND'!I:I,0)),G34)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" t="e">
+        <v>000001</v>
+      </c>
+      <c r="R34" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T34" t="e">
+        <v>001</v>
+      </c>
+      <c r="T34" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="e">
+        <v>00110000000000000100001000001001</v>
+      </c>
+      <c r="V34" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" t="e">
+        <v>0011</v>
+      </c>
+      <c r="W34" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X34" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X34" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y34" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z34" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z34" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA34" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AA34" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB34" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB34" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC34" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AC34" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE34" t="e">
+        <v>1001</v>
+      </c>
+      <c r="AE34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF34" t="e">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ34" t="e">
+        <v>4</v>
+      </c>
+      <c r="AJ34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK34" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL34" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN34" t="e">
+        <v>9</v>
+      </c>
+      <c r="AN34" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>30004209</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="42" t="e">
+      <c r="B35" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
+        <v>4800383A</v>
+      </c>
+      <c r="L35" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B35,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35">
+        <v>01001</v>
+      </c>
+      <c r="M35" t="str">
         <f>IF(ISNUMBER(MATCH(C35,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C35,'HEX GEN BACKEND'!G:G,0)),C35)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N35" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35">
+        <v>000</v>
+      </c>
+      <c r="O35" t="str">
         <f>IF(ISNUMBER(MATCH(E35,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E35,'HEX GEN BACKEND'!H:H,0)),E35)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P35" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35">
+        <v>100</v>
+      </c>
+      <c r="Q35" t="str">
         <f>IF(ISNUMBER(MATCH(G35,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G35,'HEX GEN BACKEND'!I:I,0)),G35)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R35" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T35" t="e">
+        <v>010</v>
+      </c>
+      <c r="T35" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V35" t="e">
+        <v>01001000000000000011100000111010</v>
+      </c>
+      <c r="V35" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W35" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X35" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X35" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y35" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y35" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z35" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z35" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA35" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA35" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB35" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC35" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC35" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE35" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF35" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG35" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI35" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ35" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK35" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL35" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN35" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN35" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800383A</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="42" t="e">
+      <c r="B36" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" t="e">
+        <v>0868343C</v>
+      </c>
+      <c r="L36" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B36,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36">
+        <v>00001</v>
+      </c>
+      <c r="M36" t="str">
         <f>IF(ISNUMBER(MATCH(C36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C36,'HEX GEN BACKEND'!G:G,0)),C36)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" t="e">
+        <v>000011</v>
+      </c>
+      <c r="N36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36">
+        <v>010</v>
+      </c>
+      <c r="O36" t="str">
         <f>IF(ISNUMBER(MATCH(E36,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E36,'HEX GEN BACKEND'!H:H,0)),E36)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36">
+        <v>010</v>
+      </c>
+      <c r="Q36" t="str">
         <f>IF(ISNUMBER(MATCH(G36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G36,'HEX GEN BACKEND'!I:I,0)),G36)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T36" t="e">
+        <v>100</v>
+      </c>
+      <c r="T36" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V36" t="e">
+        <v>00001000011010000011010000111100</v>
+      </c>
+      <c r="V36" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W36" t="e">
+        <v>0000</v>
+      </c>
+      <c r="W36" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X36" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X36" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y36" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y36" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z36" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA36" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA36" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB36" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB36" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC36" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC36" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE36" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF36" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG36" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH36" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI36" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ36" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK36" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL36" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN36" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN36" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0868343C</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="42" t="e">
+      <c r="B37" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L37" t="e">
+        <v>C000003A</v>
+      </c>
+      <c r="L37" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37">
+        <v>11000</v>
+      </c>
+      <c r="M37" t="str">
         <f>IF(ISNUMBER(MATCH(C37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C37,'HEX GEN BACKEND'!G:G,0)),C37)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O37">
+        <v>000</v>
+      </c>
+      <c r="O37" t="str">
         <f>IF(ISNUMBER(MATCH(E37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E37,'HEX GEN BACKEND'!H:H,0)),E37)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37">
+        <v>000</v>
+      </c>
+      <c r="Q37" t="str">
         <f>IF(ISNUMBER(MATCH(G37,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G37,'HEX GEN BACKEND'!I:I,0)),G37)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T37" t="e">
+        <v>010</v>
+      </c>
+      <c r="T37" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V37" t="e">
+        <v>11000000000000000000000000111010</v>
+      </c>
+      <c r="V37" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
+        <v>1100</v>
+      </c>
+      <c r="W37" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X37" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X37" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y37" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y37" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z37" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z37" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA37" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA37" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB37" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB37" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC37" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC37" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE37" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF37" t="e">
+        <v>C</v>
+      </c>
+      <c r="AF37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG37" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH37" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI37" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ37" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK37" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL37" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN37" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN37" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
@@ -12920,7 +13162,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$A:$A</xm:f>
@@ -12931,13 +13173,13 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D24:D53 F24:F53 F2:F18 D2:D18 H24:H53 F22 D22 H22 H2:H18 F20 D20 H20</xm:sqref>
+          <xm:sqref>F2:F20 D2:D20 H2:H20 H22:H53 D22:D53 F22:F53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D:$D</xm:f>
           </x14:formula1>
-          <xm:sqref>D54:D101 F54:F101 H54:H101 D23 F23 H23 D21 F21 H21 D19 F19 H19</xm:sqref>
+          <xm:sqref>D54:D101 F54:F101 H54:H101 D21 H21 F21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HEX GEN" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="214">
   <si>
     <t>0001</t>
   </si>
@@ -609,6 +609,66 @@
   </si>
   <si>
     <t>111111</t>
+  </si>
+  <si>
+    <t>HALT INVERT</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>HALT A GRT B</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>HALT A SML B</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>HALT A EQL B</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>HALT STEP</t>
+  </si>
+  <si>
+    <t>10110</t>
+  </si>
+  <si>
+    <t>HALT TRANSFER</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>HALT BITSHIFT</t>
+  </si>
+  <si>
+    <t>11010</t>
+  </si>
+  <si>
+    <t>HALT COUNTER</t>
+  </si>
+  <si>
+    <t>11011</t>
+  </si>
+  <si>
+    <t>HALT AND OP</t>
+  </si>
+  <si>
+    <t>11100</t>
+  </si>
+  <si>
+    <t>HALT OR OP</t>
+  </si>
+  <si>
+    <t>11101</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
@@ -13189,16 +13249,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13206,7 +13266,7 @@
       <c r="A1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -13238,7 +13298,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -13270,7 +13330,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -13302,7 +13362,7 @@
       <c r="A4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -13334,7 +13394,7 @@
       <c r="A5" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="23"/>
@@ -13361,7 +13421,7 @@
       <c r="A6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="24" t="s">
         <v>43</v>
       </c>
       <c r="G6" t="s">
@@ -13387,7 +13447,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
@@ -13413,7 +13473,7 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
@@ -13439,7 +13499,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -13453,7 +13513,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="24" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -13467,7 +13527,7 @@
       <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>99</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -13481,7 +13541,7 @@
       <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="24" t="s">
         <v>100</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -13495,7 +13555,7 @@
       <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="24" t="s">
         <v>101</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -13509,7 +13569,7 @@
       <c r="A14" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="24" t="s">
         <v>102</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -13523,7 +13583,7 @@
       <c r="A15" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="24" t="s">
         <v>103</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -13537,7 +13597,7 @@
       <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -13551,7 +13611,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -13559,7 +13619,7 @@
       <c r="A18" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13567,7 +13627,7 @@
       <c r="A19" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -13575,8 +13635,88 @@
       <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="HEX GEN" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
   <si>
     <t>0001</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>11101</t>
+  </si>
+  <si>
+    <t>v2.0 raw</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +746,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -771,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -854,6 +869,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,14 +1155,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="47"/>
     <col min="4" max="4" width="9.140625" style="28"/>
     <col min="5" max="5" width="9.140625" style="49"/>
@@ -1182,7 +1201,7 @@
         <v>128</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1839,7 +1858,7 @@
       <c r="A7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="53" t="s">
@@ -3399,7 +3418,7 @@
       <c r="A19" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="53" t="s">
@@ -3525,134 +3544,134 @@
         <v>3265221A</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0848743C</v>
-      </c>
-      <c r="L20" t="str">
+        <v>8848743C</v>
+      </c>
+      <c r="L20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B20,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
-      </c>
-      <c r="M20" t="str">
+        <v>10001</v>
+      </c>
+      <c r="M20" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(C20,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C20,'HEX GEN BACKEND'!G:G,0)),C20)</f>
         <v>000010</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D20,'HEX GEN BACKEND'!D:D,0))</f>
         <v>010</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O20" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(E20,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E20,'HEX GEN BACKEND'!H:H,0)),E20)</f>
         <v>000111</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F20,'HEX GEN BACKEND'!D:D,0))</f>
         <v>010</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="Q20" s="67" t="str">
         <f>IF(ISNUMBER(MATCH(G20,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G20,'HEX GEN BACKEND'!I:I,0)),G20)</f>
         <v>000111</v>
       </c>
-      <c r="R20" t="str">
+      <c r="R20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H20,'HEX GEN BACKEND'!D:D,0))</f>
         <v>100</v>
       </c>
-      <c r="T20" t="str">
+      <c r="T20" s="67" t="str">
         <f t="shared" si="1"/>
-        <v>00001000010010000111010000111100</v>
-      </c>
-      <c r="V20" t="str">
+        <v>10001000010010000111010000111100</v>
+      </c>
+      <c r="V20" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>0000</v>
-      </c>
-      <c r="W20" t="str">
+        <v>1000</v>
+      </c>
+      <c r="W20" s="67" t="str">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="X20" t="str">
+      <c r="X20" s="67" t="str">
         <f t="shared" si="4"/>
         <v>0100</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="Y20" s="67" t="str">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="Z20" s="67" t="str">
         <f t="shared" si="6"/>
         <v>0111</v>
       </c>
-      <c r="AA20" t="str">
+      <c r="AA20" s="67" t="str">
         <f t="shared" si="7"/>
         <v>0100</v>
       </c>
-      <c r="AB20" t="str">
+      <c r="AB20" s="67" t="str">
         <f t="shared" si="8"/>
         <v>0011</v>
       </c>
-      <c r="AC20" t="str">
+      <c r="AC20" s="67" t="str">
         <f t="shared" si="9"/>
         <v>1100</v>
       </c>
-      <c r="AE20" t="str">
+      <c r="AE20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V20,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" t="str">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>8</v>
       </c>
-      <c r="AG20" t="str">
+      <c r="AG20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>4</v>
       </c>
-      <c r="AH20" t="str">
+      <c r="AH20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>8</v>
       </c>
-      <c r="AI20" t="str">
+      <c r="AI20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>7</v>
       </c>
-      <c r="AJ20" t="str">
+      <c r="AJ20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>4</v>
       </c>
-      <c r="AK20" t="str">
+      <c r="AK20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>3</v>
       </c>
-      <c r="AL20" t="str">
+      <c r="AL20" s="67" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC20,'HEX GEN BACKEND'!L:L,0))</f>
         <v>C</v>
       </c>
-      <c r="AN20" t="str">
+      <c r="AN20" s="67" t="str">
         <f t="shared" si="10"/>
-        <v>0848743C</v>
+        <v>8848743C</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -3789,7 +3808,7 @@
       <c r="A22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -4699,7 +4718,7 @@
       <c r="A29" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="41" t="s">
@@ -4709,7 +4728,7 @@
         <v>115</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>115</v>
@@ -4722,7 +4741,7 @@
       </c>
       <c r="I29" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>33861212</v>
+        <v>33862212</v>
       </c>
       <c r="L29" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B29,'HEX GEN BACKEND'!A:A,0))</f>
@@ -4738,7 +4757,7 @@
       </c>
       <c r="O29" t="str">
         <f>IF(ISNUMBER(MATCH(E29,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E29,'HEX GEN BACKEND'!H:H,0)),E29)</f>
-        <v>100001</v>
+        <v>100010</v>
       </c>
       <c r="P29" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F29,'HEX GEN BACKEND'!D:D,0))</f>
@@ -4754,7 +4773,7 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="1"/>
-        <v>00110011100001100001001000010010</v>
+        <v>00110011100001100010001000010010</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="2"/>
@@ -4774,7 +4793,7 @@
       </c>
       <c r="Z29" t="str">
         <f t="shared" si="6"/>
-        <v>0001</v>
+        <v>0010</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="7"/>
@@ -4806,7 +4825,7 @@
       </c>
       <c r="AI29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z29,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ29" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA29,'HEX GEN BACKEND'!L:L,0))</f>
@@ -4822,7 +4841,7 @@
       </c>
       <c r="AN29" t="str">
         <f t="shared" si="10"/>
-        <v>33861212</v>
+        <v>33862212</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
@@ -5349,34 +5368,34 @@
       <c r="A34" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="53" t="s">
+      <c r="B34" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="56" t="s">
+      <c r="E34" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>115</v>
+      <c r="G34" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="72" t="s">
+        <v>113</v>
       </c>
       <c r="I34" s="42" t="str">
         <f t="shared" ref="I34:I97" si="20">AN34</f>
-        <v>30004209</v>
+        <v>4800023C</v>
       </c>
       <c r="L34" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B34,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00110</v>
+        <v>01001</v>
       </c>
       <c r="M34" t="str">
         <f>IF(ISNUMBER(MATCH(C34,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C34,'HEX GEN BACKEND'!G:G,0)),C34)</f>
@@ -5388,7 +5407,7 @@
       </c>
       <c r="O34" t="str">
         <f>IF(ISNUMBER(MATCH(E34,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E34,'HEX GEN BACKEND'!H:H,0)),E34)</f>
-        <v>000100</v>
+        <v>000000</v>
       </c>
       <c r="P34" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F34,'HEX GEN BACKEND'!D:D,0))</f>
@@ -5396,23 +5415,23 @@
       </c>
       <c r="Q34" t="str">
         <f>IF(ISNUMBER(MATCH(G34,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G34,'HEX GEN BACKEND'!I:I,0)),G34)</f>
-        <v>000001</v>
+        <v>000111</v>
       </c>
       <c r="R34" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H34,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>001</v>
+        <v>100</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="11"/>
-        <v>00110000000000000100001000001001</v>
+        <v>01001000000000000000001000111100</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="12"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="13"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X34" t="str">
         <f t="shared" si="14"/>
@@ -5424,7 +5443,7 @@
       </c>
       <c r="Z34" t="str">
         <f t="shared" si="16"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="17"/>
@@ -5432,19 +5451,19 @@
       </c>
       <c r="AB34" t="str">
         <f t="shared" si="18"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="19"/>
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="AE34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X34,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5456,7 +5475,7 @@
       </c>
       <c r="AI34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA34,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5464,23 +5483,23 @@
       </c>
       <c r="AK34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL34" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC34,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>9</v>
+        <v>C</v>
       </c>
       <c r="AN34" t="str">
         <f t="shared" si="10"/>
-        <v>30004209</v>
+        <v>4800023C</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>9</v>
+      <c r="B35" s="70" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>158</v>
@@ -5489,24 +5508,24 @@
         <v>117</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="H35" s="58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>4800383A</v>
+        <v>30004209</v>
       </c>
       <c r="L35" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B35,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>01001</v>
+        <v>00110</v>
       </c>
       <c r="M35" t="str">
         <f>IF(ISNUMBER(MATCH(C35,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C35,'HEX GEN BACKEND'!G:G,0)),C35)</f>
@@ -5518,31 +5537,31 @@
       </c>
       <c r="O35" t="str">
         <f>IF(ISNUMBER(MATCH(E35,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E35,'HEX GEN BACKEND'!H:H,0)),E35)</f>
-        <v>000011</v>
+        <v>000100</v>
       </c>
       <c r="P35" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>001</v>
       </c>
       <c r="Q35" t="str">
         <f>IF(ISNUMBER(MATCH(G35,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G35,'HEX GEN BACKEND'!I:I,0)),G35)</f>
-        <v>000111</v>
+        <v>000001</v>
       </c>
       <c r="R35" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H35,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>001</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="11"/>
-        <v>01001000000000000011100000111010</v>
+        <v>00110000000000000100001000001001</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="12"/>
-        <v>0100</v>
+        <v>0011</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="14"/>
@@ -5554,27 +5573,27 @@
       </c>
       <c r="Z35" t="str">
         <f t="shared" si="16"/>
-        <v>0011</v>
+        <v>0100</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="17"/>
-        <v>1000</v>
+        <v>0010</v>
       </c>
       <c r="AB35" t="str">
         <f t="shared" si="18"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="19"/>
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="AE35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X35,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5586,65 +5605,65 @@
       </c>
       <c r="AI35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AK35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC35,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>9</v>
       </c>
       <c r="AN35" t="str">
         <f t="shared" si="10"/>
-        <v>4800383A</v>
+        <v>30004209</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="27" t="s">
+      <c r="B36" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>113</v>
       </c>
       <c r="I36" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>0868343C</v>
+        <v>4800383A</v>
       </c>
       <c r="L36" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B36,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>01001</v>
       </c>
       <c r="M36" t="str">
         <f>IF(ISNUMBER(MATCH(C36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C36,'HEX GEN BACKEND'!G:G,0)),C36)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="N36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="O36" t="str">
         <f>IF(ISNUMBER(MATCH(E36,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E36,'HEX GEN BACKEND'!H:H,0)),E36)</f>
@@ -5652,7 +5671,7 @@
       </c>
       <c r="P36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="str">
         <f>IF(ISNUMBER(MATCH(G36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G36,'HEX GEN BACKEND'!I:I,0)),G36)</f>
@@ -5660,15 +5679,15 @@
       </c>
       <c r="R36" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>010</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="11"/>
-        <v>00001000011010000011010000111100</v>
+        <v>01001000000000000011100000111010</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="12"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="13"/>
@@ -5676,11 +5695,11 @@
       </c>
       <c r="X36" t="str">
         <f t="shared" si="14"/>
-        <v>0110</v>
+        <v>0000</v>
       </c>
       <c r="Y36" t="str">
         <f t="shared" si="15"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" si="16"/>
@@ -5688,7 +5707,7 @@
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="17"/>
-        <v>0100</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="str">
         <f t="shared" si="18"/>
@@ -5696,11 +5715,11 @@
       </c>
       <c r="AC36" t="str">
         <f t="shared" si="19"/>
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="AE36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5708,11 +5727,11 @@
       </c>
       <c r="AG36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5720,7 +5739,7 @@
       </c>
       <c r="AJ36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5728,11 +5747,11 @@
       </c>
       <c r="AL36" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="AN36" t="str">
         <f t="shared" si="10"/>
-        <v>0868343C</v>
+        <v>4800383A</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
@@ -5740,49 +5759,49 @@
         <v>165</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>149</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>C000003A</v>
+        <v>0868343C</v>
       </c>
       <c r="L37" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>00001</v>
       </c>
       <c r="M37" t="str">
         <f>IF(ISNUMBER(MATCH(C37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C37,'HEX GEN BACKEND'!G:G,0)),C37)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="N37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="O37" t="str">
         <f>IF(ISNUMBER(MATCH(E37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E37,'HEX GEN BACKEND'!H:H,0)),E37)</f>
-        <v>000000</v>
+        <v>000011</v>
       </c>
       <c r="P37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="Q37" t="str">
         <f>IF(ISNUMBER(MATCH(G37,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G37,'HEX GEN BACKEND'!I:I,0)),G37)</f>
@@ -5790,35 +5809,35 @@
       </c>
       <c r="R37" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>100</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="11"/>
-        <v>11000000000000000000000000111010</v>
+        <v>00001000011010000011010000111100</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="12"/>
-        <v>1100</v>
+        <v>0000</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="13"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="14"/>
-        <v>0000</v>
+        <v>0110</v>
       </c>
       <c r="Y37" t="str">
         <f t="shared" si="15"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" si="16"/>
-        <v>0000</v>
+        <v>0011</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="17"/>
-        <v>0000</v>
+        <v>0100</v>
       </c>
       <c r="AB37" t="str">
         <f t="shared" si="18"/>
@@ -5826,31 +5845,31 @@
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="19"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="AE37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB37,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5858,127 +5877,141 @@
       </c>
       <c r="AL37" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="AN37" t="str">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>0868343C</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="42" t="e">
+      <c r="B38" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L38" t="e">
+        <v>C000003A</v>
+      </c>
+      <c r="L38" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B38,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M38">
+        <v>11000</v>
+      </c>
+      <c r="M38" t="str">
         <f>IF(ISNUMBER(MATCH(C38,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C38,'HEX GEN BACKEND'!G:G,0)),C38)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N38" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O38">
+        <v>000</v>
+      </c>
+      <c r="O38" t="str">
         <f>IF(ISNUMBER(MATCH(E38,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E38,'HEX GEN BACKEND'!H:H,0)),E38)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P38" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38">
+        <v>000</v>
+      </c>
+      <c r="Q38" t="str">
         <f>IF(ISNUMBER(MATCH(G38,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G38,'HEX GEN BACKEND'!I:I,0)),G38)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R38" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T38" t="e">
+        <v>010</v>
+      </c>
+      <c r="T38" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V38" t="e">
+        <v>11000000000000000000000000111010</v>
+      </c>
+      <c r="V38" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="e">
+        <v>1100</v>
+      </c>
+      <c r="W38" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" t="e">
+        <v>0000</v>
+      </c>
+      <c r="X38" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y38" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y38" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z38" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z38" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA38" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AA38" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB38" t="e">
+        <v>0000</v>
+      </c>
+      <c r="AB38" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC38" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC38" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE38" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF38" t="e">
+        <v>C</v>
+      </c>
+      <c r="AF38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG38" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH38" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI38" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ38" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK38" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL38" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL38" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN38" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN38" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>C000003A</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
@@ -13233,7 +13266,7 @@
           <x14:formula1>
             <xm:f>'HEX GEN BACKEND'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F20 D2:D20 H2:H20 H22:H53 D22:D53 F22:F53</xm:sqref>
+          <xm:sqref>F2:F20 D2:D20 H2:H20 F22:F53 D22:D53 H22:H53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -13251,8 +13284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Instructions/Binary Instructions.xlsx
+++ b/Instructions/Binary Instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="215">
   <si>
     <t>0001</t>
   </si>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5605,16 +5605,16 @@
         <v>9</v>
       </c>
       <c r="C36" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="F36" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>113</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>149</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="I36" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>4800383A</v>
+        <v>48B0003A</v>
       </c>
       <c r="L36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B36,'HEX GEN BACKEND'!A:A,0))</f>
@@ -5632,19 +5632,19 @@
       </c>
       <c r="M36" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C36,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C36,'HEX GEN BACKEND'!G:G,0)),C36)</f>
-        <v>000000</v>
+        <v>000101</v>
       </c>
       <c r="N36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="O36" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E36,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E36,'HEX GEN BACKEND'!H:H,0)),E36)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="P36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F36,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>100</v>
+        <v>000</v>
       </c>
       <c r="Q36" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(G36,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G36,'HEX GEN BACKEND'!I:I,0)),G36)</f>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="T36" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>01001000000000000011100000111010</v>
+        <v>01001000101100000000000000111010</v>
       </c>
       <c r="V36" s="47" t="str">
         <f t="shared" si="12"/>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="X36" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>0000</v>
+        <v>1011</v>
       </c>
       <c r="Y36" s="47" t="str">
         <f t="shared" si="15"/>
@@ -5676,11 +5676,11 @@
       </c>
       <c r="Z36" s="47" t="str">
         <f t="shared" si="16"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AA36" s="47" t="str">
         <f t="shared" si="17"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="AB36" s="47" t="str">
         <f t="shared" si="18"/>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="AG36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>B</v>
       </c>
       <c r="AH36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5708,11 +5708,11 @@
       </c>
       <c r="AI36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA36,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB36,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="AN36" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>4800383A</v>
+        <v>48B0003A</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
@@ -5732,19 +5732,19 @@
         <v>165</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>114</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>149</v>
@@ -5754,15 +5754,15 @@
       </c>
       <c r="I37" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>0868343C</v>
+        <v>10A8003C</v>
       </c>
       <c r="L37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B37,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>00001</v>
+        <v>00010</v>
       </c>
       <c r="M37" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C37,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C37,'HEX GEN BACKEND'!G:G,0)),C37)</f>
-        <v>000011</v>
+        <v>000101</v>
       </c>
       <c r="N37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D37,'HEX GEN BACKEND'!D:D,0))</f>
@@ -5770,11 +5770,11 @@
       </c>
       <c r="O37" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E37,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E37,'HEX GEN BACKEND'!H:H,0)),E37)</f>
-        <v>000011</v>
+        <v>000000</v>
       </c>
       <c r="P37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F37,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>010</v>
+        <v>000</v>
       </c>
       <c r="Q37" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(G37,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G37,'HEX GEN BACKEND'!I:I,0)),G37)</f>
@@ -5786,19 +5786,19 @@
       </c>
       <c r="T37" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>00001000011010000011010000111100</v>
+        <v>00010000101010000000000000111100</v>
       </c>
       <c r="V37" s="47" t="str">
         <f t="shared" si="12"/>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="W37" s="47" t="str">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>0000</v>
       </c>
       <c r="X37" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>0110</v>
+        <v>1010</v>
       </c>
       <c r="Y37" s="47" t="str">
         <f t="shared" si="15"/>
@@ -5806,11 +5806,11 @@
       </c>
       <c r="Z37" s="47" t="str">
         <f t="shared" si="16"/>
-        <v>0011</v>
+        <v>0000</v>
       </c>
       <c r="AA37" s="47" t="str">
         <f t="shared" si="17"/>
-        <v>0100</v>
+        <v>0000</v>
       </c>
       <c r="AB37" s="47" t="str">
         <f t="shared" si="18"/>
@@ -5822,15 +5822,15 @@
       </c>
       <c r="AE37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>6</v>
+        <v>A</v>
       </c>
       <c r="AH37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y37,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5838,11 +5838,11 @@
       </c>
       <c r="AI37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA37,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB37,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="AN37" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>0868343C</v>
+        <v>10A8003C</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.25">
@@ -5862,13 +5862,13 @@
         <v>166</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>158</v>
@@ -5884,19 +5884,19 @@
       </c>
       <c r="I38" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>C000003A</v>
+        <v>48B0003A</v>
       </c>
       <c r="L38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B38,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>11000</v>
+        <v>01001</v>
       </c>
       <c r="M38" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C38,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C38,'HEX GEN BACKEND'!G:G,0)),C38)</f>
-        <v>000000</v>
+        <v>000101</v>
       </c>
       <c r="N38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D38,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>000</v>
+        <v>100</v>
       </c>
       <c r="O38" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E38,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E38,'HEX GEN BACKEND'!H:H,0)),E38)</f>
@@ -5916,19 +5916,19 @@
       </c>
       <c r="T38" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>11000000000000000000000000111010</v>
+        <v>01001000101100000000000000111010</v>
       </c>
       <c r="V38" s="47" t="str">
         <f t="shared" si="12"/>
-        <v>1100</v>
+        <v>0100</v>
       </c>
       <c r="W38" s="47" t="str">
         <f t="shared" si="13"/>
-        <v>0000</v>
+        <v>1000</v>
       </c>
       <c r="X38" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>0000</v>
+        <v>1011</v>
       </c>
       <c r="Y38" s="47" t="str">
         <f t="shared" si="15"/>
@@ -5952,15 +5952,15 @@
       </c>
       <c r="AE38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>C</v>
+        <v>4</v>
       </c>
       <c r="AF38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X38,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>0</v>
+        <v>B</v>
       </c>
       <c r="AH38" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y38,'HEX GEN BACKEND'!L:L,0))</f>
@@ -5984,471 +5984,527 @@
       </c>
       <c r="AN38" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>C000003A</v>
+        <v>48B0003A</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="49" t="e">
+      <c r="B39" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L39" s="47" t="e">
+        <v>08A8123C</v>
+      </c>
+      <c r="L39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B39,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M39" s="47">
+        <v>00001</v>
+      </c>
+      <c r="M39" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C39,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C39,'HEX GEN BACKEND'!G:G,0)),C39)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="47" t="e">
+        <v>000101</v>
+      </c>
+      <c r="N39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O39" s="47">
+        <v>010</v>
+      </c>
+      <c r="O39" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E39,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E39,'HEX GEN BACKEND'!H:H,0)),E39)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="47" t="e">
+        <v>000001</v>
+      </c>
+      <c r="P39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="47">
+        <v>001</v>
+      </c>
+      <c r="Q39" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(G39,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G39,'HEX GEN BACKEND'!I:I,0)),G39)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="47" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H39,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T39" s="47" t="e">
+        <v>100</v>
+      </c>
+      <c r="T39" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" s="47" t="e">
+        <v>00001000101010000001001000111100</v>
+      </c>
+      <c r="V39" s="47" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" s="47" t="e">
+        <v>0000</v>
+      </c>
+      <c r="W39" s="47" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X39" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" s="47" t="e">
+        <v>1010</v>
+      </c>
+      <c r="Y39" s="47" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z39" s="47" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" s="47" t="e">
+        <v>0001</v>
+      </c>
+      <c r="AA39" s="47" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB39" s="47" t="e">
+        <v>0010</v>
+      </c>
+      <c r="AB39" s="47" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC39" s="47" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC39" s="47" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE39" s="47" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF39" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG39" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH39" s="47" t="e">
+        <v>A</v>
+      </c>
+      <c r="AH39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI39" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ39" s="47" t="e">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK39" s="47" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL39" s="47" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL39" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC39,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN39" s="47" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN39" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>08A8123C</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="49" t="e">
+      <c r="B40" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L40" s="47" t="e">
+        <v>4800383A</v>
+      </c>
+      <c r="L40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B40,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M40" s="47">
+        <v>01001</v>
+      </c>
+      <c r="M40" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C40,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C40,'HEX GEN BACKEND'!G:G,0)),C40)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="47" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O40" s="47">
+        <v>000</v>
+      </c>
+      <c r="O40" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E40,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E40,'HEX GEN BACKEND'!H:H,0)),E40)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="47" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" s="47">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(G40,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G40,'HEX GEN BACKEND'!I:I,0)),G40)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="47" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H40,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T40" s="47" t="e">
+        <v>010</v>
+      </c>
+      <c r="T40" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" s="47" t="e">
+        <v>01001000000000000011100000111010</v>
+      </c>
+      <c r="V40" s="47" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" s="47" t="e">
+        <v>0100</v>
+      </c>
+      <c r="W40" s="47" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X40" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" s="47" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Y40" s="47" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40" s="47" t="e">
+        <v>0000</v>
+      </c>
+      <c r="Z40" s="47" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA40" s="47" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA40" s="47" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB40" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="AB40" s="47" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC40" s="47" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC40" s="47" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE40" s="47" t="e">
+        <v>1010</v>
+      </c>
+      <c r="AE40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF40" s="47" t="e">
+        <v>4</v>
+      </c>
+      <c r="AF40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG40" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH40" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI40" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ40" s="47" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK40" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AK40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL40" s="47" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL40" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC40,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN40" s="47" t="e">
+        <v>A</v>
+      </c>
+      <c r="AN40" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>4800383A</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="49" t="e">
+      <c r="B41" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L41" s="47" t="e">
+        <v>0868343C</v>
+      </c>
+      <c r="L41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B41,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M41" s="47">
+        <v>00001</v>
+      </c>
+      <c r="M41" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C41,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C41,'HEX GEN BACKEND'!G:G,0)),C41)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="47" t="e">
+        <v>000011</v>
+      </c>
+      <c r="N41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O41" s="47">
+        <v>010</v>
+      </c>
+      <c r="O41" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E41,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E41,'HEX GEN BACKEND'!H:H,0)),E41)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="47" t="e">
+        <v>000011</v>
+      </c>
+      <c r="P41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" s="47">
+        <v>010</v>
+      </c>
+      <c r="Q41" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(G41,'HEX GEN BACKEND'!I:I,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(G41,'HEX GEN BACKEND'!I:I,0)),G41)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="47" t="e">
+        <v>000111</v>
+      </c>
+      <c r="R41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(H41,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T41" s="47" t="e">
+        <v>100</v>
+      </c>
+      <c r="T41" s="47" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V41" s="47" t="e">
+        <v>00001000011010000011010000111100</v>
+      </c>
+      <c r="V41" s="47" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W41" s="47" t="e">
+        <v>0000</v>
+      </c>
+      <c r="W41" s="47" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X41" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="X41" s="47" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y41" s="47" t="e">
+        <v>0110</v>
+      </c>
+      <c r="Y41" s="47" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z41" s="47" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Z41" s="47" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA41" s="47" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AA41" s="47" t="str">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB41" s="47" t="e">
+        <v>0100</v>
+      </c>
+      <c r="AB41" s="47" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC41" s="47" t="e">
+        <v>0011</v>
+      </c>
+      <c r="AC41" s="47" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE41" s="47" t="e">
+        <v>1100</v>
+      </c>
+      <c r="AE41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!V41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF41" s="47" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!W41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG41" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AG41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!X41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH41" s="47" t="e">
+        <v>6</v>
+      </c>
+      <c r="AH41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Y41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI41" s="47" t="e">
+        <v>8</v>
+      </c>
+      <c r="AI41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!Z41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ41" s="47" t="e">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AA41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AK41" s="47" t="e">
+        <v>4</v>
+      </c>
+      <c r="AK41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AB41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL41" s="47" t="e">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!M:M,MATCH('HEX GEN'!AC41,'HEX GEN BACKEND'!L:L,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN41" s="47" t="e">
+        <v>C</v>
+      </c>
+      <c r="AN41" s="47" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>0868343C</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="49" t="e">
+      <c r="B42" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="49" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="47" t="e">
+        <v>C000003A</v>
+      </c>
+      <c r="L42" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!B:B,MATCH(B42,'HEX GEN BACKEND'!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M42" s="47">
+        <v>11000</v>
+      </c>
+      <c r="M42" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(C42,'HEX GEN BACKEND'!G:G,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(C42,'HEX GEN BACKEND'!G:G,0)),C42)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="47" t="e">
+        <v>000000</v>
+      </c>
+      <c r="N42" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(D42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O42" s="47">
+        <v>000</v>
+      </c>
+      <c r="O42" s="47" t="str">
         <f>IF(ISNUMBER(MATCH(E42,'HEX GEN BACKEND'!H:H,0)),INDEX('HEX GEN BACKEND'!J:J,MATCH(E42,'HEX GEN BACKEND'!H:H,0)),E42)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="47" t="e">
+        <v>000000</v>
+      </c>
+      <c r="P42" s="47" t="str">
         <f>INDEX('HEX GEN BACKEND'!E:E,MATCH(F42,'HEX GEN BACKEND'!D:D,0))</f>
-        <v>#N/A</v>
-      </c>
-   